--- a/dev/energyscope_data/CA-QC/unit_conversion.xlsx
+++ b/dev/energyscope_data/CA-QC/unit_conversion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\mescal\dev\energyscope_data\CA-QC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C928FF-77AA-4243-ACBA-3EC50D09C23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E9EDF9-7994-4E57-8FC4-A090998A974D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1278</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6012" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6012" uniqueCount="995">
   <si>
     <t>Name</t>
   </si>
@@ -2311,9 +2310,6 @@
     <t>Tank per boiler: \cite{wernet2016}</t>
   </si>
   <si>
-    <t>cogeneration production (0.96 kWe/kWth): \cite{moret2017} ; allocation factor (0.2278): \cite{wernet2016}</t>
-  </si>
-  <si>
     <t>200 kWe ORC to be connected with a 1000 kWth furnace \cite{wernet2016}</t>
   </si>
   <si>
@@ -2869,12 +2865,6 @@
     <t>Capacity (50 kW)</t>
   </si>
   <si>
-    <t>cogeneration production (0.907 kWe/kWth): \cite{moret2017}, cogeneration unit capacity (200 kWe)</t>
-  </si>
-  <si>
-    <t>cogeneration production (0.34 kWe/kWth): \cite{moret2017}, cogeneration unit capacity (200 kWe)</t>
-  </si>
-  <si>
     <t>Capacity (5 kW)</t>
   </si>
   <si>
@@ -2893,9 +2883,6 @@
     <t>Furnace capacity (1000 kW)</t>
   </si>
   <si>
-    <t>cogeneration production (1.25 kWe/kWth): \cite{moret2017} ; allocation factor (0.1636): \cite{wernet2016}, cogeneration unit capacity (1 MWe)</t>
-  </si>
-  <si>
     <t>cogeneration production (0.44 kWe/kWth): \cite{moret2017}, cogeneration unit capacity (200 kWe)</t>
   </si>
   <si>
@@ -2935,15 +2922,9 @@
     <t>Capacity (5 MW_th)</t>
   </si>
   <si>
-    <t>Capacity (200 kW_el)</t>
-  </si>
-  <si>
     <t>Capacity (13787 MWe): \cite{wernet2016}</t>
   </si>
   <si>
-    <t>Capacity (1-10 MW), lifetime (20 years): \cite{wernet2016}</t>
-  </si>
-  <si>
     <t>Capacity (100 kW)</t>
   </si>
   <si>
@@ -3008,6 +2989,39 @@
   </si>
   <si>
     <t>natural gas density (0.777 kg/m3), natural gas LHV (13.1 kWh/kg): \cite{engineeringtoolbox2003}, capacity (16000 m3)</t>
+  </si>
+  <si>
+    <t>cogeneration production (0.96 kWe/kWth): \cite{moret2017}</t>
+  </si>
+  <si>
+    <t>boiler capacity (10 kW_th)</t>
+  </si>
+  <si>
+    <t>boiler capacity (50 kW_th)</t>
+  </si>
+  <si>
+    <t>cogeneration unit capacity (200 kWe), boiler capacity (10 kW_th), 200 kWe ORC to be connected with a 1000 kWth furnace \cite{wernet2016}</t>
+  </si>
+  <si>
+    <t>cogeneration unit capacity (200 kWe), boiler capacity (50 kW_th), 200 kWe ORC to be connected with a 1000 kWth furnace \cite{wernet2016}</t>
+  </si>
+  <si>
+    <t>cogeneration production (1.25 kWe/kWth): \cite{moret2017}, cogeneration unit capacity (1 MWe)</t>
+  </si>
+  <si>
+    <t>cogeneration unit capacity (200 kWe), boiler capacity (6667 kW_fuel), thermal efficiency (0.45), 200 kWe ORC to be connected with a 1000 kWth furnace \cite{wernet2016}</t>
+  </si>
+  <si>
+    <t>Cogeneration unit capacity (200 kW_el)</t>
+  </si>
+  <si>
+    <t>Plant capacity (5 MW_th), cogeneration unit capacity (200 kW_el), 200 kWe ORC to be connected with a 1000 kWth furnace \cite{wernet2016}</t>
+  </si>
+  <si>
+    <t>Capacity (1-10 MW): \cite{wernet2016}</t>
+  </si>
+  <si>
+    <t>boiler unit capacity (10 kW_th)</t>
   </si>
 </sst>
 </file>
@@ -3031,18 +3045,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -3077,7 +3085,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3384,15 +3392,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S103" sqref="S103"/>
+    <sheetView tabSelected="1" topLeftCell="A1265" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A1050" sqref="A1050"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="35.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -3474,7 +3484,7 @@
         <v>730</v>
       </c>
       <c r="F4" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -3512,7 +3522,7 @@
         <v>730</v>
       </c>
       <c r="F6" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -3533,7 +3543,7 @@
         <v>723</v>
       </c>
       <c r="F7" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -3698,7 +3708,7 @@
         <v>730</v>
       </c>
       <c r="F16" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -3719,7 +3729,7 @@
         <v>723</v>
       </c>
       <c r="F17" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -3778,7 +3788,7 @@
         <v>730</v>
       </c>
       <c r="F20" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -3841,7 +3851,7 @@
         <v>723</v>
       </c>
       <c r="F23" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -3883,7 +3893,7 @@
         <v>723</v>
       </c>
       <c r="F25" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -4043,7 +4053,7 @@
         <v>723</v>
       </c>
       <c r="F33" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -4085,7 +4095,7 @@
         <v>723</v>
       </c>
       <c r="F35" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -4182,7 +4192,7 @@
         <v>730</v>
       </c>
       <c r="F40" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -4203,7 +4213,7 @@
         <v>723</v>
       </c>
       <c r="F41" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -4245,7 +4255,7 @@
         <v>723</v>
       </c>
       <c r="F43" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -4287,7 +4297,7 @@
         <v>723</v>
       </c>
       <c r="F45" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -4384,7 +4394,7 @@
         <v>730</v>
       </c>
       <c r="F50" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -4405,7 +4415,7 @@
         <v>723</v>
       </c>
       <c r="F51" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -4426,7 +4436,7 @@
         <v>730</v>
       </c>
       <c r="F52" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
@@ -4447,7 +4457,7 @@
         <v>723</v>
       </c>
       <c r="F53" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -4544,7 +4554,7 @@
         <v>730</v>
       </c>
       <c r="F58" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -4565,7 +4575,7 @@
         <v>723</v>
       </c>
       <c r="F59" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -4586,7 +4596,7 @@
         <v>730</v>
       </c>
       <c r="F60" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
@@ -4607,7 +4617,7 @@
         <v>723</v>
       </c>
       <c r="F61" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
@@ -5097,7 +5107,7 @@
         <v>725</v>
       </c>
       <c r="F86" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
@@ -5139,7 +5149,7 @@
         <v>725</v>
       </c>
       <c r="F88" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
@@ -5181,7 +5191,7 @@
         <v>725</v>
       </c>
       <c r="F90" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
@@ -5223,7 +5233,7 @@
         <v>725</v>
       </c>
       <c r="F92" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
@@ -5265,7 +5275,7 @@
         <v>725</v>
       </c>
       <c r="F94" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
@@ -5307,7 +5317,7 @@
         <v>725</v>
       </c>
       <c r="F96" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
@@ -5349,7 +5359,7 @@
         <v>725</v>
       </c>
       <c r="F98" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
@@ -5391,7 +5401,7 @@
         <v>725</v>
       </c>
       <c r="F100" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
@@ -5433,7 +5443,7 @@
         <v>725</v>
       </c>
       <c r="F102" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
@@ -5475,7 +5485,7 @@
         <v>725</v>
       </c>
       <c r="F104" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
@@ -5517,7 +5527,7 @@
         <v>725</v>
       </c>
       <c r="F106" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
@@ -5559,7 +5569,7 @@
         <v>725</v>
       </c>
       <c r="F108" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
@@ -5601,7 +5611,7 @@
         <v>725</v>
       </c>
       <c r="F110" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
@@ -5643,7 +5653,7 @@
         <v>725</v>
       </c>
       <c r="F112" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
@@ -5685,7 +5695,7 @@
         <v>725</v>
       </c>
       <c r="F114" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
@@ -5727,7 +5737,7 @@
         <v>725</v>
       </c>
       <c r="F116" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
@@ -5769,7 +5779,7 @@
         <v>725</v>
       </c>
       <c r="F118" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
@@ -5811,7 +5821,7 @@
         <v>725</v>
       </c>
       <c r="F120" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
@@ -5853,7 +5863,7 @@
         <v>725</v>
       </c>
       <c r="F122" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
@@ -5895,7 +5905,7 @@
         <v>725</v>
       </c>
       <c r="F124" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
@@ -5937,7 +5947,7 @@
         <v>725</v>
       </c>
       <c r="F126" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
@@ -5979,7 +5989,7 @@
         <v>725</v>
       </c>
       <c r="F128" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
@@ -6021,7 +6031,7 @@
         <v>725</v>
       </c>
       <c r="F130" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
@@ -6063,7 +6073,7 @@
         <v>725</v>
       </c>
       <c r="F132" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
@@ -6105,7 +6115,7 @@
         <v>725</v>
       </c>
       <c r="F134" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
@@ -6147,7 +6157,7 @@
         <v>725</v>
       </c>
       <c r="F136" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
@@ -6189,7 +6199,7 @@
         <v>725</v>
       </c>
       <c r="F138" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
@@ -6231,7 +6241,7 @@
         <v>725</v>
       </c>
       <c r="F140" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
@@ -6273,7 +6283,7 @@
         <v>725</v>
       </c>
       <c r="F142" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
@@ -6315,7 +6325,7 @@
         <v>725</v>
       </c>
       <c r="F144" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
@@ -6357,7 +6367,7 @@
         <v>725</v>
       </c>
       <c r="F146" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
@@ -6399,7 +6409,7 @@
         <v>725</v>
       </c>
       <c r="F148" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
@@ -6441,7 +6451,7 @@
         <v>725</v>
       </c>
       <c r="F150" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
@@ -6483,7 +6493,7 @@
         <v>725</v>
       </c>
       <c r="F152" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
@@ -6525,7 +6535,7 @@
         <v>725</v>
       </c>
       <c r="F154" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
@@ -6567,7 +6577,7 @@
         <v>725</v>
       </c>
       <c r="F156" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
@@ -6609,7 +6619,7 @@
         <v>725</v>
       </c>
       <c r="F158" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
@@ -6651,7 +6661,7 @@
         <v>725</v>
       </c>
       <c r="F160" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
@@ -6693,7 +6703,7 @@
         <v>725</v>
       </c>
       <c r="F162" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
@@ -6735,7 +6745,7 @@
         <v>725</v>
       </c>
       <c r="F164" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
@@ -6777,7 +6787,7 @@
         <v>725</v>
       </c>
       <c r="F166" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
@@ -6819,7 +6829,7 @@
         <v>725</v>
       </c>
       <c r="F168" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
@@ -6861,7 +6871,7 @@
         <v>725</v>
       </c>
       <c r="F170" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
@@ -6903,7 +6913,7 @@
         <v>725</v>
       </c>
       <c r="F172" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
@@ -6945,7 +6955,7 @@
         <v>725</v>
       </c>
       <c r="F174" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
@@ -6987,7 +6997,7 @@
         <v>725</v>
       </c>
       <c r="F176" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
@@ -7029,7 +7039,7 @@
         <v>725</v>
       </c>
       <c r="F178" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
@@ -7071,7 +7081,7 @@
         <v>725</v>
       </c>
       <c r="F180" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
@@ -7113,7 +7123,7 @@
         <v>725</v>
       </c>
       <c r="F182" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
@@ -7155,7 +7165,7 @@
         <v>725</v>
       </c>
       <c r="F184" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
@@ -7197,7 +7207,7 @@
         <v>725</v>
       </c>
       <c r="F186" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
@@ -7239,7 +7249,7 @@
         <v>725</v>
       </c>
       <c r="F188" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
@@ -7260,7 +7270,7 @@
         <v>730</v>
       </c>
       <c r="F189" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
@@ -7299,7 +7309,7 @@
         <v>730</v>
       </c>
       <c r="F191" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
@@ -7494,7 +7504,7 @@
         <v>723</v>
       </c>
       <c r="F201" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
@@ -7536,7 +7546,7 @@
         <v>723</v>
       </c>
       <c r="F203" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
@@ -8652,7 +8662,7 @@
         <v>723</v>
       </c>
       <c r="F260" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.35">
@@ -8694,7 +8704,7 @@
         <v>723</v>
       </c>
       <c r="F262" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.35">
@@ -8736,7 +8746,7 @@
         <v>723</v>
       </c>
       <c r="F264" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.35">
@@ -8854,7 +8864,7 @@
         <v>723</v>
       </c>
       <c r="F270" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.35">
@@ -8951,7 +8961,7 @@
         <v>730</v>
       </c>
       <c r="F275" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.35">
@@ -8990,7 +9000,7 @@
         <v>730</v>
       </c>
       <c r="F277" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.35">
@@ -9029,7 +9039,7 @@
         <v>730</v>
       </c>
       <c r="F279" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.35">
@@ -9067,7 +9077,7 @@
         <v>730</v>
       </c>
       <c r="F281" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.35">
@@ -9105,7 +9115,7 @@
         <v>732</v>
       </c>
       <c r="F283" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.35">
@@ -9143,7 +9153,7 @@
         <v>732</v>
       </c>
       <c r="F285" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.35">
@@ -9181,7 +9191,7 @@
         <v>730</v>
       </c>
       <c r="F287" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.35">
@@ -9202,7 +9212,7 @@
         <v>723</v>
       </c>
       <c r="F288" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.35">
@@ -9223,7 +9233,7 @@
         <v>730</v>
       </c>
       <c r="F289" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.35">
@@ -9244,7 +9254,7 @@
         <v>723</v>
       </c>
       <c r="F290" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.35">
@@ -9265,7 +9275,7 @@
         <v>730</v>
       </c>
       <c r="F291" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.35">
@@ -9286,7 +9296,7 @@
         <v>723</v>
       </c>
       <c r="F292" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.35">
@@ -9307,7 +9317,7 @@
         <v>731</v>
       </c>
       <c r="F293" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.35">
@@ -9380,7 +9390,7 @@
         <v>731</v>
       </c>
       <c r="F297" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.35">
@@ -9453,7 +9463,7 @@
         <v>730</v>
       </c>
       <c r="F301" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.35">
@@ -9491,7 +9501,7 @@
         <v>730</v>
       </c>
       <c r="F303" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.35">
@@ -9530,7 +9540,7 @@
         <v>730</v>
       </c>
       <c r="F305" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.35">
@@ -9607,7 +9617,7 @@
         <v>730</v>
       </c>
       <c r="F309" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.35">
@@ -9646,7 +9656,7 @@
         <v>730</v>
       </c>
       <c r="F311" t="s">
-        <v>757</v>
+        <v>984</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.35">
@@ -9667,7 +9677,7 @@
         <v>723</v>
       </c>
       <c r="F312" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.35">
@@ -9729,8 +9739,8 @@
         <v>718</v>
       </c>
       <c r="C316">
-        <f>0.907 / 200</f>
-        <v>4.535E-3</v>
+        <f>1/10</f>
+        <v>0.1</v>
       </c>
       <c r="D316" t="s">
         <v>722</v>
@@ -9739,7 +9749,7 @@
         <v>730</v>
       </c>
       <c r="F316" t="s">
-        <v>943</v>
+        <v>985</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.35">
@@ -9768,8 +9778,7 @@
         <v>718</v>
       </c>
       <c r="C318" s="2">
-        <f>1000/10</f>
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D318" t="s">
         <v>722</v>
@@ -9807,7 +9816,8 @@
         <v>718</v>
       </c>
       <c r="C320">
-        <v>1</v>
+        <f>10/1000</f>
+        <v>0.01</v>
       </c>
       <c r="D320" t="s">
         <v>722</v>
@@ -9816,7 +9826,7 @@
         <v>722</v>
       </c>
       <c r="F320" t="s">
-        <v>758</v>
+        <v>987</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.35">
@@ -9827,8 +9837,8 @@
         <v>718</v>
       </c>
       <c r="C321">
-        <f>0.34 / 200</f>
-        <v>1.7000000000000001E-3</v>
+        <f>1/50</f>
+        <v>0.02</v>
       </c>
       <c r="D321" t="s">
         <v>722</v>
@@ -9837,7 +9847,7 @@
         <v>730</v>
       </c>
       <c r="F321" t="s">
-        <v>944</v>
+        <v>986</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.35">
@@ -9866,8 +9876,7 @@
         <v>718</v>
       </c>
       <c r="C323" s="2">
-        <f>1000/50</f>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D323" t="s">
         <v>722</v>
@@ -9884,7 +9893,8 @@
         <v>718</v>
       </c>
       <c r="C324">
-        <v>1</v>
+        <f>50/1000</f>
+        <v>0.05</v>
       </c>
       <c r="D324" t="s">
         <v>722</v>
@@ -9893,7 +9903,7 @@
         <v>722</v>
       </c>
       <c r="F324" t="s">
-        <v>758</v>
+        <v>988</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.35">
@@ -9914,7 +9924,7 @@
         <v>730</v>
       </c>
       <c r="F325" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.35">
@@ -9952,7 +9962,7 @@
         <v>730</v>
       </c>
       <c r="F327" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.35">
@@ -9991,7 +10001,7 @@
         <v>730</v>
       </c>
       <c r="F329" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.35">
@@ -10012,7 +10022,7 @@
         <v>730</v>
       </c>
       <c r="F330" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.35">
@@ -10051,7 +10061,7 @@
         <v>722</v>
       </c>
       <c r="F332" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.35">
@@ -10089,7 +10099,7 @@
         <v>730</v>
       </c>
       <c r="F334" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.35">
@@ -10128,7 +10138,7 @@
         <v>730</v>
       </c>
       <c r="F336" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.35">
@@ -10167,7 +10177,7 @@
         <v>730</v>
       </c>
       <c r="F338" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.35">
@@ -10244,7 +10254,7 @@
         <v>730</v>
       </c>
       <c r="F342" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.35">
@@ -10317,7 +10327,7 @@
         <v>730</v>
       </c>
       <c r="F346" t="s">
-        <v>951</v>
+        <v>989</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.35">
@@ -10338,7 +10348,7 @@
         <v>723</v>
       </c>
       <c r="F347" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.35">
@@ -10410,7 +10420,7 @@
         <v>730</v>
       </c>
       <c r="F351" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.35">
@@ -10449,7 +10459,7 @@
         <v>722</v>
       </c>
       <c r="F353" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.35">
@@ -10470,7 +10480,7 @@
         <v>730</v>
       </c>
       <c r="F354" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.35">
@@ -10509,7 +10519,7 @@
         <v>722</v>
       </c>
       <c r="F356" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.35">
@@ -10529,7 +10539,7 @@
         <v>722</v>
       </c>
       <c r="F357" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.35">
@@ -10549,7 +10559,7 @@
         <v>722</v>
       </c>
       <c r="F358" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.35">
@@ -10560,7 +10570,7 @@
         <v>718</v>
       </c>
       <c r="C359">
-        <f>(1 / 6667)/0.45</f>
+        <f>1 / (6667*0.45)</f>
         <v>3.3331666749995831E-4</v>
       </c>
       <c r="D359" t="s">
@@ -10570,7 +10580,7 @@
         <v>730</v>
       </c>
       <c r="F359" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.35">
@@ -10591,7 +10601,7 @@
         <v>723</v>
       </c>
       <c r="F360" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.35">
@@ -10636,7 +10646,8 @@
         <v>718</v>
       </c>
       <c r="C363" s="2">
-        <v>1</v>
+        <f>6667*0.45/1000</f>
+        <v>3.0001500000000001</v>
       </c>
       <c r="D363" t="s">
         <v>722</v>
@@ -10645,7 +10656,7 @@
         <v>722</v>
       </c>
       <c r="F363" t="s">
-        <v>758</v>
+        <v>990</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.35">
@@ -10666,7 +10677,7 @@
         <v>730</v>
       </c>
       <c r="F364" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.35">
@@ -10705,7 +10716,7 @@
         <v>730</v>
       </c>
       <c r="F366" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.35">
@@ -10744,7 +10755,7 @@
         <v>730</v>
       </c>
       <c r="F368" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.35">
@@ -10765,7 +10776,7 @@
         <v>723</v>
       </c>
       <c r="F369" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.35">
@@ -10786,7 +10797,7 @@
         <v>723</v>
       </c>
       <c r="F370" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.35">
@@ -10841,7 +10852,7 @@
         <v>730</v>
       </c>
       <c r="F373" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.35">
@@ -10880,7 +10891,7 @@
         <v>723</v>
       </c>
       <c r="F375" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.35">
@@ -10939,7 +10950,7 @@
         <v>723</v>
       </c>
       <c r="F378" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.35">
@@ -10960,7 +10971,7 @@
         <v>730</v>
       </c>
       <c r="F379" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.35">
@@ -10981,7 +10992,7 @@
         <v>723</v>
       </c>
       <c r="F380" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.35">
@@ -11002,7 +11013,7 @@
         <v>730</v>
       </c>
       <c r="F381" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.35">
@@ -11044,7 +11055,7 @@
         <v>730</v>
       </c>
       <c r="F383" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.35">
@@ -11065,7 +11076,7 @@
         <v>723</v>
       </c>
       <c r="F384" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.35">
@@ -11086,7 +11097,7 @@
         <v>723</v>
       </c>
       <c r="F385" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.35">
@@ -11107,7 +11118,7 @@
         <v>730</v>
       </c>
       <c r="F386" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.35">
@@ -11128,7 +11139,7 @@
         <v>723</v>
       </c>
       <c r="F387" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.35">
@@ -11149,7 +11160,7 @@
         <v>723</v>
       </c>
       <c r="F388" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.35">
@@ -11170,7 +11181,7 @@
         <v>723</v>
       </c>
       <c r="F389" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.35">
@@ -11191,7 +11202,7 @@
         <v>731</v>
       </c>
       <c r="F390" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.35">
@@ -11229,7 +11240,7 @@
         <v>731</v>
       </c>
       <c r="F392" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.35">
@@ -11267,7 +11278,7 @@
         <v>731</v>
       </c>
       <c r="F394" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.35">
@@ -11305,7 +11316,7 @@
         <v>731</v>
       </c>
       <c r="F396" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.35">
@@ -11343,7 +11354,7 @@
         <v>730</v>
       </c>
       <c r="F398" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.35">
@@ -11364,7 +11375,7 @@
         <v>723</v>
       </c>
       <c r="F399" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.35">
@@ -11385,7 +11396,7 @@
         <v>730</v>
       </c>
       <c r="F400" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.35">
@@ -11406,7 +11417,7 @@
         <v>723</v>
       </c>
       <c r="F401" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.35">
@@ -11444,7 +11455,7 @@
         <v>722</v>
       </c>
       <c r="F403" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.35">
@@ -11465,7 +11476,7 @@
         <v>730</v>
       </c>
       <c r="F404" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.35">
@@ -11486,7 +11497,7 @@
         <v>723</v>
       </c>
       <c r="F405" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.35">
@@ -11524,7 +11535,7 @@
         <v>722</v>
       </c>
       <c r="F407" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.35">
@@ -11545,7 +11556,7 @@
         <v>723</v>
       </c>
       <c r="F408" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.35">
@@ -11566,7 +11577,7 @@
         <v>723</v>
       </c>
       <c r="F409" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.35">
@@ -11587,7 +11598,7 @@
         <v>730</v>
       </c>
       <c r="F410" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.35">
@@ -11625,7 +11636,7 @@
         <v>730</v>
       </c>
       <c r="F412" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.35">
@@ -11664,7 +11675,7 @@
         <v>730</v>
       </c>
       <c r="F414" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.35">
@@ -11685,7 +11696,7 @@
         <v>723</v>
       </c>
       <c r="F415" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.35">
@@ -11706,7 +11717,7 @@
         <v>730</v>
       </c>
       <c r="F416" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.35">
@@ -11727,7 +11738,7 @@
         <v>723</v>
       </c>
       <c r="F417" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.35">
@@ -11748,7 +11759,7 @@
         <v>730</v>
       </c>
       <c r="F418" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.35">
@@ -11769,7 +11780,7 @@
         <v>723</v>
       </c>
       <c r="F419" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.35">
@@ -11790,7 +11801,7 @@
         <v>723</v>
       </c>
       <c r="F420" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.35">
@@ -11811,7 +11822,7 @@
         <v>723</v>
       </c>
       <c r="F421" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.35">
@@ -11832,7 +11843,7 @@
         <v>730</v>
       </c>
       <c r="F422" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.35">
@@ -11853,7 +11864,7 @@
         <v>723</v>
       </c>
       <c r="F423" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.35">
@@ -11874,7 +11885,7 @@
         <v>723</v>
       </c>
       <c r="F424" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.35">
@@ -11895,7 +11906,7 @@
         <v>730</v>
       </c>
       <c r="F425" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.35">
@@ -11916,7 +11927,7 @@
         <v>723</v>
       </c>
       <c r="F426" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.35">
@@ -11937,7 +11948,7 @@
         <v>723</v>
       </c>
       <c r="F427" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.35">
@@ -11958,7 +11969,7 @@
         <v>730</v>
       </c>
       <c r="F428" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.35">
@@ -11979,7 +11990,7 @@
         <v>723</v>
       </c>
       <c r="F429" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.35">
@@ -12000,7 +12011,7 @@
         <v>723</v>
       </c>
       <c r="F430" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.35">
@@ -12021,7 +12032,7 @@
         <v>723</v>
       </c>
       <c r="F431" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.35">
@@ -12042,7 +12053,7 @@
         <v>723</v>
       </c>
       <c r="F432" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.35">
@@ -12063,7 +12074,7 @@
         <v>730</v>
       </c>
       <c r="F433" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.35">
@@ -12102,7 +12113,7 @@
         <v>730</v>
       </c>
       <c r="F435" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.35">
@@ -12141,7 +12152,7 @@
         <v>723</v>
       </c>
       <c r="F437" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.35">
@@ -12180,7 +12191,7 @@
         <v>730</v>
       </c>
       <c r="F439" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.35">
@@ -12201,7 +12212,7 @@
         <v>730</v>
       </c>
       <c r="F440" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.35">
@@ -12240,7 +12251,7 @@
         <v>730</v>
       </c>
       <c r="F442" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.35">
@@ -12261,7 +12272,7 @@
         <v>723</v>
       </c>
       <c r="F443" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.35">
@@ -12282,7 +12293,7 @@
         <v>730</v>
       </c>
       <c r="F444" t="s">
-        <v>965</v>
+        <v>991</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.35">
@@ -12303,7 +12314,7 @@
         <v>723</v>
       </c>
       <c r="F445" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.35">
@@ -12323,6 +12334,9 @@
       <c r="E446" t="s">
         <v>722</v>
       </c>
+      <c r="F446" t="s">
+        <v>992</v>
+      </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
@@ -12340,9 +12354,6 @@
       <c r="E447" t="s">
         <v>722</v>
       </c>
-      <c r="F447" t="s">
-        <v>758</v>
-      </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
@@ -12362,7 +12373,7 @@
         <v>730</v>
       </c>
       <c r="F448" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.35">
@@ -12401,7 +12412,7 @@
         <v>730</v>
       </c>
       <c r="F450" s="2" t="s">
-        <v>967</v>
+        <v>993</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.35">
@@ -12440,7 +12451,7 @@
         <v>730</v>
       </c>
       <c r="F452" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.35">
@@ -12479,7 +12490,7 @@
         <v>730</v>
       </c>
       <c r="F454" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.35">
@@ -12556,7 +12567,7 @@
         <v>730</v>
       </c>
       <c r="F458" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.35">
@@ -12595,7 +12606,7 @@
         <v>730</v>
       </c>
       <c r="F460" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.35">
@@ -12634,7 +12645,7 @@
         <v>730</v>
       </c>
       <c r="F462" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.35">
@@ -12673,7 +12684,7 @@
         <v>730</v>
       </c>
       <c r="F464" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.35">
@@ -12694,7 +12705,7 @@
         <v>723</v>
       </c>
       <c r="F465" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.35">
@@ -12766,7 +12777,7 @@
         <v>730</v>
       </c>
       <c r="F469" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.35">
@@ -12805,7 +12816,7 @@
         <v>730</v>
       </c>
       <c r="F471" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.35">
@@ -12844,7 +12855,7 @@
         <v>722</v>
       </c>
       <c r="F473" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.35">
@@ -12864,7 +12875,7 @@
         <v>722</v>
       </c>
       <c r="F474" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.35">
@@ -12885,7 +12896,7 @@
         <v>722</v>
       </c>
       <c r="F475" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.35">
@@ -12905,7 +12916,7 @@
         <v>722</v>
       </c>
       <c r="F476" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.35">
@@ -12926,7 +12937,7 @@
         <v>730</v>
       </c>
       <c r="F477" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.35">
@@ -12947,7 +12958,7 @@
         <v>723</v>
       </c>
       <c r="F478" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.35">
@@ -13019,7 +13030,7 @@
         <v>730</v>
       </c>
       <c r="F482" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.35">
@@ -13057,7 +13068,7 @@
         <v>730</v>
       </c>
       <c r="F484" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.35">
@@ -13096,7 +13107,7 @@
         <v>723</v>
       </c>
       <c r="F486" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.35">
@@ -13117,7 +13128,7 @@
         <v>733</v>
       </c>
       <c r="F487" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.35">
@@ -13138,7 +13149,7 @@
         <v>729</v>
       </c>
       <c r="F488" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.35">
@@ -13159,7 +13170,7 @@
         <v>733</v>
       </c>
       <c r="F489" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.35">
@@ -13180,7 +13191,7 @@
         <v>729</v>
       </c>
       <c r="F490" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.35">
@@ -13201,7 +13212,7 @@
         <v>733</v>
       </c>
       <c r="F491" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.35">
@@ -13222,7 +13233,7 @@
         <v>729</v>
       </c>
       <c r="F492" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.35">
@@ -13243,7 +13254,7 @@
         <v>733</v>
       </c>
       <c r="F493" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.35">
@@ -13264,7 +13275,7 @@
         <v>729</v>
       </c>
       <c r="F494" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.35">
@@ -13285,7 +13296,7 @@
         <v>733</v>
       </c>
       <c r="F495" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.35">
@@ -13306,7 +13317,7 @@
         <v>729</v>
       </c>
       <c r="F496" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.35">
@@ -13327,7 +13338,7 @@
         <v>733</v>
       </c>
       <c r="F497" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.35">
@@ -13348,7 +13359,7 @@
         <v>729</v>
       </c>
       <c r="F498" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.35">
@@ -13369,7 +13380,7 @@
         <v>733</v>
       </c>
       <c r="F499" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.35">
@@ -13390,7 +13401,7 @@
         <v>729</v>
       </c>
       <c r="F500" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.35">
@@ -13411,7 +13422,7 @@
         <v>733</v>
       </c>
       <c r="F501" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.35">
@@ -13432,7 +13443,7 @@
         <v>729</v>
       </c>
       <c r="F502" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.35">
@@ -13453,7 +13464,7 @@
         <v>733</v>
       </c>
       <c r="F503" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.35">
@@ -13474,7 +13485,7 @@
         <v>729</v>
       </c>
       <c r="F504" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.35">
@@ -13495,7 +13506,7 @@
         <v>733</v>
       </c>
       <c r="F505" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.35">
@@ -13516,7 +13527,7 @@
         <v>729</v>
       </c>
       <c r="F506" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.35">
@@ -13537,7 +13548,7 @@
         <v>733</v>
       </c>
       <c r="F507" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.35">
@@ -13558,7 +13569,7 @@
         <v>729</v>
       </c>
       <c r="F508" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.35">
@@ -13579,7 +13590,7 @@
         <v>733</v>
       </c>
       <c r="F509" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.35">
@@ -13600,7 +13611,7 @@
         <v>729</v>
       </c>
       <c r="F510" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.35">
@@ -13621,7 +13632,7 @@
         <v>733</v>
       </c>
       <c r="F511" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.35">
@@ -13642,7 +13653,7 @@
         <v>729</v>
       </c>
       <c r="F512" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.35">
@@ -13663,7 +13674,7 @@
         <v>733</v>
       </c>
       <c r="F513" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.35">
@@ -13684,7 +13695,7 @@
         <v>729</v>
       </c>
       <c r="F514" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.35">
@@ -13705,7 +13716,7 @@
         <v>733</v>
       </c>
       <c r="F515" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.35">
@@ -13726,7 +13737,7 @@
         <v>729</v>
       </c>
       <c r="F516" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.35">
@@ -13747,7 +13758,7 @@
         <v>733</v>
       </c>
       <c r="F517" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.35">
@@ -13768,7 +13779,7 @@
         <v>729</v>
       </c>
       <c r="F518" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.35">
@@ -13789,7 +13800,7 @@
         <v>733</v>
       </c>
       <c r="F519" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.35">
@@ -13810,7 +13821,7 @@
         <v>729</v>
       </c>
       <c r="F520" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.35">
@@ -13831,7 +13842,7 @@
         <v>733</v>
       </c>
       <c r="F521" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.35">
@@ -13852,7 +13863,7 @@
         <v>729</v>
       </c>
       <c r="F522" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.35">
@@ -13873,7 +13884,7 @@
         <v>723</v>
       </c>
       <c r="F523" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.35">
@@ -13894,7 +13905,7 @@
         <v>723</v>
       </c>
       <c r="F524" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.35">
@@ -13915,7 +13926,7 @@
         <v>730</v>
       </c>
       <c r="F525" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.35">
@@ -13936,7 +13947,7 @@
         <v>730</v>
       </c>
       <c r="F526" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.35">
@@ -13957,7 +13968,7 @@
         <v>723</v>
       </c>
       <c r="F527" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.35">
@@ -13978,7 +13989,7 @@
         <v>730</v>
       </c>
       <c r="F528" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.35">
@@ -13999,7 +14010,7 @@
         <v>723</v>
       </c>
       <c r="F529" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.35">
@@ -14020,7 +14031,7 @@
         <v>730</v>
       </c>
       <c r="F530" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.35">
@@ -14041,7 +14052,7 @@
         <v>723</v>
       </c>
       <c r="F531" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.35">
@@ -14062,7 +14073,7 @@
         <v>723</v>
       </c>
       <c r="F532" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.35">
@@ -14083,7 +14094,7 @@
         <v>730</v>
       </c>
       <c r="F533" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.35">
@@ -14125,7 +14136,7 @@
         <v>730</v>
       </c>
       <c r="F535" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.35">
@@ -14146,7 +14157,7 @@
         <v>723</v>
       </c>
       <c r="F536" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.35">
@@ -14167,7 +14178,7 @@
         <v>730</v>
       </c>
       <c r="F537" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.35">
@@ -14188,7 +14199,7 @@
         <v>723</v>
       </c>
       <c r="F538" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.35">
@@ -14209,7 +14220,7 @@
         <v>730</v>
       </c>
       <c r="F539" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.35">
@@ -14230,7 +14241,7 @@
         <v>723</v>
       </c>
       <c r="F540" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.35">
@@ -14269,7 +14280,7 @@
         <v>730</v>
       </c>
       <c r="F542" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.35">
@@ -14290,7 +14301,7 @@
         <v>730</v>
       </c>
       <c r="F543" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.35">
@@ -14329,7 +14340,7 @@
         <v>730</v>
       </c>
       <c r="F545" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.35">
@@ -14368,7 +14379,7 @@
         <v>730</v>
       </c>
       <c r="F547" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.35">
@@ -14389,7 +14400,7 @@
         <v>723</v>
       </c>
       <c r="F548" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.35">
@@ -14410,7 +14421,7 @@
         <v>730</v>
       </c>
       <c r="F549" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.35">
@@ -14431,7 +14442,7 @@
         <v>723</v>
       </c>
       <c r="F550" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.35">
@@ -14452,7 +14463,7 @@
         <v>730</v>
       </c>
       <c r="F551" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.35">
@@ -14473,7 +14484,7 @@
         <v>723</v>
       </c>
       <c r="F552" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.35">
@@ -14494,7 +14505,7 @@
         <v>723</v>
       </c>
       <c r="F553" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.35">
@@ -14515,7 +14526,7 @@
         <v>723</v>
       </c>
       <c r="F554" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.35">
@@ -14536,7 +14547,7 @@
         <v>730</v>
       </c>
       <c r="F555" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.35">
@@ -14557,7 +14568,7 @@
         <v>723</v>
       </c>
       <c r="F556" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.35">
@@ -14578,7 +14589,7 @@
         <v>723</v>
       </c>
       <c r="F557" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.35">
@@ -14599,7 +14610,7 @@
         <v>730</v>
       </c>
       <c r="F558" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.35">
@@ -14620,7 +14631,7 @@
         <v>723</v>
       </c>
       <c r="F559" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.35">
@@ -14641,7 +14652,7 @@
         <v>723</v>
       </c>
       <c r="F560" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.35">
@@ -14662,7 +14673,7 @@
         <v>730</v>
       </c>
       <c r="F561" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.35">
@@ -14683,7 +14694,7 @@
         <v>723</v>
       </c>
       <c r="F562" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.35">
@@ -14704,7 +14715,7 @@
         <v>723</v>
       </c>
       <c r="F563" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.35">
@@ -14725,7 +14736,7 @@
         <v>723</v>
       </c>
       <c r="F564" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.35">
@@ -14746,7 +14757,7 @@
         <v>723</v>
       </c>
       <c r="F565" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.35">
@@ -14767,7 +14778,7 @@
         <v>730</v>
       </c>
       <c r="F566" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.35">
@@ -14788,7 +14799,7 @@
         <v>723</v>
       </c>
       <c r="F567" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.35">
@@ -14809,7 +14820,7 @@
         <v>730</v>
       </c>
       <c r="F568" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.35">
@@ -14830,7 +14841,7 @@
         <v>723</v>
       </c>
       <c r="F569" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.35">
@@ -14851,7 +14862,7 @@
         <v>730</v>
       </c>
       <c r="F570" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.35">
@@ -14872,7 +14883,7 @@
         <v>723</v>
       </c>
       <c r="F571" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.35">
@@ -14910,7 +14921,7 @@
         <v>722</v>
       </c>
       <c r="F573" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.35">
@@ -14931,7 +14942,7 @@
         <v>723</v>
       </c>
       <c r="F574" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.35">
@@ -14951,7 +14962,7 @@
         <v>730</v>
       </c>
       <c r="F575" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.35">
@@ -14989,7 +15000,7 @@
         <v>730</v>
       </c>
       <c r="F577" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.35">
@@ -15010,7 +15021,7 @@
         <v>723</v>
       </c>
       <c r="F578" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.35">
@@ -15031,7 +15042,7 @@
         <v>730</v>
       </c>
       <c r="F579" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.35">
@@ -15052,7 +15063,7 @@
         <v>723</v>
       </c>
       <c r="F580" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.35">
@@ -15073,7 +15084,7 @@
         <v>730</v>
       </c>
       <c r="F581" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.35">
@@ -15112,7 +15123,7 @@
         <v>731</v>
       </c>
       <c r="F583" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.35">
@@ -15150,7 +15161,7 @@
         <v>731</v>
       </c>
       <c r="F585" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.35">
@@ -15188,7 +15199,7 @@
         <v>731</v>
       </c>
       <c r="F587" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.35">
@@ -15244,7 +15255,7 @@
         <v>730</v>
       </c>
       <c r="F590" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.35">
@@ -15282,7 +15293,7 @@
         <v>730</v>
       </c>
       <c r="F592" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.35">
@@ -15303,7 +15314,7 @@
         <v>723</v>
       </c>
       <c r="F593" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.35">
@@ -15410,7 +15421,7 @@
         <v>731</v>
       </c>
       <c r="F599" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.35">
@@ -15448,7 +15459,7 @@
         <v>723</v>
       </c>
       <c r="F601" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.35">
@@ -15469,7 +15480,7 @@
         <v>733</v>
       </c>
       <c r="F602" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.35">
@@ -15508,7 +15519,7 @@
         <v>732</v>
       </c>
       <c r="F604" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.35">
@@ -15547,7 +15558,7 @@
         <v>732</v>
       </c>
       <c r="F606" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.35">
@@ -15586,7 +15597,7 @@
         <v>731</v>
       </c>
       <c r="F608" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.35">
@@ -15642,7 +15653,7 @@
         <v>723</v>
       </c>
       <c r="F611" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.35">
@@ -15663,7 +15674,7 @@
         <v>723</v>
       </c>
       <c r="F612" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.35">
@@ -15686,7 +15697,7 @@
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B614" t="s">
         <v>718</v>
@@ -15702,12 +15713,12 @@
         <v>730</v>
       </c>
       <c r="F614" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B615" t="s">
         <v>719</v>
@@ -15725,7 +15736,7 @@
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B616" t="s">
         <v>718</v>
@@ -15741,12 +15752,12 @@
         <v>730</v>
       </c>
       <c r="F616" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B617" t="s">
         <v>719</v>
@@ -15797,7 +15808,7 @@
         <v>731</v>
       </c>
       <c r="F619" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.35">
@@ -15835,7 +15846,7 @@
         <v>730</v>
       </c>
       <c r="F621" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.35">
@@ -15856,7 +15867,7 @@
         <v>723</v>
       </c>
       <c r="F622" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.35">
@@ -15877,7 +15888,7 @@
         <v>732</v>
       </c>
       <c r="F623" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.35">
@@ -15916,7 +15927,7 @@
         <v>732</v>
       </c>
       <c r="F625" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.35">
@@ -15955,7 +15966,7 @@
         <v>732</v>
       </c>
       <c r="F627" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.35">
@@ -15994,7 +16005,7 @@
         <v>732</v>
       </c>
       <c r="F629" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.35">
@@ -16033,7 +16044,7 @@
         <v>732</v>
       </c>
       <c r="F631" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.35">
@@ -16072,7 +16083,7 @@
         <v>732</v>
       </c>
       <c r="F633" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.35">
@@ -16111,7 +16122,7 @@
         <v>732</v>
       </c>
       <c r="F635" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.35">
@@ -16150,7 +16161,7 @@
         <v>732</v>
       </c>
       <c r="F637" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.35">
@@ -16189,7 +16200,7 @@
         <v>732</v>
       </c>
       <c r="F639" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.35">
@@ -16228,7 +16239,7 @@
         <v>733</v>
       </c>
       <c r="F641" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.35">
@@ -16267,7 +16278,7 @@
         <v>733</v>
       </c>
       <c r="F643" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.35">
@@ -16306,7 +16317,7 @@
         <v>733</v>
       </c>
       <c r="F645" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.35">
@@ -16345,7 +16356,7 @@
         <v>733</v>
       </c>
       <c r="F647" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.35">
@@ -16384,7 +16395,7 @@
         <v>733</v>
       </c>
       <c r="F649" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.35">
@@ -16423,7 +16434,7 @@
         <v>733</v>
       </c>
       <c r="F651" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.35">
@@ -16462,7 +16473,7 @@
         <v>733</v>
       </c>
       <c r="F653" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.35">
@@ -16501,7 +16512,7 @@
         <v>733</v>
       </c>
       <c r="F655" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.35">
@@ -16540,7 +16551,7 @@
         <v>733</v>
       </c>
       <c r="F657" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.35">
@@ -16579,7 +16590,7 @@
         <v>733</v>
       </c>
       <c r="F659" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.35">
@@ -16618,7 +16629,7 @@
         <v>733</v>
       </c>
       <c r="F661" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.35">
@@ -16657,7 +16668,7 @@
         <v>733</v>
       </c>
       <c r="F663" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.35">
@@ -16696,7 +16707,7 @@
         <v>733</v>
       </c>
       <c r="F665" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.35">
@@ -16735,7 +16746,7 @@
         <v>733</v>
       </c>
       <c r="F667" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.35">
@@ -16774,7 +16785,7 @@
         <v>733</v>
       </c>
       <c r="F669" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.35">
@@ -16813,7 +16824,7 @@
         <v>733</v>
       </c>
       <c r="F671" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.35">
@@ -16852,7 +16863,7 @@
         <v>733</v>
       </c>
       <c r="F673" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.35">
@@ -16873,7 +16884,7 @@
         <v>729</v>
       </c>
       <c r="F674" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.35">
@@ -16894,7 +16905,7 @@
         <v>733</v>
       </c>
       <c r="F675" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.35">
@@ -16915,7 +16926,7 @@
         <v>729</v>
       </c>
       <c r="F676" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.35">
@@ -16936,7 +16947,7 @@
         <v>733</v>
       </c>
       <c r="F677" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.35">
@@ -16957,7 +16968,7 @@
         <v>729</v>
       </c>
       <c r="F678" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.35">
@@ -16978,7 +16989,7 @@
         <v>733</v>
       </c>
       <c r="F679" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.35">
@@ -16999,7 +17010,7 @@
         <v>729</v>
       </c>
       <c r="F680" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.35">
@@ -17020,7 +17031,7 @@
         <v>733</v>
       </c>
       <c r="F681" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.35">
@@ -17041,7 +17052,7 @@
         <v>729</v>
       </c>
       <c r="F682" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.35">
@@ -17062,7 +17073,7 @@
         <v>733</v>
       </c>
       <c r="F683" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.35">
@@ -17083,7 +17094,7 @@
         <v>729</v>
       </c>
       <c r="F684" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.35">
@@ -17104,7 +17115,7 @@
         <v>733</v>
       </c>
       <c r="F685" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.35">
@@ -17125,7 +17136,7 @@
         <v>729</v>
       </c>
       <c r="F686" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.35">
@@ -17146,7 +17157,7 @@
         <v>733</v>
       </c>
       <c r="F687" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.35">
@@ -17167,7 +17178,7 @@
         <v>729</v>
       </c>
       <c r="F688" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.35">
@@ -17188,7 +17199,7 @@
         <v>731</v>
       </c>
       <c r="F689" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.35">
@@ -17247,7 +17258,7 @@
         <v>723</v>
       </c>
       <c r="F692" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="693" spans="1:6" x14ac:dyDescent="0.35">
@@ -17289,7 +17300,7 @@
         <v>723</v>
       </c>
       <c r="F694" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.35">
@@ -17386,7 +17397,7 @@
         <v>723</v>
       </c>
       <c r="F699" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.35">
@@ -17407,7 +17418,7 @@
         <v>723</v>
       </c>
       <c r="F700" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="701" spans="1:6" x14ac:dyDescent="0.35">
@@ -17428,7 +17439,7 @@
         <v>730</v>
       </c>
       <c r="F701" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.35">
@@ -17449,7 +17460,7 @@
         <v>723</v>
       </c>
       <c r="F702" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.35">
@@ -17573,7 +17584,7 @@
         <v>731</v>
       </c>
       <c r="F709" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.35">
@@ -17611,7 +17622,7 @@
         <v>731</v>
       </c>
       <c r="F711" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.35">
@@ -17649,7 +17660,7 @@
         <v>731</v>
       </c>
       <c r="F713" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.35">
@@ -17705,7 +17716,7 @@
         <v>731</v>
       </c>
       <c r="F716" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.35">
@@ -19615,7 +19626,7 @@
         <v>730</v>
       </c>
       <c r="F814" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="815" spans="1:6" x14ac:dyDescent="0.35">
@@ -19654,7 +19665,7 @@
         <v>723</v>
       </c>
       <c r="F816" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="817" spans="1:6" x14ac:dyDescent="0.35">
@@ -19777,7 +19788,7 @@
         <v>732</v>
       </c>
       <c r="F823" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="824" spans="1:6" x14ac:dyDescent="0.35">
@@ -19816,7 +19827,7 @@
         <v>732</v>
       </c>
       <c r="F825" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.35">
@@ -19855,7 +19866,7 @@
         <v>732</v>
       </c>
       <c r="F827" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="828" spans="1:6" x14ac:dyDescent="0.35">
@@ -19894,7 +19905,7 @@
         <v>732</v>
       </c>
       <c r="F829" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.35">
@@ -19933,7 +19944,7 @@
         <v>733</v>
       </c>
       <c r="F831" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="832" spans="1:6" x14ac:dyDescent="0.35">
@@ -19970,7 +19981,7 @@
         <v>722</v>
       </c>
       <c r="F833" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.35">
@@ -19990,7 +20001,7 @@
         <v>722</v>
       </c>
       <c r="F834" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="835" spans="1:6" x14ac:dyDescent="0.35">
@@ -20011,7 +20022,7 @@
         <v>733</v>
       </c>
       <c r="F835" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.35">
@@ -20048,7 +20059,7 @@
         <v>722</v>
       </c>
       <c r="F837" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="838" spans="1:6" x14ac:dyDescent="0.35">
@@ -20068,7 +20079,7 @@
         <v>722</v>
       </c>
       <c r="F838" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="839" spans="1:6" x14ac:dyDescent="0.35">
@@ -20089,7 +20100,7 @@
         <v>733</v>
       </c>
       <c r="F839" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="840" spans="1:6" x14ac:dyDescent="0.35">
@@ -20126,7 +20137,7 @@
         <v>722</v>
       </c>
       <c r="F841" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="842" spans="1:6" x14ac:dyDescent="0.35">
@@ -20146,7 +20157,7 @@
         <v>722</v>
       </c>
       <c r="F842" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="843" spans="1:6" x14ac:dyDescent="0.35">
@@ -20167,7 +20178,7 @@
         <v>733</v>
       </c>
       <c r="F843" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="844" spans="1:6" x14ac:dyDescent="0.35">
@@ -20204,7 +20215,7 @@
         <v>722</v>
       </c>
       <c r="F845" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="846" spans="1:6" x14ac:dyDescent="0.35">
@@ -20224,7 +20235,7 @@
         <v>722</v>
       </c>
       <c r="F846" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.35">
@@ -20245,7 +20256,7 @@
         <v>733</v>
       </c>
       <c r="F847" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.35">
@@ -20282,7 +20293,7 @@
         <v>722</v>
       </c>
       <c r="F849" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="850" spans="1:6" x14ac:dyDescent="0.35">
@@ -20302,7 +20313,7 @@
         <v>722</v>
       </c>
       <c r="F850" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="851" spans="1:6" x14ac:dyDescent="0.35">
@@ -20323,7 +20334,7 @@
         <v>733</v>
       </c>
       <c r="F851" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="852" spans="1:6" x14ac:dyDescent="0.35">
@@ -20361,7 +20372,7 @@
         <v>722</v>
       </c>
       <c r="F853" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="854" spans="1:6" x14ac:dyDescent="0.35">
@@ -20381,7 +20392,7 @@
         <v>722</v>
       </c>
       <c r="F854" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="855" spans="1:6" x14ac:dyDescent="0.35">
@@ -20402,7 +20413,7 @@
         <v>733</v>
       </c>
       <c r="F855" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="856" spans="1:6" x14ac:dyDescent="0.35">
@@ -20440,7 +20451,7 @@
         <v>722</v>
       </c>
       <c r="F857" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="0.35">
@@ -20460,7 +20471,7 @@
         <v>722</v>
       </c>
       <c r="F858" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="859" spans="1:6" x14ac:dyDescent="0.35">
@@ -20481,7 +20492,7 @@
         <v>733</v>
       </c>
       <c r="F859" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="860" spans="1:6" x14ac:dyDescent="0.35">
@@ -20518,7 +20529,7 @@
         <v>722</v>
       </c>
       <c r="F861" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.35">
@@ -20538,7 +20549,7 @@
         <v>722</v>
       </c>
       <c r="F862" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="863" spans="1:6" x14ac:dyDescent="0.35">
@@ -20559,7 +20570,7 @@
         <v>733</v>
       </c>
       <c r="F863" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="864" spans="1:6" x14ac:dyDescent="0.35">
@@ -20596,7 +20607,7 @@
         <v>722</v>
       </c>
       <c r="F865" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="866" spans="1:6" x14ac:dyDescent="0.35">
@@ -20616,7 +20627,7 @@
         <v>722</v>
       </c>
       <c r="F866" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="867" spans="1:6" x14ac:dyDescent="0.35">
@@ -20637,7 +20648,7 @@
         <v>733</v>
       </c>
       <c r="F867" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="868" spans="1:6" x14ac:dyDescent="0.35">
@@ -20674,7 +20685,7 @@
         <v>722</v>
       </c>
       <c r="F869" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.35">
@@ -20694,7 +20705,7 @@
         <v>722</v>
       </c>
       <c r="F870" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="871" spans="1:6" x14ac:dyDescent="0.35">
@@ -20715,7 +20726,7 @@
         <v>732</v>
       </c>
       <c r="F871" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="872" spans="1:6" x14ac:dyDescent="0.35">
@@ -20754,7 +20765,7 @@
         <v>732</v>
       </c>
       <c r="F873" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="874" spans="1:6" x14ac:dyDescent="0.35">
@@ -20793,7 +20804,7 @@
         <v>732</v>
       </c>
       <c r="F875" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="876" spans="1:6" x14ac:dyDescent="0.35">
@@ -20832,7 +20843,7 @@
         <v>732</v>
       </c>
       <c r="F877" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="878" spans="1:6" x14ac:dyDescent="0.35">
@@ -20871,7 +20882,7 @@
         <v>732</v>
       </c>
       <c r="F879" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="880" spans="1:6" x14ac:dyDescent="0.35">
@@ -20910,7 +20921,7 @@
         <v>733</v>
       </c>
       <c r="F881" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="882" spans="1:6" x14ac:dyDescent="0.35">
@@ -20949,7 +20960,7 @@
         <v>733</v>
       </c>
       <c r="F883" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="884" spans="1:6" x14ac:dyDescent="0.35">
@@ -20988,7 +20999,7 @@
         <v>733</v>
       </c>
       <c r="F885" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="886" spans="1:6" x14ac:dyDescent="0.35">
@@ -21027,7 +21038,7 @@
         <v>733</v>
       </c>
       <c r="F887" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="888" spans="1:6" x14ac:dyDescent="0.35">
@@ -21066,7 +21077,7 @@
         <v>733</v>
       </c>
       <c r="F889" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="890" spans="1:6" x14ac:dyDescent="0.35">
@@ -21105,7 +21116,7 @@
         <v>733</v>
       </c>
       <c r="F891" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="892" spans="1:6" x14ac:dyDescent="0.35">
@@ -21144,7 +21155,7 @@
         <v>733</v>
       </c>
       <c r="F893" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="894" spans="1:6" x14ac:dyDescent="0.35">
@@ -21183,7 +21194,7 @@
         <v>733</v>
       </c>
       <c r="F895" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="896" spans="1:6" x14ac:dyDescent="0.35">
@@ -21222,7 +21233,7 @@
         <v>733</v>
       </c>
       <c r="F897" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="898" spans="1:6" x14ac:dyDescent="0.35">
@@ -21243,7 +21254,7 @@
         <v>729</v>
       </c>
       <c r="F898" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="899" spans="1:6" x14ac:dyDescent="0.35">
@@ -21264,7 +21275,7 @@
         <v>733</v>
       </c>
       <c r="F899" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="900" spans="1:6" x14ac:dyDescent="0.35">
@@ -21285,7 +21296,7 @@
         <v>729</v>
       </c>
       <c r="F900" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="901" spans="1:6" x14ac:dyDescent="0.35">
@@ -21306,7 +21317,7 @@
         <v>733</v>
       </c>
       <c r="F901" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.35">
@@ -21327,7 +21338,7 @@
         <v>729</v>
       </c>
       <c r="F902" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="903" spans="1:6" x14ac:dyDescent="0.35">
@@ -21348,7 +21359,7 @@
         <v>733</v>
       </c>
       <c r="F903" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="904" spans="1:6" x14ac:dyDescent="0.35">
@@ -21369,7 +21380,7 @@
         <v>729</v>
       </c>
       <c r="F904" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="905" spans="1:6" x14ac:dyDescent="0.35">
@@ -21390,7 +21401,7 @@
         <v>733</v>
       </c>
       <c r="F905" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="906" spans="1:6" x14ac:dyDescent="0.35">
@@ -21411,7 +21422,7 @@
         <v>729</v>
       </c>
       <c r="F906" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="907" spans="1:6" x14ac:dyDescent="0.35">
@@ -21432,7 +21443,7 @@
         <v>733</v>
       </c>
       <c r="F907" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="908" spans="1:6" x14ac:dyDescent="0.35">
@@ -21453,7 +21464,7 @@
         <v>729</v>
       </c>
       <c r="F908" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="909" spans="1:6" x14ac:dyDescent="0.35">
@@ -21474,7 +21485,7 @@
         <v>733</v>
       </c>
       <c r="F909" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="910" spans="1:6" x14ac:dyDescent="0.35">
@@ -21495,7 +21506,7 @@
         <v>729</v>
       </c>
       <c r="F910" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="911" spans="1:6" x14ac:dyDescent="0.35">
@@ -21516,7 +21527,7 @@
         <v>733</v>
       </c>
       <c r="F911" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="912" spans="1:6" x14ac:dyDescent="0.35">
@@ -21537,7 +21548,7 @@
         <v>729</v>
       </c>
       <c r="F912" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="913" spans="1:6" x14ac:dyDescent="0.35">
@@ -21558,7 +21569,7 @@
         <v>733</v>
       </c>
       <c r="F913" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="914" spans="1:6" x14ac:dyDescent="0.35">
@@ -21579,7 +21590,7 @@
         <v>729</v>
       </c>
       <c r="F914" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="915" spans="1:6" x14ac:dyDescent="0.35">
@@ -21600,7 +21611,7 @@
         <v>733</v>
       </c>
       <c r="F915" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="916" spans="1:6" x14ac:dyDescent="0.35">
@@ -21621,7 +21632,7 @@
         <v>729</v>
       </c>
       <c r="F916" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="917" spans="1:6" x14ac:dyDescent="0.35">
@@ -21642,7 +21653,7 @@
         <v>733</v>
       </c>
       <c r="F917" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="918" spans="1:6" x14ac:dyDescent="0.35">
@@ -21663,7 +21674,7 @@
         <v>729</v>
       </c>
       <c r="F918" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="919" spans="1:6" x14ac:dyDescent="0.35">
@@ -21684,7 +21695,7 @@
         <v>733</v>
       </c>
       <c r="F919" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="920" spans="1:6" x14ac:dyDescent="0.35">
@@ -21705,7 +21716,7 @@
         <v>729</v>
       </c>
       <c r="F920" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="921" spans="1:6" x14ac:dyDescent="0.35">
@@ -21726,7 +21737,7 @@
         <v>733</v>
       </c>
       <c r="F921" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="922" spans="1:6" x14ac:dyDescent="0.35">
@@ -21747,7 +21758,7 @@
         <v>729</v>
       </c>
       <c r="F922" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="923" spans="1:6" x14ac:dyDescent="0.35">
@@ -21768,7 +21779,7 @@
         <v>733</v>
       </c>
       <c r="F923" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="924" spans="1:6" x14ac:dyDescent="0.35">
@@ -21789,7 +21800,7 @@
         <v>729</v>
       </c>
       <c r="F924" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="925" spans="1:6" x14ac:dyDescent="0.35">
@@ -21810,7 +21821,7 @@
         <v>733</v>
       </c>
       <c r="F925" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="926" spans="1:6" x14ac:dyDescent="0.35">
@@ -21831,7 +21842,7 @@
         <v>729</v>
       </c>
       <c r="F926" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="927" spans="1:6" x14ac:dyDescent="0.35">
@@ -21852,7 +21863,7 @@
         <v>733</v>
       </c>
       <c r="F927" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="928" spans="1:6" x14ac:dyDescent="0.35">
@@ -21873,7 +21884,7 @@
         <v>729</v>
       </c>
       <c r="F928" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="929" spans="1:6" x14ac:dyDescent="0.35">
@@ -21912,7 +21923,7 @@
         <v>723</v>
       </c>
       <c r="F930" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="931" spans="1:6" x14ac:dyDescent="0.35">
@@ -21933,7 +21944,7 @@
         <v>723</v>
       </c>
       <c r="F931" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="932" spans="1:6" x14ac:dyDescent="0.35">
@@ -21954,7 +21965,7 @@
         <v>723</v>
       </c>
       <c r="F932" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="933" spans="1:6" x14ac:dyDescent="0.35">
@@ -21975,7 +21986,7 @@
         <v>723</v>
       </c>
       <c r="F933" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="934" spans="1:6" x14ac:dyDescent="0.35">
@@ -21996,7 +22007,7 @@
         <v>723</v>
       </c>
       <c r="F934" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="935" spans="1:6" x14ac:dyDescent="0.35">
@@ -22017,7 +22028,7 @@
         <v>730</v>
       </c>
       <c r="F935" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
     </row>
     <row r="936" spans="1:6" x14ac:dyDescent="0.35">
@@ -22090,7 +22101,7 @@
         <v>730</v>
       </c>
       <c r="F939" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
     </row>
     <row r="940" spans="1:6" x14ac:dyDescent="0.35">
@@ -22147,7 +22158,7 @@
     </row>
     <row r="943" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A943" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B943" t="s">
         <v>718</v>
@@ -22163,12 +22174,12 @@
         <v>730</v>
       </c>
       <c r="F943" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
     </row>
     <row r="944" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A944" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B944" t="s">
         <v>719</v>
@@ -22186,7 +22197,7 @@
     </row>
     <row r="945" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A945" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B945" t="s">
         <v>718</v>
@@ -22203,7 +22214,7 @@
     </row>
     <row r="946" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A946" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B946" t="s">
         <v>718</v>
@@ -22236,7 +22247,7 @@
         <v>723</v>
       </c>
       <c r="F947" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="948" spans="1:6" x14ac:dyDescent="0.35">
@@ -22257,7 +22268,7 @@
         <v>730</v>
       </c>
       <c r="F948" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="949" spans="1:6" x14ac:dyDescent="0.35">
@@ -22278,7 +22289,7 @@
         <v>723</v>
       </c>
       <c r="F949" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="950" spans="1:6" x14ac:dyDescent="0.35">
@@ -22299,7 +22310,7 @@
         <v>723</v>
       </c>
       <c r="F950" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="951" spans="1:6" x14ac:dyDescent="0.35">
@@ -22320,7 +22331,7 @@
         <v>724</v>
       </c>
       <c r="F951" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="952" spans="1:6" x14ac:dyDescent="0.35">
@@ -22341,12 +22352,12 @@
         <v>721</v>
       </c>
       <c r="F952" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="953" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A953" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B953" t="s">
         <v>720</v>
@@ -22383,7 +22394,7 @@
         <v>723</v>
       </c>
       <c r="F954" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="955" spans="1:6" x14ac:dyDescent="0.35">
@@ -22404,7 +22415,7 @@
         <v>723</v>
       </c>
       <c r="F955" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="956" spans="1:6" x14ac:dyDescent="0.35">
@@ -22445,7 +22456,7 @@
     </row>
     <row r="958" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A958" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B958" t="s">
         <v>720</v>
@@ -22461,7 +22472,7 @@
         <v>723</v>
       </c>
       <c r="F958" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="959" spans="1:6" x14ac:dyDescent="0.35">
@@ -22482,7 +22493,7 @@
         <v>723</v>
       </c>
       <c r="F959" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="960" spans="1:6" x14ac:dyDescent="0.35">
@@ -22539,7 +22550,7 @@
         <v>723</v>
       </c>
       <c r="F962" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="963" spans="1:6" x14ac:dyDescent="0.35">
@@ -22560,7 +22571,7 @@
         <v>723</v>
       </c>
       <c r="F963" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="964" spans="1:6" x14ac:dyDescent="0.35">
@@ -22581,7 +22592,7 @@
         <v>723</v>
       </c>
       <c r="F964" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="965" spans="1:6" x14ac:dyDescent="0.35">
@@ -22602,7 +22613,7 @@
         <v>723</v>
       </c>
       <c r="F965" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="966" spans="1:6" x14ac:dyDescent="0.35">
@@ -22623,7 +22634,7 @@
         <v>723</v>
       </c>
       <c r="F966" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="967" spans="1:6" x14ac:dyDescent="0.35">
@@ -22644,12 +22655,12 @@
         <v>723</v>
       </c>
       <c r="F967" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="968" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A968" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B968" t="s">
         <v>720</v>
@@ -22665,7 +22676,7 @@
         <v>723</v>
       </c>
       <c r="F968" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="969" spans="1:6" x14ac:dyDescent="0.35">
@@ -22686,7 +22697,7 @@
         <v>721</v>
       </c>
       <c r="F969" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="970" spans="1:6" x14ac:dyDescent="0.35">
@@ -22707,7 +22718,7 @@
         <v>723</v>
       </c>
       <c r="F970" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="971" spans="1:6" x14ac:dyDescent="0.35">
@@ -22728,7 +22739,7 @@
         <v>723</v>
       </c>
       <c r="F971" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="972" spans="1:6" x14ac:dyDescent="0.35">
@@ -22749,7 +22760,7 @@
         <v>724</v>
       </c>
       <c r="F972" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="973" spans="1:6" x14ac:dyDescent="0.35">
@@ -22770,7 +22781,7 @@
         <v>723</v>
       </c>
       <c r="F973" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="974" spans="1:6" x14ac:dyDescent="0.35">
@@ -22791,12 +22802,12 @@
         <v>723</v>
       </c>
       <c r="F974" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="975" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A975" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B975" t="s">
         <v>720</v>
@@ -22812,7 +22823,7 @@
         <v>723</v>
       </c>
       <c r="F975" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="976" spans="1:6" x14ac:dyDescent="0.35">
@@ -22833,7 +22844,7 @@
         <v>721</v>
       </c>
       <c r="F976" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="977" spans="1:6" x14ac:dyDescent="0.35">
@@ -22854,12 +22865,12 @@
         <v>724</v>
       </c>
       <c r="F977" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="978" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A978" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B978" t="s">
         <v>720</v>
@@ -22875,7 +22886,7 @@
         <v>723</v>
       </c>
       <c r="F978" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="979" spans="1:6" x14ac:dyDescent="0.35">
@@ -22896,7 +22907,7 @@
         <v>723</v>
       </c>
       <c r="F979" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="980" spans="1:6" x14ac:dyDescent="0.35">
@@ -22917,7 +22928,7 @@
         <v>723</v>
       </c>
       <c r="F980" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="981" spans="1:6" x14ac:dyDescent="0.35">
@@ -22938,7 +22949,7 @@
         <v>723</v>
       </c>
       <c r="F981" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="982" spans="1:6" x14ac:dyDescent="0.35">
@@ -22998,7 +23009,7 @@
         <v>732</v>
       </c>
       <c r="F984" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="985" spans="1:6" x14ac:dyDescent="0.35">
@@ -23058,7 +23069,7 @@
         <v>725</v>
       </c>
       <c r="F987" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="988" spans="1:6" x14ac:dyDescent="0.35">
@@ -23100,7 +23111,7 @@
         <v>725</v>
       </c>
       <c r="F989" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="990" spans="1:6" x14ac:dyDescent="0.35">
@@ -23142,7 +23153,7 @@
         <v>725</v>
       </c>
       <c r="F991" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="992" spans="1:6" x14ac:dyDescent="0.35">
@@ -23184,7 +23195,7 @@
         <v>725</v>
       </c>
       <c r="F993" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="994" spans="1:6" x14ac:dyDescent="0.35">
@@ -23226,7 +23237,7 @@
         <v>725</v>
       </c>
       <c r="F995" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="996" spans="1:6" x14ac:dyDescent="0.35">
@@ -23268,7 +23279,7 @@
         <v>725</v>
       </c>
       <c r="F997" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="998" spans="1:6" x14ac:dyDescent="0.35">
@@ -23310,7 +23321,7 @@
         <v>725</v>
       </c>
       <c r="F999" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="1000" spans="1:6" x14ac:dyDescent="0.35">
@@ -23352,7 +23363,7 @@
         <v>725</v>
       </c>
       <c r="F1001" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="1002" spans="1:6" x14ac:dyDescent="0.35">
@@ -23394,7 +23405,7 @@
         <v>725</v>
       </c>
       <c r="F1003" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="1004" spans="1:6" x14ac:dyDescent="0.35">
@@ -23436,7 +23447,7 @@
         <v>725</v>
       </c>
       <c r="F1005" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="1006" spans="1:6" x14ac:dyDescent="0.35">
@@ -23478,7 +23489,7 @@
         <v>725</v>
       </c>
       <c r="F1007" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="1008" spans="1:6" x14ac:dyDescent="0.35">
@@ -23520,7 +23531,7 @@
         <v>725</v>
       </c>
       <c r="F1009" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="1010" spans="1:6" x14ac:dyDescent="0.35">
@@ -23562,7 +23573,7 @@
         <v>725</v>
       </c>
       <c r="F1011" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="1012" spans="1:6" x14ac:dyDescent="0.35">
@@ -23604,7 +23615,7 @@
         <v>725</v>
       </c>
       <c r="F1013" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="1014" spans="1:6" x14ac:dyDescent="0.35">
@@ -23646,7 +23657,7 @@
         <v>725</v>
       </c>
       <c r="F1015" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="1016" spans="1:6" x14ac:dyDescent="0.35">
@@ -23688,7 +23699,7 @@
         <v>725</v>
       </c>
       <c r="F1017" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="1018" spans="1:6" x14ac:dyDescent="0.35">
@@ -23709,7 +23720,7 @@
         <v>730</v>
       </c>
       <c r="F1018" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
     <row r="1019" spans="1:6" x14ac:dyDescent="0.35">
@@ -23748,7 +23759,7 @@
         <v>730</v>
       </c>
       <c r="F1020" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
     <row r="1021" spans="1:6" x14ac:dyDescent="0.35">
@@ -24021,7 +24032,7 @@
         <v>730</v>
       </c>
       <c r="F1034" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="1035" spans="1:6" x14ac:dyDescent="0.35">
@@ -24060,7 +24071,7 @@
         <v>730</v>
       </c>
       <c r="F1036" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="1037" spans="1:6" x14ac:dyDescent="0.35">
@@ -24137,7 +24148,7 @@
         <v>730</v>
       </c>
       <c r="F1040" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
     </row>
     <row r="1041" spans="1:6" x14ac:dyDescent="0.35">
@@ -24158,7 +24169,7 @@
         <v>723</v>
       </c>
       <c r="F1041" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1042" spans="1:6" x14ac:dyDescent="0.35">
@@ -24220,8 +24231,8 @@
         <v>718</v>
       </c>
       <c r="C1045">
-        <f>0.907 / 200</f>
-        <v>4.535E-3</v>
+        <f>1/10</f>
+        <v>0.1</v>
       </c>
       <c r="D1045" t="s">
         <v>722</v>
@@ -24230,7 +24241,7 @@
         <v>730</v>
       </c>
       <c r="F1045" t="s">
-        <v>943</v>
+        <v>994</v>
       </c>
     </row>
     <row r="1046" spans="1:6" x14ac:dyDescent="0.35">
@@ -24259,8 +24270,7 @@
         <v>718</v>
       </c>
       <c r="C1047" s="2">
-        <f>1000/10</f>
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D1047" t="s">
         <v>722</v>
@@ -24276,7 +24286,7 @@
       <c r="B1048" t="s">
         <v>718</v>
       </c>
-      <c r="C1048" s="2">
+      <c r="C1048">
         <f>0.00000044092/0.00000066138</f>
         <v>0.66666666666666663</v>
       </c>
@@ -24298,7 +24308,8 @@
         <v>718</v>
       </c>
       <c r="C1049">
-        <v>1</v>
+        <f>10/1000</f>
+        <v>0.01</v>
       </c>
       <c r="D1049" t="s">
         <v>722</v>
@@ -24307,7 +24318,7 @@
         <v>722</v>
       </c>
       <c r="F1049" t="s">
-        <v>758</v>
+        <v>987</v>
       </c>
     </row>
     <row r="1050" spans="1:6" x14ac:dyDescent="0.35">
@@ -24328,7 +24339,7 @@
         <v>730</v>
       </c>
       <c r="F1050" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
     </row>
     <row r="1051" spans="1:6" x14ac:dyDescent="0.35">
@@ -24367,7 +24378,7 @@
         <v>722</v>
       </c>
       <c r="F1052" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="1053" spans="1:6" x14ac:dyDescent="0.35">
@@ -24405,7 +24416,7 @@
         <v>730</v>
       </c>
       <c r="F1054" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="1055" spans="1:6" x14ac:dyDescent="0.35">
@@ -24444,7 +24455,7 @@
         <v>730</v>
       </c>
       <c r="F1056" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="1057" spans="1:6" x14ac:dyDescent="0.35">
@@ -24521,7 +24532,7 @@
         <v>730</v>
       </c>
       <c r="F1060" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
     </row>
     <row r="1061" spans="1:6" x14ac:dyDescent="0.35">
@@ -24542,7 +24553,7 @@
         <v>723</v>
       </c>
       <c r="F1061" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="1062" spans="1:6" x14ac:dyDescent="0.35">
@@ -24614,7 +24625,7 @@
         <v>730</v>
       </c>
       <c r="F1065" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="1066" spans="1:6" x14ac:dyDescent="0.35">
@@ -24635,7 +24646,7 @@
         <v>723</v>
       </c>
       <c r="F1066" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="1067" spans="1:6" x14ac:dyDescent="0.35">
@@ -24656,7 +24667,7 @@
         <v>730</v>
       </c>
       <c r="F1067" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
     <row r="1068" spans="1:6" x14ac:dyDescent="0.35">
@@ -24695,7 +24706,7 @@
         <v>730</v>
       </c>
       <c r="F1069" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
     <row r="1070" spans="1:6" x14ac:dyDescent="0.35">
@@ -24734,7 +24745,7 @@
         <v>730</v>
       </c>
       <c r="F1071" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="1072" spans="1:6" x14ac:dyDescent="0.35">
@@ -24773,7 +24784,7 @@
         <v>730</v>
       </c>
       <c r="F1073" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
     </row>
     <row r="1074" spans="1:6" x14ac:dyDescent="0.35">
@@ -24850,7 +24861,7 @@
         <v>730</v>
       </c>
       <c r="F1077" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
     </row>
     <row r="1078" spans="1:6" x14ac:dyDescent="0.35">
@@ -24871,7 +24882,7 @@
         <v>723</v>
       </c>
       <c r="F1078" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="1079" spans="1:6" x14ac:dyDescent="0.35">
@@ -24943,7 +24954,7 @@
         <v>733</v>
       </c>
       <c r="F1082" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="1083" spans="1:6" x14ac:dyDescent="0.35">
@@ -24964,7 +24975,7 @@
         <v>729</v>
       </c>
       <c r="F1083" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="1084" spans="1:6" x14ac:dyDescent="0.35">
@@ -24985,7 +24996,7 @@
         <v>733</v>
       </c>
       <c r="F1084" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="1085" spans="1:6" x14ac:dyDescent="0.35">
@@ -25006,7 +25017,7 @@
         <v>729</v>
       </c>
       <c r="F1085" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="1086" spans="1:6" x14ac:dyDescent="0.35">
@@ -25027,7 +25038,7 @@
         <v>730</v>
       </c>
       <c r="F1086" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1087" spans="1:6" x14ac:dyDescent="0.35">
@@ -25048,7 +25059,7 @@
         <v>723</v>
       </c>
       <c r="F1087" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1088" spans="1:6" x14ac:dyDescent="0.35">
@@ -25069,7 +25080,7 @@
         <v>730</v>
       </c>
       <c r="F1088" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1089" spans="1:6" x14ac:dyDescent="0.35">
@@ -25111,7 +25122,7 @@
         <v>730</v>
       </c>
       <c r="F1090" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1091" spans="1:6" x14ac:dyDescent="0.35">
@@ -25132,7 +25143,7 @@
         <v>723</v>
       </c>
       <c r="F1091" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1092" spans="1:6" x14ac:dyDescent="0.35">
@@ -25153,7 +25164,7 @@
         <v>730</v>
       </c>
       <c r="F1092" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="1093" spans="1:6" x14ac:dyDescent="0.35">
@@ -25174,7 +25185,7 @@
         <v>723</v>
       </c>
       <c r="F1093" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="1094" spans="1:6" x14ac:dyDescent="0.35">
@@ -25195,7 +25206,7 @@
         <v>730</v>
       </c>
       <c r="F1094" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="1095" spans="1:6" x14ac:dyDescent="0.35">
@@ -25216,7 +25227,7 @@
         <v>723</v>
       </c>
       <c r="F1095" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="1096" spans="1:6" x14ac:dyDescent="0.35">
@@ -25237,7 +25248,7 @@
         <v>730</v>
       </c>
       <c r="F1096" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
     </row>
     <row r="1097" spans="1:6" x14ac:dyDescent="0.35">
@@ -25258,7 +25269,7 @@
         <v>723</v>
       </c>
       <c r="F1097" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="1098" spans="1:6" x14ac:dyDescent="0.35">
@@ -25279,7 +25290,7 @@
         <v>730</v>
       </c>
       <c r="F1098" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
     </row>
     <row r="1099" spans="1:6" x14ac:dyDescent="0.35">
@@ -25300,7 +25311,7 @@
         <v>723</v>
       </c>
       <c r="F1099" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="1100" spans="1:6" x14ac:dyDescent="0.35">
@@ -25321,7 +25332,7 @@
         <v>730</v>
       </c>
       <c r="F1100" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
     </row>
     <row r="1101" spans="1:6" x14ac:dyDescent="0.35">
@@ -25342,7 +25353,7 @@
         <v>723</v>
       </c>
       <c r="F1101" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="1102" spans="1:6" x14ac:dyDescent="0.35">
@@ -25363,7 +25374,7 @@
         <v>723</v>
       </c>
       <c r="F1102" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="1103" spans="1:6" x14ac:dyDescent="0.35">
@@ -25384,7 +25395,7 @@
         <v>730</v>
       </c>
       <c r="F1103" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="1104" spans="1:6" x14ac:dyDescent="0.35">
@@ -25405,7 +25416,7 @@
         <v>723</v>
       </c>
       <c r="F1104" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="1105" spans="1:6" x14ac:dyDescent="0.35">
@@ -25426,7 +25437,7 @@
         <v>723</v>
       </c>
       <c r="F1105" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="1106" spans="1:6" x14ac:dyDescent="0.35">
@@ -25447,7 +25458,7 @@
         <v>730</v>
       </c>
       <c r="F1106" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="1107" spans="1:6" x14ac:dyDescent="0.35">
@@ -25468,7 +25479,7 @@
         <v>723</v>
       </c>
       <c r="F1107" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="1108" spans="1:6" x14ac:dyDescent="0.35">
@@ -25489,7 +25500,7 @@
         <v>723</v>
       </c>
       <c r="F1108" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="1109" spans="1:6" x14ac:dyDescent="0.35">
@@ -25510,7 +25521,7 @@
         <v>730</v>
       </c>
       <c r="F1109" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="1110" spans="1:6" x14ac:dyDescent="0.35">
@@ -25531,7 +25542,7 @@
         <v>723</v>
       </c>
       <c r="F1110" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="1111" spans="1:6" x14ac:dyDescent="0.35">
@@ -25552,7 +25563,7 @@
         <v>730</v>
       </c>
       <c r="F1111" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
     </row>
     <row r="1112" spans="1:6" x14ac:dyDescent="0.35">
@@ -25573,7 +25584,7 @@
         <v>723</v>
       </c>
       <c r="F1112" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="1113" spans="1:6" x14ac:dyDescent="0.35">
@@ -25594,7 +25605,7 @@
         <v>730</v>
       </c>
       <c r="F1113" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
     </row>
     <row r="1114" spans="1:6" x14ac:dyDescent="0.35">
@@ -25615,7 +25626,7 @@
         <v>723</v>
       </c>
       <c r="F1114" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="1115" spans="1:6" x14ac:dyDescent="0.35">
@@ -25636,7 +25647,7 @@
         <v>730</v>
       </c>
       <c r="F1115" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="1116" spans="1:6" x14ac:dyDescent="0.35">
@@ -25657,7 +25668,7 @@
         <v>723</v>
       </c>
       <c r="F1116" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="1117" spans="1:6" x14ac:dyDescent="0.35">
@@ -25695,7 +25706,7 @@
         <v>722</v>
       </c>
       <c r="F1118" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="1119" spans="1:6" x14ac:dyDescent="0.35">
@@ -25716,7 +25727,7 @@
         <v>723</v>
       </c>
       <c r="F1119" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
     </row>
     <row r="1120" spans="1:6" x14ac:dyDescent="0.35">
@@ -25737,7 +25748,7 @@
         <v>730</v>
       </c>
       <c r="F1120" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
     </row>
     <row r="1121" spans="1:6" x14ac:dyDescent="0.35">
@@ -25758,7 +25769,7 @@
         <v>723</v>
       </c>
       <c r="F1121" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="1122" spans="1:6" x14ac:dyDescent="0.35">
@@ -25779,7 +25790,7 @@
         <v>730</v>
       </c>
       <c r="F1122" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
     </row>
     <row r="1123" spans="1:6" x14ac:dyDescent="0.35">
@@ -25800,7 +25811,7 @@
         <v>723</v>
       </c>
       <c r="F1123" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="1124" spans="1:6" x14ac:dyDescent="0.35">
@@ -25821,7 +25832,7 @@
         <v>733</v>
       </c>
       <c r="F1124" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="1125" spans="1:6" x14ac:dyDescent="0.35">
@@ -25860,7 +25871,7 @@
         <v>732</v>
       </c>
       <c r="F1126" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="1127" spans="1:6" x14ac:dyDescent="0.35">
@@ -25899,7 +25910,7 @@
         <v>732</v>
       </c>
       <c r="F1128" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="1129" spans="1:6" x14ac:dyDescent="0.35">
@@ -25938,7 +25949,7 @@
         <v>732</v>
       </c>
       <c r="F1130" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="1131" spans="1:6" x14ac:dyDescent="0.35">
@@ -25977,7 +25988,7 @@
         <v>733</v>
       </c>
       <c r="F1132" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1133" spans="1:6" x14ac:dyDescent="0.35">
@@ -26016,7 +26027,7 @@
         <v>733</v>
       </c>
       <c r="F1134" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1135" spans="1:6" x14ac:dyDescent="0.35">
@@ -26055,7 +26066,7 @@
         <v>733</v>
       </c>
       <c r="F1136" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1137" spans="1:6" x14ac:dyDescent="0.35">
@@ -26076,7 +26087,7 @@
         <v>729</v>
       </c>
       <c r="F1137" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="1138" spans="1:6" x14ac:dyDescent="0.35">
@@ -26565,7 +26576,7 @@
         <v>732</v>
       </c>
       <c r="F1162" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="1163" spans="1:6" x14ac:dyDescent="0.35">
@@ -26604,7 +26615,7 @@
         <v>732</v>
       </c>
       <c r="F1164" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="1165" spans="1:6" x14ac:dyDescent="0.35">
@@ -26643,7 +26654,7 @@
         <v>733</v>
       </c>
       <c r="F1166" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="1167" spans="1:6" x14ac:dyDescent="0.35">
@@ -26680,7 +26691,7 @@
         <v>722</v>
       </c>
       <c r="F1168" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="1169" spans="1:6" x14ac:dyDescent="0.35">
@@ -26700,7 +26711,7 @@
         <v>722</v>
       </c>
       <c r="F1169" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="1170" spans="1:6" x14ac:dyDescent="0.35">
@@ -26721,7 +26732,7 @@
         <v>733</v>
       </c>
       <c r="F1170" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="1171" spans="1:6" x14ac:dyDescent="0.35">
@@ -26758,7 +26769,7 @@
         <v>722</v>
       </c>
       <c r="F1172" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="1173" spans="1:6" x14ac:dyDescent="0.35">
@@ -26778,7 +26789,7 @@
         <v>722</v>
       </c>
       <c r="F1173" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="1174" spans="1:6" x14ac:dyDescent="0.35">
@@ -26799,7 +26810,7 @@
         <v>733</v>
       </c>
       <c r="F1174" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="1175" spans="1:6" x14ac:dyDescent="0.35">
@@ -26836,7 +26847,7 @@
         <v>722</v>
       </c>
       <c r="F1176" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="1177" spans="1:6" x14ac:dyDescent="0.35">
@@ -26856,7 +26867,7 @@
         <v>722</v>
       </c>
       <c r="F1177" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="1178" spans="1:6" x14ac:dyDescent="0.35">
@@ -26877,7 +26888,7 @@
         <v>733</v>
       </c>
       <c r="F1178" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="1179" spans="1:6" x14ac:dyDescent="0.35">
@@ -26914,7 +26925,7 @@
         <v>722</v>
       </c>
       <c r="F1180" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="1181" spans="1:6" x14ac:dyDescent="0.35">
@@ -26934,7 +26945,7 @@
         <v>722</v>
       </c>
       <c r="F1181" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="1182" spans="1:6" x14ac:dyDescent="0.35">
@@ -26955,7 +26966,7 @@
         <v>732</v>
       </c>
       <c r="F1182" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="1183" spans="1:6" x14ac:dyDescent="0.35">
@@ -26994,7 +27005,7 @@
         <v>732</v>
       </c>
       <c r="F1184" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="1185" spans="1:6" x14ac:dyDescent="0.35">
@@ -27033,7 +27044,7 @@
         <v>733</v>
       </c>
       <c r="F1186" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="1187" spans="1:6" x14ac:dyDescent="0.35">
@@ -27072,7 +27083,7 @@
         <v>733</v>
       </c>
       <c r="F1188" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="1189" spans="1:6" x14ac:dyDescent="0.35">
@@ -27093,7 +27104,7 @@
         <v>729</v>
       </c>
       <c r="F1189" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="1190" spans="1:6" x14ac:dyDescent="0.35">
@@ -27114,7 +27125,7 @@
         <v>733</v>
       </c>
       <c r="F1190" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="1191" spans="1:6" x14ac:dyDescent="0.35">
@@ -27135,7 +27146,7 @@
         <v>729</v>
       </c>
       <c r="F1191" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="1192" spans="1:6" x14ac:dyDescent="0.35">
@@ -27156,12 +27167,12 @@
         <v>723</v>
       </c>
       <c r="F1192" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="1193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1193" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B1193" t="s">
         <v>718</v>
@@ -27177,12 +27188,12 @@
         <v>730</v>
       </c>
       <c r="F1193" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="1194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1194" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B1194" t="s">
         <v>718</v>
@@ -27198,12 +27209,12 @@
         <v>730</v>
       </c>
       <c r="F1194" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="1195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1195" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B1195" t="s">
         <v>718</v>
@@ -27219,12 +27230,12 @@
         <v>730</v>
       </c>
       <c r="F1195" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="1196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1196" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B1196" t="s">
         <v>718</v>
@@ -27240,12 +27251,12 @@
         <v>730</v>
       </c>
       <c r="F1196" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="1197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1197" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B1197" t="s">
         <v>718</v>
@@ -27261,12 +27272,12 @@
         <v>730</v>
       </c>
       <c r="F1197" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="1198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1198" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B1198" t="s">
         <v>718</v>
@@ -27282,12 +27293,12 @@
         <v>730</v>
       </c>
       <c r="F1198" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="1199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1199" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B1199" t="s">
         <v>718</v>
@@ -27303,12 +27314,12 @@
         <v>730</v>
       </c>
       <c r="F1199" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="1200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1200" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B1200" t="s">
         <v>718</v>
@@ -27324,7 +27335,7 @@
         <v>730</v>
       </c>
       <c r="F1200" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="1201" spans="1:6" x14ac:dyDescent="0.35">
@@ -27332,7 +27343,7 @@
         <v>6</v>
       </c>
       <c r="B1201" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1201">
         <f>1 * 3.6 / 14.55</f>
@@ -27353,7 +27364,7 @@
         <v>7</v>
       </c>
       <c r="B1202" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1202">
         <f>1 / 8.22</f>
@@ -27374,7 +27385,7 @@
         <v>27</v>
       </c>
       <c r="B1203" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1203">
         <f>1 * 3.6 / 42.5</f>
@@ -27395,7 +27406,7 @@
         <v>53</v>
       </c>
       <c r="B1204" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1204">
         <f>1 / 10.5</f>
@@ -27416,7 +27427,7 @@
         <v>150</v>
       </c>
       <c r="B1205" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1205">
         <f>1 * 3.6 / 27.91</f>
@@ -27437,7 +27448,7 @@
         <v>227</v>
       </c>
       <c r="B1206" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1206">
         <f>1 / 11.83</f>
@@ -27450,7 +27461,7 @@
         <v>723</v>
       </c>
       <c r="F1206" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="1207" spans="1:6" x14ac:dyDescent="0.35">
@@ -27458,7 +27469,7 @@
         <v>232</v>
       </c>
       <c r="B1207" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1207">
         <f>1</f>
@@ -27473,10 +27484,10 @@
     </row>
     <row r="1208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1208" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B1208" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1208">
         <f>1</f>
@@ -27491,10 +27502,10 @@
     </row>
     <row r="1209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1209" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B1209" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1209">
         <f>1</f>
@@ -27509,10 +27520,10 @@
     </row>
     <row r="1210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1210" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B1210" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1210">
         <f>1</f>
@@ -27530,7 +27541,7 @@
         <v>236</v>
       </c>
       <c r="B1211" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1211">
         <f>1 / 13.28</f>
@@ -27543,7 +27554,7 @@
         <v>723</v>
       </c>
       <c r="F1211" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="1212" spans="1:6" x14ac:dyDescent="0.35">
@@ -27551,7 +27562,7 @@
         <v>240</v>
       </c>
       <c r="B1212" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1212">
         <f>1 * 3.6 / 31.58</f>
@@ -27564,7 +27575,7 @@
         <v>723</v>
       </c>
       <c r="F1212" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="1213" spans="1:6" x14ac:dyDescent="0.35">
@@ -27572,7 +27583,7 @@
         <v>242</v>
       </c>
       <c r="B1213" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1213">
         <f>1 * 3.6 / 40.938</f>
@@ -27585,7 +27596,7 @@
         <v>723</v>
       </c>
       <c r="F1213" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="1214" spans="1:6" x14ac:dyDescent="0.35">
@@ -27593,7 +27604,7 @@
         <v>243</v>
       </c>
       <c r="B1214" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1214">
         <f>1 * 3.6 / 50.285</f>
@@ -27606,7 +27617,7 @@
         <v>723</v>
       </c>
       <c r="F1214" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="1215" spans="1:6" x14ac:dyDescent="0.35">
@@ -27614,7 +27625,7 @@
         <v>255</v>
       </c>
       <c r="B1215" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1215">
         <f>1 * 3.6 / 42.5</f>
@@ -27627,7 +27638,7 @@
         <v>723</v>
       </c>
       <c r="F1215" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="1216" spans="1:6" x14ac:dyDescent="0.35">
@@ -27635,7 +27646,7 @@
         <v>262</v>
       </c>
       <c r="B1216" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1216">
         <f>1 / 33.3</f>
@@ -27648,7 +27659,7 @@
         <v>723</v>
       </c>
       <c r="F1216" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="1217" spans="1:6" x14ac:dyDescent="0.35">
@@ -27656,7 +27667,7 @@
         <v>269</v>
       </c>
       <c r="B1217" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1217">
         <f>1 / 33.3</f>
@@ -27669,7 +27680,7 @@
         <v>723</v>
       </c>
       <c r="F1217" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="1218" spans="1:6" x14ac:dyDescent="0.35">
@@ -27677,7 +27688,7 @@
         <v>270</v>
       </c>
       <c r="B1218" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1218">
         <f>1 / 33.3</f>
@@ -27690,7 +27701,7 @@
         <v>723</v>
       </c>
       <c r="F1218" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="1219" spans="1:6" x14ac:dyDescent="0.35">
@@ -27698,7 +27709,7 @@
         <v>271</v>
       </c>
       <c r="B1219" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1219">
         <f>1 / 33.3</f>
@@ -27711,7 +27722,7 @@
         <v>723</v>
       </c>
       <c r="F1219" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="1220" spans="1:6" x14ac:dyDescent="0.35">
@@ -27719,7 +27730,7 @@
         <v>307</v>
       </c>
       <c r="B1220" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1220">
         <f>1 * 3.6 / 43</f>
@@ -27732,7 +27743,7 @@
         <v>723</v>
       </c>
       <c r="F1220" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="1221" spans="1:6" x14ac:dyDescent="0.35">
@@ -27740,7 +27751,7 @@
         <v>326</v>
       </c>
       <c r="B1221" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1221">
         <f>1 * 3.6 / 42.6</f>
@@ -27753,7 +27764,7 @@
         <v>723</v>
       </c>
       <c r="F1221" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="1222" spans="1:6" x14ac:dyDescent="0.35">
@@ -27761,7 +27772,7 @@
         <v>327</v>
       </c>
       <c r="B1222" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1222">
         <f>1 * 3.6 / 39</f>
@@ -27774,7 +27785,7 @@
         <v>723</v>
       </c>
       <c r="F1222" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="1223" spans="1:6" x14ac:dyDescent="0.35">
@@ -27782,7 +27793,7 @@
         <v>332</v>
       </c>
       <c r="B1223" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1223">
         <f>1 / 5.54</f>
@@ -27795,7 +27806,7 @@
         <v>723</v>
       </c>
       <c r="F1223" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1224" spans="1:6" x14ac:dyDescent="0.35">
@@ -27803,7 +27814,7 @@
         <v>344</v>
       </c>
       <c r="B1224" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1224">
         <f>1 * 3.6 / 39</f>
@@ -27816,7 +27827,7 @@
         <v>723</v>
       </c>
       <c r="F1224" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="1225" spans="1:6" x14ac:dyDescent="0.35">
@@ -27824,7 +27835,7 @@
         <v>351</v>
       </c>
       <c r="B1225" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1225">
         <f>1 / (0.777 * 13.1)</f>
@@ -27837,7 +27848,7 @@
         <v>723</v>
       </c>
       <c r="F1225" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="1226" spans="1:6" x14ac:dyDescent="0.35">
@@ -27845,7 +27856,7 @@
         <v>352</v>
       </c>
       <c r="B1226" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1226">
         <f>1 / (0.777 * 13.1)</f>
@@ -27858,7 +27869,7 @@
         <v>723</v>
       </c>
       <c r="F1226" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="1227" spans="1:6" x14ac:dyDescent="0.35">
@@ -27866,7 +27877,7 @@
         <v>353</v>
       </c>
       <c r="B1227" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1227">
         <f>1 / (0.777 * 13.1)</f>
@@ -27879,7 +27890,7 @@
         <v>723</v>
       </c>
       <c r="F1227" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="1228" spans="1:6" x14ac:dyDescent="0.35">
@@ -27887,7 +27898,7 @@
         <v>367</v>
       </c>
       <c r="B1228" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1228">
         <f>1</f>
@@ -27905,7 +27916,7 @@
         <v>374</v>
       </c>
       <c r="B1229" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1229">
         <f>1</f>
@@ -27923,7 +27934,7 @@
         <v>376</v>
       </c>
       <c r="B1230" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1230">
         <f>1 * 3.6 / 32.45</f>
@@ -27936,7 +27947,7 @@
         <v>723</v>
       </c>
       <c r="F1230" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="1231" spans="1:6" x14ac:dyDescent="0.35">
@@ -27944,7 +27955,7 @@
         <v>381</v>
       </c>
       <c r="B1231" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1231">
         <f>1</f>
@@ -27962,7 +27973,7 @@
         <v>382</v>
       </c>
       <c r="B1232" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1232">
         <f>1 * 3.6 / 46.4</f>
@@ -27975,7 +27986,7 @@
         <v>723</v>
       </c>
       <c r="F1232" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="1233" spans="1:6" x14ac:dyDescent="0.35">
@@ -27983,7 +27994,7 @@
         <v>383</v>
       </c>
       <c r="B1233" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1233">
         <f>1 * 3.6 / 45.799</f>
@@ -27996,7 +28007,7 @@
         <v>723</v>
       </c>
       <c r="F1233" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="1234" spans="1:6" x14ac:dyDescent="0.35">
@@ -28004,7 +28015,7 @@
         <v>384</v>
       </c>
       <c r="B1234" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1234">
         <f>1</f>
@@ -28022,7 +28033,7 @@
         <v>385</v>
       </c>
       <c r="B1235" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1235">
         <f>1</f>
@@ -28040,7 +28051,7 @@
         <v>428</v>
       </c>
       <c r="B1236" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1236">
         <f>1 / (0.777 * 13.1)</f>
@@ -28053,7 +28064,7 @@
         <v>723</v>
       </c>
       <c r="F1236" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="1237" spans="1:6" x14ac:dyDescent="0.35">
@@ -28061,7 +28072,7 @@
         <v>439</v>
       </c>
       <c r="B1237" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1237">
         <f>1</f>
@@ -28079,7 +28090,7 @@
         <v>490</v>
       </c>
       <c r="B1238" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1238">
         <f>1 * 3.6 / 42.43</f>
@@ -28092,7 +28103,7 @@
         <v>723</v>
       </c>
       <c r="F1238" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="1239" spans="1:6" x14ac:dyDescent="0.35">
@@ -28100,7 +28111,7 @@
         <v>561</v>
       </c>
       <c r="B1239" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1239">
         <f>1 * 3.6 / (3900*1000)</f>
@@ -28113,7 +28124,7 @@
         <v>723</v>
       </c>
       <c r="F1239" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="1240" spans="1:6" x14ac:dyDescent="0.35">
@@ -28121,7 +28132,7 @@
         <v>562</v>
       </c>
       <c r="B1240" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1240">
         <f>-1 * 3.6 / 12.35</f>
@@ -28134,7 +28145,7 @@
         <v>723</v>
       </c>
       <c r="F1240" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="1241" spans="1:6" x14ac:dyDescent="0.35">
@@ -28142,7 +28153,7 @@
         <v>563</v>
       </c>
       <c r="B1241" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1241">
         <f>-1 * 3.6 / (6.087*0.95)</f>
@@ -28155,7 +28166,7 @@
         <v>723</v>
       </c>
       <c r="F1241" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="1242" spans="1:6" x14ac:dyDescent="0.35">
@@ -28163,7 +28174,7 @@
         <v>564</v>
       </c>
       <c r="B1242" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1242">
         <f>-1 * 3.6 / 2.453</f>
@@ -28176,7 +28187,7 @@
         <v>723</v>
       </c>
       <c r="F1242" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="1243" spans="1:6" x14ac:dyDescent="0.35">
@@ -28184,7 +28195,7 @@
         <v>565</v>
       </c>
       <c r="B1243" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1243">
         <f>1 * 3.6 / (0.95*15)</f>
@@ -28197,7 +28208,7 @@
         <v>723</v>
       </c>
       <c r="F1243" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="1244" spans="1:6" x14ac:dyDescent="0.35">
@@ -28205,7 +28216,7 @@
         <v>572</v>
       </c>
       <c r="B1244" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1244">
         <f>1 * 3.6 / 15.4</f>
@@ -28218,7 +28229,7 @@
         <v>723</v>
       </c>
       <c r="F1244" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="1245" spans="1:6" x14ac:dyDescent="0.35">
@@ -28226,7 +28237,7 @@
         <v>574</v>
       </c>
       <c r="B1245" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1245">
         <f>1 * 3.6 / 40.961</f>
@@ -28239,7 +28250,7 @@
         <v>723</v>
       </c>
       <c r="F1245" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="1246" spans="1:6" x14ac:dyDescent="0.35">
@@ -28247,7 +28258,7 @@
         <v>716</v>
       </c>
       <c r="B1246" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1246">
         <f>1 * 3.6 / 31.58</f>
@@ -28260,15 +28271,15 @@
         <v>723</v>
       </c>
       <c r="F1246" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="1247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1247" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B1247" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1247">
         <f>1 * 3.6 / 43</f>
@@ -28281,15 +28292,15 @@
         <v>723</v>
       </c>
       <c r="F1247" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="1248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1248" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B1248" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1248">
         <f>1 * 3.6 / 42.6</f>
@@ -28302,15 +28313,15 @@
         <v>723</v>
       </c>
       <c r="F1248" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="1249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1249" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B1249" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1249">
         <f>1 / 5.54</f>
@@ -28323,7 +28334,7 @@
         <v>723</v>
       </c>
       <c r="F1249" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1250" spans="1:6" x14ac:dyDescent="0.35">
@@ -28331,7 +28342,7 @@
         <v>428</v>
       </c>
       <c r="B1250" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1250">
         <f>1 * 3.6 / 39</f>
@@ -28344,15 +28355,15 @@
         <v>723</v>
       </c>
       <c r="F1250" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="1251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1251" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B1251" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1251">
         <f>1 / (0.777 * 13.1)</f>
@@ -28365,15 +28376,15 @@
         <v>723</v>
       </c>
       <c r="F1251" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="1252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1252" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B1252" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1252">
         <f>1 / (0.777 * 13.1)</f>
@@ -28386,15 +28397,15 @@
         <v>723</v>
       </c>
       <c r="F1252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="1253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1253" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B1253" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1253">
         <f>1 / (0.777 * 13.1)</f>
@@ -28407,15 +28418,15 @@
         <v>723</v>
       </c>
       <c r="F1253" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="1254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1254" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B1254" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1254">
         <f>1 * 3.6</f>
@@ -28430,10 +28441,10 @@
     </row>
     <row r="1255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1255" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B1255" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1255">
         <v>1</v>
@@ -28447,10 +28458,10 @@
     </row>
     <row r="1256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1256" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B1256" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1256">
         <v>1</v>
@@ -28464,7 +28475,7 @@
     </row>
     <row r="1257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1257" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B1257" t="s">
         <v>717</v>
@@ -28480,12 +28491,12 @@
         <v>723</v>
       </c>
       <c r="F1257" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1258" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B1258" t="s">
         <v>717</v>
@@ -28501,12 +28512,12 @@
         <v>723</v>
       </c>
       <c r="F1258" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1259" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1259" t="s">
         <v>717</v>
@@ -28522,12 +28533,12 @@
         <v>723</v>
       </c>
       <c r="F1259" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1260" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B1260" t="s">
         <v>717</v>
@@ -28543,12 +28554,12 @@
         <v>723</v>
       </c>
       <c r="F1260" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1261" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B1261" t="s">
         <v>717</v>
@@ -28564,12 +28575,12 @@
         <v>723</v>
       </c>
       <c r="F1261" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="1262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1262" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B1262" t="s">
         <v>717</v>
@@ -28585,12 +28596,12 @@
         <v>723</v>
       </c>
       <c r="F1262" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="1263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1263" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B1263" t="s">
         <v>717</v>
@@ -28606,12 +28617,12 @@
         <v>723</v>
       </c>
       <c r="F1263" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="1264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1264" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B1264" t="s">
         <v>717</v>
@@ -28627,12 +28638,12 @@
         <v>723</v>
       </c>
       <c r="F1264" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1265" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B1265" t="s">
         <v>717</v>
@@ -28648,12 +28659,12 @@
         <v>723</v>
       </c>
       <c r="F1265" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="1266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1266" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B1266" t="s">
         <v>717</v>
@@ -28669,12 +28680,12 @@
         <v>723</v>
       </c>
       <c r="F1266" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="1267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1267" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B1267" t="s">
         <v>717</v>
@@ -28690,15 +28701,15 @@
         <v>723</v>
       </c>
       <c r="F1267" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="1268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1268" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B1268" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1268">
         <f>3.6/10.8</f>
@@ -28711,15 +28722,15 @@
         <v>723</v>
       </c>
       <c r="F1268" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1269" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B1269" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1269">
         <f>3.6/10.8</f>
@@ -28732,15 +28743,15 @@
         <v>723</v>
       </c>
       <c r="F1269" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1270" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1270" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1270">
         <f>3.6/10.8</f>
@@ -28753,15 +28764,15 @@
         <v>723</v>
       </c>
       <c r="F1270" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1271" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B1271" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1271">
         <f>3.6/10.8</f>
@@ -28774,15 +28785,15 @@
         <v>723</v>
       </c>
       <c r="F1271" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1272" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B1272" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1272">
         <f>1 * 3.6 / (0.95*15)</f>
@@ -28795,15 +28806,15 @@
         <v>723</v>
       </c>
       <c r="F1272" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="1273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1273" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B1273" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1273">
         <f>3.6/9.99</f>
@@ -28816,15 +28827,15 @@
         <v>723</v>
       </c>
       <c r="F1273" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="1274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1274" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B1274" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1274">
         <f>-1 * 3.6 / 12.35</f>
@@ -28837,15 +28848,15 @@
         <v>723</v>
       </c>
       <c r="F1274" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="1275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1275" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B1275" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1275">
         <f>3.6/14.1</f>
@@ -28858,15 +28869,15 @@
         <v>723</v>
       </c>
       <c r="F1275" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1276" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B1276" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1276">
         <f>-1 * 3.6 / 12.35</f>
@@ -28879,15 +28890,15 @@
         <v>723</v>
       </c>
       <c r="F1276" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="1277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1277" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B1277" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1277">
         <f>3.6/9.99</f>
@@ -28900,15 +28911,15 @@
         <v>723</v>
       </c>
       <c r="F1277" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="1278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1278" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B1278" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1278">
         <f>-1 * 3.6 / 12.35</f>
@@ -28921,7 +28932,7 @@
         <v>723</v>
       </c>
       <c r="F1278" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
   </sheetData>

--- a/dev/energyscope_data/CA-QC/unit_conversion.xlsx
+++ b/dev/energyscope_data/CA-QC/unit_conversion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\mescal\dev\energyscope_data\CA-QC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E9EDF9-7994-4E57-8FC4-A090998A974D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3822523C-FC55-4000-97C4-89C8A1E0089E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6012" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6012" uniqueCount="994">
   <si>
     <t>Name</t>
   </si>
@@ -2448,9 +2448,6 @@
     <t>natural gas density (0.777 kg/m3), natural gas LHV (13.1 kWh/kg): \cite{engineeringtoolbox2003}</t>
   </si>
   <si>
-    <t>power plant capacity (1 GW): \cite{dones2007}</t>
-  </si>
-  <si>
     <t>Yearly production (368 kt/yr): \cite{wernet2016}, capacity factor (0.85): \cite{moret2017}</t>
   </si>
   <si>
@@ -2505,27 +2502,6 @@
     <t>yearly distance (400000 km), people per vehicle (343): \cite{schnidrig2020}, capacity factor (0.275): \cite{limpens2021}</t>
   </si>
   <si>
-    <t>Lifetime distance 9600000 km: \cite{spielmann2017}; train composition 2 Locomotives:  \cite{schnidrig2020}; Lifetime of train 40 years:  \cite{spielmann2017}; 20 waggon per train: \cite{spielmann2017}; Load per wagon: 26t  \cite{spielmann2017}; capacity factor (0.342): \cite{limpens2021}</t>
-  </si>
-  <si>
-    <t>2 locomotives per train \cite{spielmann2017}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 wagon per train: \cite{spielmann2017}; </t>
-  </si>
-  <si>
-    <t>Lifetime distance (9600000 km): \cite{spielmann2017}, Lifetime of train (40 years): \cite{spielmann2017}, Load per wagon (26t): \cite{spielmann2017}, number of wagons (20): \cite{spielmann2017}, capacity factor (0.342): \cite{limpens2021}</t>
-  </si>
-  <si>
-    <t>locomotives per train (2): \cite{spielmann2017}</t>
-  </si>
-  <si>
-    <t>wagon per train (20): \cite{spielmann2017}</t>
-  </si>
-  <si>
-    <t>distance over lifetime (20mio km), lifetime (40y): \cite{wernet2016}, people per vehicle (343): \cite{Schnidrigi2020}, capacity factor (0.275): \cite{limpens2021}</t>
-  </si>
-  <si>
     <t>Yearly distance (27300 km/yr): \cite{wernet2016} ; people per vehicle (28): \cite{wernet2016}, capacity factor (0.342): \cite{limpens2021}</t>
   </si>
   <si>
@@ -3022,6 +2998,27 @@
   </si>
   <si>
     <t>boiler unit capacity (10 kW_th)</t>
+  </si>
+  <si>
+    <t>power plant capacity (1 GW)</t>
+  </si>
+  <si>
+    <t>Lifetime distance 9600000 km: \cite{spielmann2007}; train composition 2 Locomotives:  \cite{schnidrig2020}; Lifetime of train 40 years:  \cite{spielmann2007}; 20 waggon per train: \cite{spielmann2007}; Load per wagon: 26t  \cite{spielmann2007}; capacity factor (0.342): \cite{limpens2021}</t>
+  </si>
+  <si>
+    <t>2 locomotives per train \cite{spielmann2007}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 wagon per train: \cite{spielmann2007}; </t>
+  </si>
+  <si>
+    <t>Lifetime distance (9600000 km): \cite{spielmann2007}, Lifetime of train (40 years): \cite{spielmann2007}, Load per wagon (26t): \cite{spielmann2007}, number of wagons (20): \cite{spielmann2007}, capacity factor (0.342): \cite{limpens2021}</t>
+  </si>
+  <si>
+    <t>locomotives per train (2): \cite{spielmann2007}</t>
+  </si>
+  <si>
+    <t>wagon per train (20): \cite{spielmann2007}</t>
   </si>
 </sst>
 </file>
@@ -3080,12 +3077,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3392,8 +3388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1265" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A1050" sqref="A1050"/>
+    <sheetView tabSelected="1" topLeftCell="A832" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F853" sqref="F853"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3484,7 +3480,7 @@
         <v>730</v>
       </c>
       <c r="F4" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -3522,7 +3518,7 @@
         <v>730</v>
       </c>
       <c r="F6" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -3708,7 +3704,7 @@
         <v>730</v>
       </c>
       <c r="F16" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -3729,7 +3725,7 @@
         <v>723</v>
       </c>
       <c r="F17" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -3788,7 +3784,7 @@
         <v>730</v>
       </c>
       <c r="F20" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -4192,7 +4188,7 @@
         <v>730</v>
       </c>
       <c r="F40" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -4213,7 +4209,7 @@
         <v>723</v>
       </c>
       <c r="F41" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -4394,7 +4390,7 @@
         <v>730</v>
       </c>
       <c r="F50" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -4436,7 +4432,7 @@
         <v>730</v>
       </c>
       <c r="F52" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
@@ -4554,7 +4550,7 @@
         <v>730</v>
       </c>
       <c r="F58" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -4596,7 +4592,7 @@
         <v>730</v>
       </c>
       <c r="F60" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
@@ -5107,7 +5103,7 @@
         <v>725</v>
       </c>
       <c r="F86" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
@@ -5149,7 +5145,7 @@
         <v>725</v>
       </c>
       <c r="F88" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
@@ -5191,7 +5187,7 @@
         <v>725</v>
       </c>
       <c r="F90" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
@@ -5233,7 +5229,7 @@
         <v>725</v>
       </c>
       <c r="F92" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
@@ -5275,7 +5271,7 @@
         <v>725</v>
       </c>
       <c r="F94" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
@@ -5317,7 +5313,7 @@
         <v>725</v>
       </c>
       <c r="F96" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
@@ -5359,7 +5355,7 @@
         <v>725</v>
       </c>
       <c r="F98" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
@@ -5401,7 +5397,7 @@
         <v>725</v>
       </c>
       <c r="F100" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
@@ -5443,7 +5439,7 @@
         <v>725</v>
       </c>
       <c r="F102" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
@@ -5485,7 +5481,7 @@
         <v>725</v>
       </c>
       <c r="F104" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
@@ -5527,7 +5523,7 @@
         <v>725</v>
       </c>
       <c r="F106" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
@@ -5569,7 +5565,7 @@
         <v>725</v>
       </c>
       <c r="F108" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
@@ -5611,7 +5607,7 @@
         <v>725</v>
       </c>
       <c r="F110" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
@@ -5653,7 +5649,7 @@
         <v>725</v>
       </c>
       <c r="F112" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
@@ -5695,7 +5691,7 @@
         <v>725</v>
       </c>
       <c r="F114" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
@@ -5737,7 +5733,7 @@
         <v>725</v>
       </c>
       <c r="F116" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
@@ -5779,7 +5775,7 @@
         <v>725</v>
       </c>
       <c r="F118" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
@@ -5821,7 +5817,7 @@
         <v>725</v>
       </c>
       <c r="F120" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
@@ -5863,7 +5859,7 @@
         <v>725</v>
       </c>
       <c r="F122" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
@@ -5905,7 +5901,7 @@
         <v>725</v>
       </c>
       <c r="F124" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
@@ -5947,7 +5943,7 @@
         <v>725</v>
       </c>
       <c r="F126" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
@@ -5989,7 +5985,7 @@
         <v>725</v>
       </c>
       <c r="F128" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
@@ -6031,7 +6027,7 @@
         <v>725</v>
       </c>
       <c r="F130" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
@@ -6073,7 +6069,7 @@
         <v>725</v>
       </c>
       <c r="F132" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
@@ -6115,7 +6111,7 @@
         <v>725</v>
       </c>
       <c r="F134" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
@@ -6157,7 +6153,7 @@
         <v>725</v>
       </c>
       <c r="F136" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
@@ -6199,7 +6195,7 @@
         <v>725</v>
       </c>
       <c r="F138" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
@@ -6241,7 +6237,7 @@
         <v>725</v>
       </c>
       <c r="F140" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
@@ -6283,7 +6279,7 @@
         <v>725</v>
       </c>
       <c r="F142" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
@@ -6325,7 +6321,7 @@
         <v>725</v>
       </c>
       <c r="F144" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
@@ -6367,7 +6363,7 @@
         <v>725</v>
       </c>
       <c r="F146" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
@@ -6409,7 +6405,7 @@
         <v>725</v>
       </c>
       <c r="F148" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
@@ -6451,7 +6447,7 @@
         <v>725</v>
       </c>
       <c r="F150" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
@@ -6493,7 +6489,7 @@
         <v>725</v>
       </c>
       <c r="F152" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
@@ -6535,7 +6531,7 @@
         <v>725</v>
       </c>
       <c r="F154" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
@@ -6577,7 +6573,7 @@
         <v>725</v>
       </c>
       <c r="F156" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
@@ -6619,7 +6615,7 @@
         <v>725</v>
       </c>
       <c r="F158" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
@@ -6661,7 +6657,7 @@
         <v>725</v>
       </c>
       <c r="F160" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
@@ -6703,7 +6699,7 @@
         <v>725</v>
       </c>
       <c r="F162" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
@@ -6745,7 +6741,7 @@
         <v>725</v>
       </c>
       <c r="F164" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
@@ -6787,7 +6783,7 @@
         <v>725</v>
       </c>
       <c r="F166" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
@@ -6829,7 +6825,7 @@
         <v>725</v>
       </c>
       <c r="F168" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
@@ -6871,7 +6867,7 @@
         <v>725</v>
       </c>
       <c r="F170" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
@@ -6913,7 +6909,7 @@
         <v>725</v>
       </c>
       <c r="F172" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
@@ -6955,7 +6951,7 @@
         <v>725</v>
       </c>
       <c r="F174" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
@@ -6997,7 +6993,7 @@
         <v>725</v>
       </c>
       <c r="F176" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
@@ -7039,7 +7035,7 @@
         <v>725</v>
       </c>
       <c r="F178" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
@@ -7081,7 +7077,7 @@
         <v>725</v>
       </c>
       <c r="F180" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
@@ -7123,7 +7119,7 @@
         <v>725</v>
       </c>
       <c r="F182" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
@@ -7165,7 +7161,7 @@
         <v>725</v>
       </c>
       <c r="F184" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
@@ -7207,7 +7203,7 @@
         <v>725</v>
       </c>
       <c r="F186" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
@@ -7249,7 +7245,7 @@
         <v>725</v>
       </c>
       <c r="F188" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
@@ -7270,7 +7266,7 @@
         <v>730</v>
       </c>
       <c r="F189" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
@@ -7309,7 +7305,7 @@
         <v>730</v>
       </c>
       <c r="F191" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
@@ -7504,7 +7500,7 @@
         <v>723</v>
       </c>
       <c r="F201" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
@@ -7546,7 +7542,7 @@
         <v>723</v>
       </c>
       <c r="F203" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
@@ -8961,7 +8957,7 @@
         <v>730</v>
       </c>
       <c r="F275" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.35">
@@ -9000,7 +8996,7 @@
         <v>730</v>
       </c>
       <c r="F277" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.35">
@@ -9039,7 +9035,7 @@
         <v>730</v>
       </c>
       <c r="F279" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.35">
@@ -9077,7 +9073,7 @@
         <v>730</v>
       </c>
       <c r="F281" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.35">
@@ -9115,7 +9111,7 @@
         <v>732</v>
       </c>
       <c r="F283" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.35">
@@ -9153,7 +9149,7 @@
         <v>732</v>
       </c>
       <c r="F285" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.35">
@@ -9191,7 +9187,7 @@
         <v>730</v>
       </c>
       <c r="F287" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.35">
@@ -9212,7 +9208,7 @@
         <v>723</v>
       </c>
       <c r="F288" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.35">
@@ -9233,7 +9229,7 @@
         <v>730</v>
       </c>
       <c r="F289" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.35">
@@ -9275,7 +9271,7 @@
         <v>730</v>
       </c>
       <c r="F291" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.35">
@@ -9296,7 +9292,7 @@
         <v>723</v>
       </c>
       <c r="F292" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.35">
@@ -9317,7 +9313,7 @@
         <v>731</v>
       </c>
       <c r="F293" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.35">
@@ -9390,7 +9386,7 @@
         <v>731</v>
       </c>
       <c r="F297" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.35">
@@ -9463,7 +9459,7 @@
         <v>730</v>
       </c>
       <c r="F301" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.35">
@@ -9501,7 +9497,7 @@
         <v>730</v>
       </c>
       <c r="F303" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.35">
@@ -9540,7 +9536,7 @@
         <v>730</v>
       </c>
       <c r="F305" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.35">
@@ -9617,7 +9613,7 @@
         <v>730</v>
       </c>
       <c r="F309" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.35">
@@ -9656,7 +9652,7 @@
         <v>730</v>
       </c>
       <c r="F311" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.35">
@@ -9677,7 +9673,7 @@
         <v>723</v>
       </c>
       <c r="F312" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.35">
@@ -9749,7 +9745,7 @@
         <v>730</v>
       </c>
       <c r="F316" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.35">
@@ -9777,7 +9773,7 @@
       <c r="B318" t="s">
         <v>718</v>
       </c>
-      <c r="C318" s="2">
+      <c r="C318">
         <v>1</v>
       </c>
       <c r="D318" t="s">
@@ -9826,7 +9822,7 @@
         <v>722</v>
       </c>
       <c r="F320" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.35">
@@ -9847,7 +9843,7 @@
         <v>730</v>
       </c>
       <c r="F321" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.35">
@@ -9875,7 +9871,7 @@
       <c r="B323" t="s">
         <v>718</v>
       </c>
-      <c r="C323" s="2">
+      <c r="C323">
         <v>1</v>
       </c>
       <c r="D323" t="s">
@@ -9903,7 +9899,7 @@
         <v>722</v>
       </c>
       <c r="F324" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.35">
@@ -9924,7 +9920,7 @@
         <v>730</v>
       </c>
       <c r="F325" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.35">
@@ -9962,7 +9958,7 @@
         <v>730</v>
       </c>
       <c r="F327" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.35">
@@ -10022,7 +10018,7 @@
         <v>730</v>
       </c>
       <c r="F330" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.35">
@@ -10099,7 +10095,7 @@
         <v>730</v>
       </c>
       <c r="F334" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.35">
@@ -10254,7 +10250,7 @@
         <v>730</v>
       </c>
       <c r="F342" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.35">
@@ -10327,7 +10323,7 @@
         <v>730</v>
       </c>
       <c r="F346" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.35">
@@ -10348,7 +10344,7 @@
         <v>723</v>
       </c>
       <c r="F347" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.35">
@@ -10420,7 +10416,7 @@
         <v>730</v>
       </c>
       <c r="F351" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.35">
@@ -10480,7 +10476,7 @@
         <v>730</v>
       </c>
       <c r="F354" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.35">
@@ -10529,7 +10525,7 @@
       <c r="B357" t="s">
         <v>718</v>
       </c>
-      <c r="C357" s="2">
+      <c r="C357">
         <v>1</v>
       </c>
       <c r="D357" t="s">
@@ -10549,7 +10545,7 @@
       <c r="B358" t="s">
         <v>718</v>
       </c>
-      <c r="C358" s="2">
+      <c r="C358">
         <v>1</v>
       </c>
       <c r="D358" t="s">
@@ -10580,7 +10576,7 @@
         <v>730</v>
       </c>
       <c r="F359" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.35">
@@ -10601,7 +10597,7 @@
         <v>723</v>
       </c>
       <c r="F360" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.35">
@@ -10645,7 +10641,7 @@
       <c r="B363" t="s">
         <v>718</v>
       </c>
-      <c r="C363" s="2">
+      <c r="C363">
         <f>6667*0.45/1000</f>
         <v>3.0001500000000001</v>
       </c>
@@ -10656,7 +10652,7 @@
         <v>722</v>
       </c>
       <c r="F363" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.35">
@@ -10677,7 +10673,7 @@
         <v>730</v>
       </c>
       <c r="F364" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.35">
@@ -10716,7 +10712,7 @@
         <v>730</v>
       </c>
       <c r="F366" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.35">
@@ -10755,7 +10751,7 @@
         <v>730</v>
       </c>
       <c r="F368" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.35">
@@ -10797,7 +10793,7 @@
         <v>723</v>
       </c>
       <c r="F370" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.35">
@@ -10992,7 +10988,7 @@
         <v>723</v>
       </c>
       <c r="F380" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.35">
@@ -11076,7 +11072,7 @@
         <v>723</v>
       </c>
       <c r="F384" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.35">
@@ -11375,7 +11371,7 @@
         <v>723</v>
       </c>
       <c r="F399" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.35">
@@ -11396,7 +11392,7 @@
         <v>730</v>
       </c>
       <c r="F400" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.35">
@@ -11476,7 +11472,7 @@
         <v>730</v>
       </c>
       <c r="F404" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.35">
@@ -11577,7 +11573,7 @@
         <v>723</v>
       </c>
       <c r="F409" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.35">
@@ -11598,7 +11594,7 @@
         <v>730</v>
       </c>
       <c r="F410" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.35">
@@ -11636,7 +11632,7 @@
         <v>730</v>
       </c>
       <c r="F412" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.35">
@@ -11675,7 +11671,7 @@
         <v>730</v>
       </c>
       <c r="F414" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.35">
@@ -11717,7 +11713,7 @@
         <v>730</v>
       </c>
       <c r="F416" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.35">
@@ -11759,7 +11755,7 @@
         <v>730</v>
       </c>
       <c r="F418" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.35">
@@ -11843,7 +11839,7 @@
         <v>730</v>
       </c>
       <c r="F422" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.35">
@@ -11906,7 +11902,7 @@
         <v>730</v>
       </c>
       <c r="F425" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.35">
@@ -11969,7 +11965,7 @@
         <v>730</v>
       </c>
       <c r="F428" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.35">
@@ -12074,7 +12070,7 @@
         <v>730</v>
       </c>
       <c r="F433" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.35">
@@ -12113,7 +12109,7 @@
         <v>730</v>
       </c>
       <c r="F435" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.35">
@@ -12212,7 +12208,7 @@
         <v>730</v>
       </c>
       <c r="F440" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.35">
@@ -12251,7 +12247,7 @@
         <v>730</v>
       </c>
       <c r="F442" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.35">
@@ -12272,7 +12268,7 @@
         <v>723</v>
       </c>
       <c r="F443" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.35">
@@ -12293,7 +12289,7 @@
         <v>730</v>
       </c>
       <c r="F444" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.35">
@@ -12324,7 +12320,7 @@
       <c r="B446" t="s">
         <v>718</v>
       </c>
-      <c r="C446" s="2">
+      <c r="C446">
         <f>1/5</f>
         <v>0.2</v>
       </c>
@@ -12335,7 +12331,7 @@
         <v>722</v>
       </c>
       <c r="F446" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.35">
@@ -12345,7 +12341,7 @@
       <c r="B447" t="s">
         <v>718</v>
       </c>
-      <c r="C447" s="2">
+      <c r="C447">
         <v>1</v>
       </c>
       <c r="D447" t="s">
@@ -12373,7 +12369,7 @@
         <v>730</v>
       </c>
       <c r="F448" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.35">
@@ -12411,8 +12407,8 @@
       <c r="E450" t="s">
         <v>730</v>
       </c>
-      <c r="F450" s="2" t="s">
-        <v>993</v>
+      <c r="F450" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.35">
@@ -12451,7 +12447,7 @@
         <v>730</v>
       </c>
       <c r="F452" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.35">
@@ -12490,7 +12486,7 @@
         <v>730</v>
       </c>
       <c r="F454" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.35">
@@ -12567,7 +12563,7 @@
         <v>730</v>
       </c>
       <c r="F458" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.35">
@@ -12606,7 +12602,7 @@
         <v>730</v>
       </c>
       <c r="F460" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.35">
@@ -12645,7 +12641,7 @@
         <v>730</v>
       </c>
       <c r="F462" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.35">
@@ -12673,7 +12669,7 @@
       <c r="B464" t="s">
         <v>718</v>
       </c>
-      <c r="C464" s="2">
+      <c r="C464">
         <f>0.956 / 1000</f>
         <v>9.5599999999999993E-4</v>
       </c>
@@ -12684,7 +12680,7 @@
         <v>730</v>
       </c>
       <c r="F464" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.35">
@@ -12705,7 +12701,7 @@
         <v>723</v>
       </c>
       <c r="F465" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.35">
@@ -12777,7 +12773,7 @@
         <v>730</v>
       </c>
       <c r="F469" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.35">
@@ -12816,7 +12812,7 @@
         <v>730</v>
       </c>
       <c r="F471" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.35">
@@ -12937,7 +12933,7 @@
         <v>730</v>
       </c>
       <c r="F477" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.35">
@@ -12958,7 +12954,7 @@
         <v>723</v>
       </c>
       <c r="F478" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.35">
@@ -13030,7 +13026,7 @@
         <v>730</v>
       </c>
       <c r="F482" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.35">
@@ -13068,7 +13064,7 @@
         <v>730</v>
       </c>
       <c r="F484" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.35">
@@ -13149,7 +13145,7 @@
         <v>729</v>
       </c>
       <c r="F488" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.35">
@@ -13191,7 +13187,7 @@
         <v>729</v>
       </c>
       <c r="F490" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.35">
@@ -13233,7 +13229,7 @@
         <v>729</v>
       </c>
       <c r="F492" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.35">
@@ -13275,7 +13271,7 @@
         <v>729</v>
       </c>
       <c r="F494" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.35">
@@ -13317,7 +13313,7 @@
         <v>729</v>
       </c>
       <c r="F496" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.35">
@@ -13359,7 +13355,7 @@
         <v>729</v>
       </c>
       <c r="F498" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.35">
@@ -13401,7 +13397,7 @@
         <v>729</v>
       </c>
       <c r="F500" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.35">
@@ -13443,7 +13439,7 @@
         <v>729</v>
       </c>
       <c r="F502" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.35">
@@ -13485,7 +13481,7 @@
         <v>729</v>
       </c>
       <c r="F504" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.35">
@@ -13527,7 +13523,7 @@
         <v>729</v>
       </c>
       <c r="F506" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.35">
@@ -13569,7 +13565,7 @@
         <v>729</v>
       </c>
       <c r="F508" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.35">
@@ -13611,7 +13607,7 @@
         <v>729</v>
       </c>
       <c r="F510" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.35">
@@ -13653,7 +13649,7 @@
         <v>729</v>
       </c>
       <c r="F512" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.35">
@@ -13695,7 +13691,7 @@
         <v>729</v>
       </c>
       <c r="F514" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.35">
@@ -13737,7 +13733,7 @@
         <v>729</v>
       </c>
       <c r="F516" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.35">
@@ -13779,7 +13775,7 @@
         <v>729</v>
       </c>
       <c r="F518" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.35">
@@ -13821,7 +13817,7 @@
         <v>729</v>
       </c>
       <c r="F520" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.35">
@@ -13863,7 +13859,7 @@
         <v>729</v>
       </c>
       <c r="F522" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.35">
@@ -13968,7 +13964,7 @@
         <v>723</v>
       </c>
       <c r="F527" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.35">
@@ -13989,7 +13985,7 @@
         <v>730</v>
       </c>
       <c r="F528" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.35">
@@ -14052,7 +14048,7 @@
         <v>723</v>
       </c>
       <c r="F531" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.35">
@@ -14199,7 +14195,7 @@
         <v>723</v>
       </c>
       <c r="F538" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.35">
@@ -14241,7 +14237,7 @@
         <v>723</v>
       </c>
       <c r="F540" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.35">
@@ -14301,7 +14297,7 @@
         <v>730</v>
       </c>
       <c r="F543" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.35">
@@ -14340,7 +14336,7 @@
         <v>730</v>
       </c>
       <c r="F545" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.35">
@@ -14379,7 +14375,7 @@
         <v>730</v>
       </c>
       <c r="F547" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.35">
@@ -14421,7 +14417,7 @@
         <v>730</v>
       </c>
       <c r="F549" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.35">
@@ -14463,7 +14459,7 @@
         <v>730</v>
       </c>
       <c r="F551" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.35">
@@ -14547,7 +14543,7 @@
         <v>730</v>
       </c>
       <c r="F555" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.35">
@@ -14610,7 +14606,7 @@
         <v>730</v>
       </c>
       <c r="F558" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.35">
@@ -14673,7 +14669,7 @@
         <v>730</v>
       </c>
       <c r="F561" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.35">
@@ -14778,7 +14774,7 @@
         <v>730</v>
       </c>
       <c r="F566" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.35">
@@ -14820,7 +14816,7 @@
         <v>730</v>
       </c>
       <c r="F568" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.35">
@@ -14962,7 +14958,7 @@
         <v>730</v>
       </c>
       <c r="F575" t="s">
-        <v>803</v>
+        <v>987</v>
       </c>
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.35">
@@ -15000,7 +14996,7 @@
         <v>730</v>
       </c>
       <c r="F577" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.35">
@@ -15021,7 +15017,7 @@
         <v>723</v>
       </c>
       <c r="F578" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.35">
@@ -15042,7 +15038,7 @@
         <v>730</v>
       </c>
       <c r="F579" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.35">
@@ -15063,7 +15059,7 @@
         <v>723</v>
       </c>
       <c r="F580" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.35">
@@ -15084,7 +15080,7 @@
         <v>730</v>
       </c>
       <c r="F581" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.35">
@@ -15123,7 +15119,7 @@
         <v>731</v>
       </c>
       <c r="F583" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.35">
@@ -15161,7 +15157,7 @@
         <v>731</v>
       </c>
       <c r="F585" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.35">
@@ -15199,7 +15195,7 @@
         <v>731</v>
       </c>
       <c r="F587" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.35">
@@ -15255,7 +15251,7 @@
         <v>730</v>
       </c>
       <c r="F590" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.35">
@@ -15293,7 +15289,7 @@
         <v>730</v>
       </c>
       <c r="F592" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.35">
@@ -15421,7 +15417,7 @@
         <v>731</v>
       </c>
       <c r="F599" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.35">
@@ -15459,7 +15455,7 @@
         <v>723</v>
       </c>
       <c r="F601" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.35">
@@ -15480,7 +15476,7 @@
         <v>733</v>
       </c>
       <c r="F602" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.35">
@@ -15519,7 +15515,7 @@
         <v>732</v>
       </c>
       <c r="F604" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.35">
@@ -15558,7 +15554,7 @@
         <v>732</v>
       </c>
       <c r="F606" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.35">
@@ -15597,7 +15593,7 @@
         <v>731</v>
       </c>
       <c r="F608" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.35">
@@ -15653,7 +15649,7 @@
         <v>723</v>
       </c>
       <c r="F611" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.35">
@@ -15674,7 +15670,7 @@
         <v>723</v>
       </c>
       <c r="F612" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.35">
@@ -15697,7 +15693,7 @@
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="B614" t="s">
         <v>718</v>
@@ -15713,12 +15709,12 @@
         <v>730</v>
       </c>
       <c r="F614" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="B615" t="s">
         <v>719</v>
@@ -15736,7 +15732,7 @@
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="B616" t="s">
         <v>718</v>
@@ -15752,12 +15748,12 @@
         <v>730</v>
       </c>
       <c r="F616" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="B617" t="s">
         <v>719</v>
@@ -15808,7 +15804,7 @@
         <v>731</v>
       </c>
       <c r="F619" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.35">
@@ -15846,7 +15842,7 @@
         <v>730</v>
       </c>
       <c r="F621" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.35">
@@ -15867,7 +15863,7 @@
         <v>723</v>
       </c>
       <c r="F622" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.35">
@@ -15888,7 +15884,7 @@
         <v>732</v>
       </c>
       <c r="F623" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.35">
@@ -15927,7 +15923,7 @@
         <v>732</v>
       </c>
       <c r="F625" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.35">
@@ -15966,7 +15962,7 @@
         <v>732</v>
       </c>
       <c r="F627" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.35">
@@ -16005,7 +16001,7 @@
         <v>732</v>
       </c>
       <c r="F629" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.35">
@@ -16044,7 +16040,7 @@
         <v>732</v>
       </c>
       <c r="F631" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.35">
@@ -16083,7 +16079,7 @@
         <v>732</v>
       </c>
       <c r="F633" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.35">
@@ -16122,7 +16118,7 @@
         <v>732</v>
       </c>
       <c r="F635" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.35">
@@ -16161,7 +16157,7 @@
         <v>732</v>
       </c>
       <c r="F637" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.35">
@@ -16200,7 +16196,7 @@
         <v>732</v>
       </c>
       <c r="F639" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.35">
@@ -16239,7 +16235,7 @@
         <v>733</v>
       </c>
       <c r="F641" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.35">
@@ -16278,7 +16274,7 @@
         <v>733</v>
       </c>
       <c r="F643" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.35">
@@ -16317,7 +16313,7 @@
         <v>733</v>
       </c>
       <c r="F645" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.35">
@@ -16356,7 +16352,7 @@
         <v>733</v>
       </c>
       <c r="F647" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.35">
@@ -16395,7 +16391,7 @@
         <v>733</v>
       </c>
       <c r="F649" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.35">
@@ -16434,7 +16430,7 @@
         <v>733</v>
       </c>
       <c r="F651" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.35">
@@ -16473,7 +16469,7 @@
         <v>733</v>
       </c>
       <c r="F653" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.35">
@@ -16512,7 +16508,7 @@
         <v>733</v>
       </c>
       <c r="F655" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.35">
@@ -16551,7 +16547,7 @@
         <v>733</v>
       </c>
       <c r="F657" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.35">
@@ -16590,7 +16586,7 @@
         <v>733</v>
       </c>
       <c r="F659" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.35">
@@ -16629,7 +16625,7 @@
         <v>733</v>
       </c>
       <c r="F661" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.35">
@@ -16668,7 +16664,7 @@
         <v>733</v>
       </c>
       <c r="F663" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.35">
@@ -16707,7 +16703,7 @@
         <v>733</v>
       </c>
       <c r="F665" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.35">
@@ -16746,7 +16742,7 @@
         <v>733</v>
       </c>
       <c r="F667" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.35">
@@ -16785,7 +16781,7 @@
         <v>733</v>
       </c>
       <c r="F669" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.35">
@@ -16824,7 +16820,7 @@
         <v>733</v>
       </c>
       <c r="F671" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.35">
@@ -16863,7 +16859,7 @@
         <v>733</v>
       </c>
       <c r="F673" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.35">
@@ -16884,7 +16880,7 @@
         <v>729</v>
       </c>
       <c r="F674" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.35">
@@ -16905,7 +16901,7 @@
         <v>733</v>
       </c>
       <c r="F675" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.35">
@@ -16926,7 +16922,7 @@
         <v>729</v>
       </c>
       <c r="F676" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.35">
@@ -16947,7 +16943,7 @@
         <v>733</v>
       </c>
       <c r="F677" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.35">
@@ -16968,7 +16964,7 @@
         <v>729</v>
       </c>
       <c r="F678" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.35">
@@ -16989,7 +16985,7 @@
         <v>733</v>
       </c>
       <c r="F679" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.35">
@@ -17010,7 +17006,7 @@
         <v>729</v>
       </c>
       <c r="F680" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.35">
@@ -17031,7 +17027,7 @@
         <v>733</v>
       </c>
       <c r="F681" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.35">
@@ -17052,7 +17048,7 @@
         <v>729</v>
       </c>
       <c r="F682" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.35">
@@ -17073,7 +17069,7 @@
         <v>733</v>
       </c>
       <c r="F683" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.35">
@@ -17094,7 +17090,7 @@
         <v>729</v>
       </c>
       <c r="F684" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.35">
@@ -17115,7 +17111,7 @@
         <v>733</v>
       </c>
       <c r="F685" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.35">
@@ -17136,7 +17132,7 @@
         <v>729</v>
       </c>
       <c r="F686" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.35">
@@ -17157,7 +17153,7 @@
         <v>733</v>
       </c>
       <c r="F687" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.35">
@@ -17178,7 +17174,7 @@
         <v>729</v>
       </c>
       <c r="F688" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.35">
@@ -17199,7 +17195,7 @@
         <v>731</v>
       </c>
       <c r="F689" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.35">
@@ -17397,7 +17393,7 @@
         <v>723</v>
       </c>
       <c r="F699" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.35">
@@ -17418,7 +17414,7 @@
         <v>723</v>
       </c>
       <c r="F700" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="701" spans="1:6" x14ac:dyDescent="0.35">
@@ -17439,7 +17435,7 @@
         <v>730</v>
       </c>
       <c r="F701" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.35">
@@ -17584,7 +17580,7 @@
         <v>731</v>
       </c>
       <c r="F709" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.35">
@@ -17622,7 +17618,7 @@
         <v>731</v>
       </c>
       <c r="F711" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.35">
@@ -17660,7 +17656,7 @@
         <v>731</v>
       </c>
       <c r="F713" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.35">
@@ -17716,7 +17712,7 @@
         <v>731</v>
       </c>
       <c r="F716" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.35">
@@ -19626,7 +19622,7 @@
         <v>730</v>
       </c>
       <c r="F814" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="815" spans="1:6" x14ac:dyDescent="0.35">
@@ -19665,7 +19661,7 @@
         <v>723</v>
       </c>
       <c r="F816" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="817" spans="1:6" x14ac:dyDescent="0.35">
@@ -19788,7 +19784,7 @@
         <v>732</v>
       </c>
       <c r="F823" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="824" spans="1:6" x14ac:dyDescent="0.35">
@@ -19827,7 +19823,7 @@
         <v>732</v>
       </c>
       <c r="F825" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.35">
@@ -19866,7 +19862,7 @@
         <v>732</v>
       </c>
       <c r="F827" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="828" spans="1:6" x14ac:dyDescent="0.35">
@@ -19905,7 +19901,7 @@
         <v>732</v>
       </c>
       <c r="F829" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.35">
@@ -19944,7 +19940,7 @@
         <v>733</v>
       </c>
       <c r="F831" t="s">
-        <v>822</v>
+        <v>988</v>
       </c>
     </row>
     <row r="832" spans="1:6" x14ac:dyDescent="0.35">
@@ -19981,7 +19977,7 @@
         <v>722</v>
       </c>
       <c r="F833" t="s">
-        <v>823</v>
+        <v>989</v>
       </c>
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.35">
@@ -20001,7 +19997,7 @@
         <v>722</v>
       </c>
       <c r="F834" t="s">
-        <v>824</v>
+        <v>990</v>
       </c>
     </row>
     <row r="835" spans="1:6" x14ac:dyDescent="0.35">
@@ -20022,7 +20018,7 @@
         <v>733</v>
       </c>
       <c r="F835" t="s">
-        <v>822</v>
+        <v>988</v>
       </c>
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.35">
@@ -20059,7 +20055,7 @@
         <v>722</v>
       </c>
       <c r="F837" t="s">
-        <v>823</v>
+        <v>989</v>
       </c>
     </row>
     <row r="838" spans="1:6" x14ac:dyDescent="0.35">
@@ -20079,7 +20075,7 @@
         <v>722</v>
       </c>
       <c r="F838" t="s">
-        <v>824</v>
+        <v>990</v>
       </c>
     </row>
     <row r="839" spans="1:6" x14ac:dyDescent="0.35">
@@ -20100,7 +20096,7 @@
         <v>733</v>
       </c>
       <c r="F839" t="s">
-        <v>822</v>
+        <v>988</v>
       </c>
     </row>
     <row r="840" spans="1:6" x14ac:dyDescent="0.35">
@@ -20137,7 +20133,7 @@
         <v>722</v>
       </c>
       <c r="F841" t="s">
-        <v>823</v>
+        <v>989</v>
       </c>
     </row>
     <row r="842" spans="1:6" x14ac:dyDescent="0.35">
@@ -20157,7 +20153,7 @@
         <v>722</v>
       </c>
       <c r="F842" t="s">
-        <v>824</v>
+        <v>990</v>
       </c>
     </row>
     <row r="843" spans="1:6" x14ac:dyDescent="0.35">
@@ -20178,7 +20174,7 @@
         <v>733</v>
       </c>
       <c r="F843" t="s">
-        <v>822</v>
+        <v>988</v>
       </c>
     </row>
     <row r="844" spans="1:6" x14ac:dyDescent="0.35">
@@ -20215,7 +20211,7 @@
         <v>722</v>
       </c>
       <c r="F845" t="s">
-        <v>823</v>
+        <v>989</v>
       </c>
     </row>
     <row r="846" spans="1:6" x14ac:dyDescent="0.35">
@@ -20235,7 +20231,7 @@
         <v>722</v>
       </c>
       <c r="F846" t="s">
-        <v>824</v>
+        <v>990</v>
       </c>
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.35">
@@ -20256,7 +20252,7 @@
         <v>733</v>
       </c>
       <c r="F847" t="s">
-        <v>822</v>
+        <v>988</v>
       </c>
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.35">
@@ -20293,7 +20289,7 @@
         <v>722</v>
       </c>
       <c r="F849" t="s">
-        <v>823</v>
+        <v>989</v>
       </c>
     </row>
     <row r="850" spans="1:6" x14ac:dyDescent="0.35">
@@ -20313,7 +20309,7 @@
         <v>722</v>
       </c>
       <c r="F850" t="s">
-        <v>824</v>
+        <v>990</v>
       </c>
     </row>
     <row r="851" spans="1:6" x14ac:dyDescent="0.35">
@@ -20334,7 +20330,7 @@
         <v>733</v>
       </c>
       <c r="F851" t="s">
-        <v>825</v>
+        <v>991</v>
       </c>
     </row>
     <row r="852" spans="1:6" x14ac:dyDescent="0.35">
@@ -20372,7 +20368,7 @@
         <v>722</v>
       </c>
       <c r="F853" t="s">
-        <v>826</v>
+        <v>992</v>
       </c>
     </row>
     <row r="854" spans="1:6" x14ac:dyDescent="0.35">
@@ -20392,7 +20388,7 @@
         <v>722</v>
       </c>
       <c r="F854" t="s">
-        <v>827</v>
+        <v>993</v>
       </c>
     </row>
     <row r="855" spans="1:6" x14ac:dyDescent="0.35">
@@ -20413,7 +20409,7 @@
         <v>733</v>
       </c>
       <c r="F855" t="s">
-        <v>825</v>
+        <v>991</v>
       </c>
     </row>
     <row r="856" spans="1:6" x14ac:dyDescent="0.35">
@@ -20451,7 +20447,7 @@
         <v>722</v>
       </c>
       <c r="F857" t="s">
-        <v>826</v>
+        <v>992</v>
       </c>
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="0.35">
@@ -20471,7 +20467,7 @@
         <v>722</v>
       </c>
       <c r="F858" t="s">
-        <v>827</v>
+        <v>993</v>
       </c>
     </row>
     <row r="859" spans="1:6" x14ac:dyDescent="0.35">
@@ -20492,7 +20488,7 @@
         <v>733</v>
       </c>
       <c r="F859" t="s">
-        <v>822</v>
+        <v>988</v>
       </c>
     </row>
     <row r="860" spans="1:6" x14ac:dyDescent="0.35">
@@ -20529,7 +20525,7 @@
         <v>722</v>
       </c>
       <c r="F861" t="s">
-        <v>823</v>
+        <v>989</v>
       </c>
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.35">
@@ -20549,7 +20545,7 @@
         <v>722</v>
       </c>
       <c r="F862" t="s">
-        <v>824</v>
+        <v>990</v>
       </c>
     </row>
     <row r="863" spans="1:6" x14ac:dyDescent="0.35">
@@ -20570,7 +20566,7 @@
         <v>733</v>
       </c>
       <c r="F863" t="s">
-        <v>822</v>
+        <v>988</v>
       </c>
     </row>
     <row r="864" spans="1:6" x14ac:dyDescent="0.35">
@@ -20607,7 +20603,7 @@
         <v>722</v>
       </c>
       <c r="F865" t="s">
-        <v>823</v>
+        <v>989</v>
       </c>
     </row>
     <row r="866" spans="1:6" x14ac:dyDescent="0.35">
@@ -20627,7 +20623,7 @@
         <v>722</v>
       </c>
       <c r="F866" t="s">
-        <v>824</v>
+        <v>990</v>
       </c>
     </row>
     <row r="867" spans="1:6" x14ac:dyDescent="0.35">
@@ -20648,7 +20644,7 @@
         <v>733</v>
       </c>
       <c r="F867" t="s">
-        <v>822</v>
+        <v>988</v>
       </c>
     </row>
     <row r="868" spans="1:6" x14ac:dyDescent="0.35">
@@ -20685,7 +20681,7 @@
         <v>722</v>
       </c>
       <c r="F869" t="s">
-        <v>823</v>
+        <v>989</v>
       </c>
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.35">
@@ -20705,7 +20701,7 @@
         <v>722</v>
       </c>
       <c r="F870" t="s">
-        <v>824</v>
+        <v>990</v>
       </c>
     </row>
     <row r="871" spans="1:6" x14ac:dyDescent="0.35">
@@ -20726,7 +20722,7 @@
         <v>732</v>
       </c>
       <c r="F871" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
     </row>
     <row r="872" spans="1:6" x14ac:dyDescent="0.35">
@@ -20765,7 +20761,7 @@
         <v>732</v>
       </c>
       <c r="F873" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
     </row>
     <row r="874" spans="1:6" x14ac:dyDescent="0.35">
@@ -20804,7 +20800,7 @@
         <v>732</v>
       </c>
       <c r="F875" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
     </row>
     <row r="876" spans="1:6" x14ac:dyDescent="0.35">
@@ -20843,7 +20839,7 @@
         <v>732</v>
       </c>
       <c r="F877" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
     </row>
     <row r="878" spans="1:6" x14ac:dyDescent="0.35">
@@ -20882,7 +20878,7 @@
         <v>732</v>
       </c>
       <c r="F879" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
     </row>
     <row r="880" spans="1:6" x14ac:dyDescent="0.35">
@@ -20921,7 +20917,7 @@
         <v>733</v>
       </c>
       <c r="F881" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
     </row>
     <row r="882" spans="1:6" x14ac:dyDescent="0.35">
@@ -20960,7 +20956,7 @@
         <v>733</v>
       </c>
       <c r="F883" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
     </row>
     <row r="884" spans="1:6" x14ac:dyDescent="0.35">
@@ -20999,7 +20995,7 @@
         <v>733</v>
       </c>
       <c r="F885" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
     </row>
     <row r="886" spans="1:6" x14ac:dyDescent="0.35">
@@ -21038,7 +21034,7 @@
         <v>733</v>
       </c>
       <c r="F887" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
     </row>
     <row r="888" spans="1:6" x14ac:dyDescent="0.35">
@@ -21077,7 +21073,7 @@
         <v>733</v>
       </c>
       <c r="F889" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
     </row>
     <row r="890" spans="1:6" x14ac:dyDescent="0.35">
@@ -21116,7 +21112,7 @@
         <v>733</v>
       </c>
       <c r="F891" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
     </row>
     <row r="892" spans="1:6" x14ac:dyDescent="0.35">
@@ -21155,7 +21151,7 @@
         <v>733</v>
       </c>
       <c r="F893" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
     </row>
     <row r="894" spans="1:6" x14ac:dyDescent="0.35">
@@ -21194,7 +21190,7 @@
         <v>733</v>
       </c>
       <c r="F895" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
     </row>
     <row r="896" spans="1:6" x14ac:dyDescent="0.35">
@@ -21233,7 +21229,7 @@
         <v>733</v>
       </c>
       <c r="F897" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
     </row>
     <row r="898" spans="1:6" x14ac:dyDescent="0.35">
@@ -21254,7 +21250,7 @@
         <v>729</v>
       </c>
       <c r="F898" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
     </row>
     <row r="899" spans="1:6" x14ac:dyDescent="0.35">
@@ -21275,7 +21271,7 @@
         <v>733</v>
       </c>
       <c r="F899" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
     </row>
     <row r="900" spans="1:6" x14ac:dyDescent="0.35">
@@ -21296,7 +21292,7 @@
         <v>729</v>
       </c>
       <c r="F900" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
     </row>
     <row r="901" spans="1:6" x14ac:dyDescent="0.35">
@@ -21317,7 +21313,7 @@
         <v>733</v>
       </c>
       <c r="F901" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.35">
@@ -21338,7 +21334,7 @@
         <v>729</v>
       </c>
       <c r="F902" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
     </row>
     <row r="903" spans="1:6" x14ac:dyDescent="0.35">
@@ -21359,7 +21355,7 @@
         <v>733</v>
       </c>
       <c r="F903" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
     </row>
     <row r="904" spans="1:6" x14ac:dyDescent="0.35">
@@ -21380,7 +21376,7 @@
         <v>729</v>
       </c>
       <c r="F904" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
     </row>
     <row r="905" spans="1:6" x14ac:dyDescent="0.35">
@@ -21401,7 +21397,7 @@
         <v>733</v>
       </c>
       <c r="F905" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
     </row>
     <row r="906" spans="1:6" x14ac:dyDescent="0.35">
@@ -21422,7 +21418,7 @@
         <v>729</v>
       </c>
       <c r="F906" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
     </row>
     <row r="907" spans="1:6" x14ac:dyDescent="0.35">
@@ -21443,7 +21439,7 @@
         <v>733</v>
       </c>
       <c r="F907" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
     </row>
     <row r="908" spans="1:6" x14ac:dyDescent="0.35">
@@ -21464,7 +21460,7 @@
         <v>729</v>
       </c>
       <c r="F908" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
     </row>
     <row r="909" spans="1:6" x14ac:dyDescent="0.35">
@@ -21485,7 +21481,7 @@
         <v>733</v>
       </c>
       <c r="F909" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
     </row>
     <row r="910" spans="1:6" x14ac:dyDescent="0.35">
@@ -21506,7 +21502,7 @@
         <v>729</v>
       </c>
       <c r="F910" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
     </row>
     <row r="911" spans="1:6" x14ac:dyDescent="0.35">
@@ -21527,7 +21523,7 @@
         <v>733</v>
       </c>
       <c r="F911" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
     </row>
     <row r="912" spans="1:6" x14ac:dyDescent="0.35">
@@ -21548,7 +21544,7 @@
         <v>729</v>
       </c>
       <c r="F912" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
     </row>
     <row r="913" spans="1:6" x14ac:dyDescent="0.35">
@@ -21569,7 +21565,7 @@
         <v>733</v>
       </c>
       <c r="F913" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
     </row>
     <row r="914" spans="1:6" x14ac:dyDescent="0.35">
@@ -21590,7 +21586,7 @@
         <v>729</v>
       </c>
       <c r="F914" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
     </row>
     <row r="915" spans="1:6" x14ac:dyDescent="0.35">
@@ -21611,7 +21607,7 @@
         <v>733</v>
       </c>
       <c r="F915" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
     </row>
     <row r="916" spans="1:6" x14ac:dyDescent="0.35">
@@ -21632,7 +21628,7 @@
         <v>729</v>
       </c>
       <c r="F916" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
     </row>
     <row r="917" spans="1:6" x14ac:dyDescent="0.35">
@@ -21653,7 +21649,7 @@
         <v>733</v>
       </c>
       <c r="F917" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
     </row>
     <row r="918" spans="1:6" x14ac:dyDescent="0.35">
@@ -21674,7 +21670,7 @@
         <v>729</v>
       </c>
       <c r="F918" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
     </row>
     <row r="919" spans="1:6" x14ac:dyDescent="0.35">
@@ -21695,7 +21691,7 @@
         <v>733</v>
       </c>
       <c r="F919" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
     </row>
     <row r="920" spans="1:6" x14ac:dyDescent="0.35">
@@ -21716,7 +21712,7 @@
         <v>729</v>
       </c>
       <c r="F920" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
     </row>
     <row r="921" spans="1:6" x14ac:dyDescent="0.35">
@@ -21737,7 +21733,7 @@
         <v>733</v>
       </c>
       <c r="F921" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
     </row>
     <row r="922" spans="1:6" x14ac:dyDescent="0.35">
@@ -21758,7 +21754,7 @@
         <v>729</v>
       </c>
       <c r="F922" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
     </row>
     <row r="923" spans="1:6" x14ac:dyDescent="0.35">
@@ -21779,7 +21775,7 @@
         <v>733</v>
       </c>
       <c r="F923" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
     </row>
     <row r="924" spans="1:6" x14ac:dyDescent="0.35">
@@ -21800,7 +21796,7 @@
         <v>729</v>
       </c>
       <c r="F924" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
     </row>
     <row r="925" spans="1:6" x14ac:dyDescent="0.35">
@@ -21821,7 +21817,7 @@
         <v>733</v>
       </c>
       <c r="F925" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
     </row>
     <row r="926" spans="1:6" x14ac:dyDescent="0.35">
@@ -21842,7 +21838,7 @@
         <v>729</v>
       </c>
       <c r="F926" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
     </row>
     <row r="927" spans="1:6" x14ac:dyDescent="0.35">
@@ -21863,7 +21859,7 @@
         <v>733</v>
       </c>
       <c r="F927" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
     </row>
     <row r="928" spans="1:6" x14ac:dyDescent="0.35">
@@ -21884,7 +21880,7 @@
         <v>729</v>
       </c>
       <c r="F928" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
     </row>
     <row r="929" spans="1:6" x14ac:dyDescent="0.35">
@@ -21923,7 +21919,7 @@
         <v>723</v>
       </c>
       <c r="F930" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
     </row>
     <row r="931" spans="1:6" x14ac:dyDescent="0.35">
@@ -21944,7 +21940,7 @@
         <v>723</v>
       </c>
       <c r="F931" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
     </row>
     <row r="932" spans="1:6" x14ac:dyDescent="0.35">
@@ -21965,7 +21961,7 @@
         <v>723</v>
       </c>
       <c r="F932" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
     </row>
     <row r="933" spans="1:6" x14ac:dyDescent="0.35">
@@ -21986,7 +21982,7 @@
         <v>723</v>
       </c>
       <c r="F933" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
     </row>
     <row r="934" spans="1:6" x14ac:dyDescent="0.35">
@@ -22007,7 +22003,7 @@
         <v>723</v>
       </c>
       <c r="F934" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
     </row>
     <row r="935" spans="1:6" x14ac:dyDescent="0.35">
@@ -22028,7 +22024,7 @@
         <v>730</v>
       </c>
       <c r="F935" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
     </row>
     <row r="936" spans="1:6" x14ac:dyDescent="0.35">
@@ -22101,7 +22097,7 @@
         <v>730</v>
       </c>
       <c r="F939" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
     </row>
     <row r="940" spans="1:6" x14ac:dyDescent="0.35">
@@ -22158,7 +22154,7 @@
     </row>
     <row r="943" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A943" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="B943" t="s">
         <v>718</v>
@@ -22174,12 +22170,12 @@
         <v>730</v>
       </c>
       <c r="F943" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
     </row>
     <row r="944" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A944" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="B944" t="s">
         <v>719</v>
@@ -22197,7 +22193,7 @@
     </row>
     <row r="945" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A945" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="B945" t="s">
         <v>718</v>
@@ -22214,7 +22210,7 @@
     </row>
     <row r="946" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A946" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="B946" t="s">
         <v>718</v>
@@ -22247,7 +22243,7 @@
         <v>723</v>
       </c>
       <c r="F947" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
     </row>
     <row r="948" spans="1:6" x14ac:dyDescent="0.35">
@@ -22268,7 +22264,7 @@
         <v>730</v>
       </c>
       <c r="F948" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
     </row>
     <row r="949" spans="1:6" x14ac:dyDescent="0.35">
@@ -22310,7 +22306,7 @@
         <v>723</v>
       </c>
       <c r="F950" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
     </row>
     <row r="951" spans="1:6" x14ac:dyDescent="0.35">
@@ -22331,7 +22327,7 @@
         <v>724</v>
       </c>
       <c r="F951" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
     </row>
     <row r="952" spans="1:6" x14ac:dyDescent="0.35">
@@ -22352,12 +22348,12 @@
         <v>721</v>
       </c>
       <c r="F952" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
     </row>
     <row r="953" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A953" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="B953" t="s">
         <v>720</v>
@@ -22394,7 +22390,7 @@
         <v>723</v>
       </c>
       <c r="F954" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
     </row>
     <row r="955" spans="1:6" x14ac:dyDescent="0.35">
@@ -22415,7 +22411,7 @@
         <v>723</v>
       </c>
       <c r="F955" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
     </row>
     <row r="956" spans="1:6" x14ac:dyDescent="0.35">
@@ -22456,7 +22452,7 @@
     </row>
     <row r="958" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A958" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="B958" t="s">
         <v>720</v>
@@ -22493,7 +22489,7 @@
         <v>723</v>
       </c>
       <c r="F959" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
     </row>
     <row r="960" spans="1:6" x14ac:dyDescent="0.35">
@@ -22550,7 +22546,7 @@
         <v>723</v>
       </c>
       <c r="F962" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
     </row>
     <row r="963" spans="1:6" x14ac:dyDescent="0.35">
@@ -22592,7 +22588,7 @@
         <v>723</v>
       </c>
       <c r="F964" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
     </row>
     <row r="965" spans="1:6" x14ac:dyDescent="0.35">
@@ -22613,7 +22609,7 @@
         <v>723</v>
       </c>
       <c r="F965" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
     </row>
     <row r="966" spans="1:6" x14ac:dyDescent="0.35">
@@ -22634,7 +22630,7 @@
         <v>723</v>
       </c>
       <c r="F966" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
     </row>
     <row r="967" spans="1:6" x14ac:dyDescent="0.35">
@@ -22655,12 +22651,12 @@
         <v>723</v>
       </c>
       <c r="F967" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
     </row>
     <row r="968" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A968" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="B968" t="s">
         <v>720</v>
@@ -22697,7 +22693,7 @@
         <v>721</v>
       </c>
       <c r="F969" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
     </row>
     <row r="970" spans="1:6" x14ac:dyDescent="0.35">
@@ -22718,7 +22714,7 @@
         <v>723</v>
       </c>
       <c r="F970" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
     </row>
     <row r="971" spans="1:6" x14ac:dyDescent="0.35">
@@ -22760,7 +22756,7 @@
         <v>724</v>
       </c>
       <c r="F972" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
     </row>
     <row r="973" spans="1:6" x14ac:dyDescent="0.35">
@@ -22781,7 +22777,7 @@
         <v>723</v>
       </c>
       <c r="F973" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
     </row>
     <row r="974" spans="1:6" x14ac:dyDescent="0.35">
@@ -22802,12 +22798,12 @@
         <v>723</v>
       </c>
       <c r="F974" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
     </row>
     <row r="975" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A975" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="B975" t="s">
         <v>720</v>
@@ -22823,7 +22819,7 @@
         <v>723</v>
       </c>
       <c r="F975" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="976" spans="1:6" x14ac:dyDescent="0.35">
@@ -22844,7 +22840,7 @@
         <v>721</v>
       </c>
       <c r="F976" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
     </row>
     <row r="977" spans="1:6" x14ac:dyDescent="0.35">
@@ -22865,12 +22861,12 @@
         <v>724</v>
       </c>
       <c r="F977" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
     </row>
     <row r="978" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A978" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="B978" t="s">
         <v>720</v>
@@ -22886,7 +22882,7 @@
         <v>723</v>
       </c>
       <c r="F978" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
     </row>
     <row r="979" spans="1:6" x14ac:dyDescent="0.35">
@@ -22907,7 +22903,7 @@
         <v>723</v>
       </c>
       <c r="F979" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
     </row>
     <row r="980" spans="1:6" x14ac:dyDescent="0.35">
@@ -22928,7 +22924,7 @@
         <v>723</v>
       </c>
       <c r="F980" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
     </row>
     <row r="981" spans="1:6" x14ac:dyDescent="0.35">
@@ -22949,7 +22945,7 @@
         <v>723</v>
       </c>
       <c r="F981" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
     </row>
     <row r="982" spans="1:6" x14ac:dyDescent="0.35">
@@ -23009,7 +23005,7 @@
         <v>732</v>
       </c>
       <c r="F984" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="985" spans="1:6" x14ac:dyDescent="0.35">
@@ -23069,7 +23065,7 @@
         <v>725</v>
       </c>
       <c r="F987" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="988" spans="1:6" x14ac:dyDescent="0.35">
@@ -23111,7 +23107,7 @@
         <v>725</v>
       </c>
       <c r="F989" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="990" spans="1:6" x14ac:dyDescent="0.35">
@@ -23153,7 +23149,7 @@
         <v>725</v>
       </c>
       <c r="F991" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="992" spans="1:6" x14ac:dyDescent="0.35">
@@ -23195,7 +23191,7 @@
         <v>725</v>
       </c>
       <c r="F993" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="994" spans="1:6" x14ac:dyDescent="0.35">
@@ -23237,7 +23233,7 @@
         <v>725</v>
       </c>
       <c r="F995" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="996" spans="1:6" x14ac:dyDescent="0.35">
@@ -23279,7 +23275,7 @@
         <v>725</v>
       </c>
       <c r="F997" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="998" spans="1:6" x14ac:dyDescent="0.35">
@@ -23321,7 +23317,7 @@
         <v>725</v>
       </c>
       <c r="F999" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="1000" spans="1:6" x14ac:dyDescent="0.35">
@@ -23363,7 +23359,7 @@
         <v>725</v>
       </c>
       <c r="F1001" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="1002" spans="1:6" x14ac:dyDescent="0.35">
@@ -23405,7 +23401,7 @@
         <v>725</v>
       </c>
       <c r="F1003" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="1004" spans="1:6" x14ac:dyDescent="0.35">
@@ -23447,7 +23443,7 @@
         <v>725</v>
       </c>
       <c r="F1005" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="1006" spans="1:6" x14ac:dyDescent="0.35">
@@ -23489,7 +23485,7 @@
         <v>725</v>
       </c>
       <c r="F1007" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="1008" spans="1:6" x14ac:dyDescent="0.35">
@@ -23531,7 +23527,7 @@
         <v>725</v>
       </c>
       <c r="F1009" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="1010" spans="1:6" x14ac:dyDescent="0.35">
@@ -23573,7 +23569,7 @@
         <v>725</v>
       </c>
       <c r="F1011" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1012" spans="1:6" x14ac:dyDescent="0.35">
@@ -23615,7 +23611,7 @@
         <v>725</v>
       </c>
       <c r="F1013" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1014" spans="1:6" x14ac:dyDescent="0.35">
@@ -23657,7 +23653,7 @@
         <v>725</v>
       </c>
       <c r="F1015" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1016" spans="1:6" x14ac:dyDescent="0.35">
@@ -23699,7 +23695,7 @@
         <v>725</v>
       </c>
       <c r="F1017" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1018" spans="1:6" x14ac:dyDescent="0.35">
@@ -23720,7 +23716,7 @@
         <v>730</v>
       </c>
       <c r="F1018" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
     </row>
     <row r="1019" spans="1:6" x14ac:dyDescent="0.35">
@@ -23759,7 +23755,7 @@
         <v>730</v>
       </c>
       <c r="F1020" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
     </row>
     <row r="1021" spans="1:6" x14ac:dyDescent="0.35">
@@ -24032,7 +24028,7 @@
         <v>730</v>
       </c>
       <c r="F1034" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
     </row>
     <row r="1035" spans="1:6" x14ac:dyDescent="0.35">
@@ -24071,7 +24067,7 @@
         <v>730</v>
       </c>
       <c r="F1036" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
     </row>
     <row r="1037" spans="1:6" x14ac:dyDescent="0.35">
@@ -24148,7 +24144,7 @@
         <v>730</v>
       </c>
       <c r="F1040" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="1041" spans="1:6" x14ac:dyDescent="0.35">
@@ -24169,7 +24165,7 @@
         <v>723</v>
       </c>
       <c r="F1041" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
     </row>
     <row r="1042" spans="1:6" x14ac:dyDescent="0.35">
@@ -24241,7 +24237,7 @@
         <v>730</v>
       </c>
       <c r="F1045" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1046" spans="1:6" x14ac:dyDescent="0.35">
@@ -24269,7 +24265,7 @@
       <c r="B1047" t="s">
         <v>718</v>
       </c>
-      <c r="C1047" s="2">
+      <c r="C1047">
         <v>1</v>
       </c>
       <c r="D1047" t="s">
@@ -24318,7 +24314,7 @@
         <v>722</v>
       </c>
       <c r="F1049" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
     </row>
     <row r="1050" spans="1:6" x14ac:dyDescent="0.35">
@@ -24339,7 +24335,7 @@
         <v>730</v>
       </c>
       <c r="F1050" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
     </row>
     <row r="1051" spans="1:6" x14ac:dyDescent="0.35">
@@ -24532,7 +24528,7 @@
         <v>730</v>
       </c>
       <c r="F1060" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
     </row>
     <row r="1061" spans="1:6" x14ac:dyDescent="0.35">
@@ -24553,7 +24549,7 @@
         <v>723</v>
       </c>
       <c r="F1061" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
     </row>
     <row r="1062" spans="1:6" x14ac:dyDescent="0.35">
@@ -24667,7 +24663,7 @@
         <v>730</v>
       </c>
       <c r="F1067" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
     </row>
     <row r="1068" spans="1:6" x14ac:dyDescent="0.35">
@@ -24706,7 +24702,7 @@
         <v>730</v>
       </c>
       <c r="F1069" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
     </row>
     <row r="1070" spans="1:6" x14ac:dyDescent="0.35">
@@ -24745,7 +24741,7 @@
         <v>730</v>
       </c>
       <c r="F1071" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
     </row>
     <row r="1072" spans="1:6" x14ac:dyDescent="0.35">
@@ -24784,7 +24780,7 @@
         <v>730</v>
       </c>
       <c r="F1073" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
     </row>
     <row r="1074" spans="1:6" x14ac:dyDescent="0.35">
@@ -24861,7 +24857,7 @@
         <v>730</v>
       </c>
       <c r="F1077" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
     </row>
     <row r="1078" spans="1:6" x14ac:dyDescent="0.35">
@@ -24882,7 +24878,7 @@
         <v>723</v>
       </c>
       <c r="F1078" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
     </row>
     <row r="1079" spans="1:6" x14ac:dyDescent="0.35">
@@ -24975,7 +24971,7 @@
         <v>729</v>
       </c>
       <c r="F1083" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="1084" spans="1:6" x14ac:dyDescent="0.35">
@@ -25017,7 +25013,7 @@
         <v>729</v>
       </c>
       <c r="F1085" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="1086" spans="1:6" x14ac:dyDescent="0.35">
@@ -25185,7 +25181,7 @@
         <v>723</v>
       </c>
       <c r="F1093" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1094" spans="1:6" x14ac:dyDescent="0.35">
@@ -25227,7 +25223,7 @@
         <v>723</v>
       </c>
       <c r="F1095" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
     </row>
     <row r="1096" spans="1:6" x14ac:dyDescent="0.35">
@@ -25248,7 +25244,7 @@
         <v>730</v>
       </c>
       <c r="F1096" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
     </row>
     <row r="1097" spans="1:6" x14ac:dyDescent="0.35">
@@ -25290,7 +25286,7 @@
         <v>730</v>
       </c>
       <c r="F1098" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
     </row>
     <row r="1099" spans="1:6" x14ac:dyDescent="0.35">
@@ -25332,7 +25328,7 @@
         <v>730</v>
       </c>
       <c r="F1100" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
     </row>
     <row r="1101" spans="1:6" x14ac:dyDescent="0.35">
@@ -25395,7 +25391,7 @@
         <v>730</v>
       </c>
       <c r="F1103" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
     </row>
     <row r="1104" spans="1:6" x14ac:dyDescent="0.35">
@@ -25458,7 +25454,7 @@
         <v>730</v>
       </c>
       <c r="F1106" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
     </row>
     <row r="1107" spans="1:6" x14ac:dyDescent="0.35">
@@ -25521,7 +25517,7 @@
         <v>730</v>
       </c>
       <c r="F1109" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
     </row>
     <row r="1110" spans="1:6" x14ac:dyDescent="0.35">
@@ -25563,7 +25559,7 @@
         <v>730</v>
       </c>
       <c r="F1111" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
     </row>
     <row r="1112" spans="1:6" x14ac:dyDescent="0.35">
@@ -25605,7 +25601,7 @@
         <v>730</v>
       </c>
       <c r="F1113" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
     </row>
     <row r="1114" spans="1:6" x14ac:dyDescent="0.35">
@@ -25727,7 +25723,7 @@
         <v>723</v>
       </c>
       <c r="F1119" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1120" spans="1:6" x14ac:dyDescent="0.35">
@@ -25748,7 +25744,7 @@
         <v>730</v>
       </c>
       <c r="F1120" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
     </row>
     <row r="1121" spans="1:6" x14ac:dyDescent="0.35">
@@ -25769,7 +25765,7 @@
         <v>723</v>
       </c>
       <c r="F1121" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
     </row>
     <row r="1122" spans="1:6" x14ac:dyDescent="0.35">
@@ -25790,7 +25786,7 @@
         <v>730</v>
       </c>
       <c r="F1122" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
     </row>
     <row r="1123" spans="1:6" x14ac:dyDescent="0.35">
@@ -25811,7 +25807,7 @@
         <v>723</v>
       </c>
       <c r="F1123" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
     </row>
     <row r="1124" spans="1:6" x14ac:dyDescent="0.35">
@@ -25832,7 +25828,7 @@
         <v>733</v>
       </c>
       <c r="F1124" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="1125" spans="1:6" x14ac:dyDescent="0.35">
@@ -25871,7 +25867,7 @@
         <v>732</v>
       </c>
       <c r="F1126" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="1127" spans="1:6" x14ac:dyDescent="0.35">
@@ -25910,7 +25906,7 @@
         <v>732</v>
       </c>
       <c r="F1128" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="1129" spans="1:6" x14ac:dyDescent="0.35">
@@ -25949,7 +25945,7 @@
         <v>732</v>
       </c>
       <c r="F1130" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="1131" spans="1:6" x14ac:dyDescent="0.35">
@@ -25988,7 +25984,7 @@
         <v>733</v>
       </c>
       <c r="F1132" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="1133" spans="1:6" x14ac:dyDescent="0.35">
@@ -26027,7 +26023,7 @@
         <v>733</v>
       </c>
       <c r="F1134" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="1135" spans="1:6" x14ac:dyDescent="0.35">
@@ -26066,7 +26062,7 @@
         <v>733</v>
       </c>
       <c r="F1136" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1137" spans="1:6" x14ac:dyDescent="0.35">
@@ -26087,7 +26083,7 @@
         <v>729</v>
       </c>
       <c r="F1137" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
     </row>
     <row r="1138" spans="1:6" x14ac:dyDescent="0.35">
@@ -26576,7 +26572,7 @@
         <v>732</v>
       </c>
       <c r="F1162" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="1163" spans="1:6" x14ac:dyDescent="0.35">
@@ -26615,7 +26611,7 @@
         <v>732</v>
       </c>
       <c r="F1164" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="1165" spans="1:6" x14ac:dyDescent="0.35">
@@ -26654,7 +26650,7 @@
         <v>733</v>
       </c>
       <c r="F1166" t="s">
-        <v>822</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1167" spans="1:6" x14ac:dyDescent="0.35">
@@ -26691,7 +26687,7 @@
         <v>722</v>
       </c>
       <c r="F1168" t="s">
-        <v>823</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1169" spans="1:6" x14ac:dyDescent="0.35">
@@ -26711,7 +26707,7 @@
         <v>722</v>
       </c>
       <c r="F1169" t="s">
-        <v>824</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1170" spans="1:6" x14ac:dyDescent="0.35">
@@ -26732,7 +26728,7 @@
         <v>733</v>
       </c>
       <c r="F1170" t="s">
-        <v>822</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1171" spans="1:6" x14ac:dyDescent="0.35">
@@ -26769,7 +26765,7 @@
         <v>722</v>
       </c>
       <c r="F1172" t="s">
-        <v>823</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1173" spans="1:6" x14ac:dyDescent="0.35">
@@ -26789,7 +26785,7 @@
         <v>722</v>
       </c>
       <c r="F1173" t="s">
-        <v>824</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1174" spans="1:6" x14ac:dyDescent="0.35">
@@ -26810,7 +26806,7 @@
         <v>733</v>
       </c>
       <c r="F1174" t="s">
-        <v>822</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1175" spans="1:6" x14ac:dyDescent="0.35">
@@ -26847,7 +26843,7 @@
         <v>722</v>
       </c>
       <c r="F1176" t="s">
-        <v>823</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1177" spans="1:6" x14ac:dyDescent="0.35">
@@ -26867,7 +26863,7 @@
         <v>722</v>
       </c>
       <c r="F1177" t="s">
-        <v>824</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1178" spans="1:6" x14ac:dyDescent="0.35">
@@ -26888,7 +26884,7 @@
         <v>733</v>
       </c>
       <c r="F1178" t="s">
-        <v>822</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1179" spans="1:6" x14ac:dyDescent="0.35">
@@ -26925,7 +26921,7 @@
         <v>722</v>
       </c>
       <c r="F1180" t="s">
-        <v>823</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1181" spans="1:6" x14ac:dyDescent="0.35">
@@ -26945,7 +26941,7 @@
         <v>722</v>
       </c>
       <c r="F1181" t="s">
-        <v>824</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1182" spans="1:6" x14ac:dyDescent="0.35">
@@ -26966,7 +26962,7 @@
         <v>732</v>
       </c>
       <c r="F1182" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
     </row>
     <row r="1183" spans="1:6" x14ac:dyDescent="0.35">
@@ -27005,7 +27001,7 @@
         <v>732</v>
       </c>
       <c r="F1184" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
     </row>
     <row r="1185" spans="1:6" x14ac:dyDescent="0.35">
@@ -27044,7 +27040,7 @@
         <v>733</v>
       </c>
       <c r="F1186" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
     </row>
     <row r="1187" spans="1:6" x14ac:dyDescent="0.35">
@@ -27083,7 +27079,7 @@
         <v>733</v>
       </c>
       <c r="F1188" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
     </row>
     <row r="1189" spans="1:6" x14ac:dyDescent="0.35">
@@ -27104,7 +27100,7 @@
         <v>729</v>
       </c>
       <c r="F1189" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
     </row>
     <row r="1190" spans="1:6" x14ac:dyDescent="0.35">
@@ -27125,7 +27121,7 @@
         <v>733</v>
       </c>
       <c r="F1190" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
     </row>
     <row r="1191" spans="1:6" x14ac:dyDescent="0.35">
@@ -27146,7 +27142,7 @@
         <v>729</v>
       </c>
       <c r="F1191" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
     </row>
     <row r="1192" spans="1:6" x14ac:dyDescent="0.35">
@@ -27172,7 +27168,7 @@
     </row>
     <row r="1193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1193" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="B1193" t="s">
         <v>718</v>
@@ -27188,12 +27184,12 @@
         <v>730</v>
       </c>
       <c r="F1193" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
     </row>
     <row r="1194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1194" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="B1194" t="s">
         <v>718</v>
@@ -27209,12 +27205,12 @@
         <v>730</v>
       </c>
       <c r="F1194" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
     </row>
     <row r="1195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1195" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="B1195" t="s">
         <v>718</v>
@@ -27230,12 +27226,12 @@
         <v>730</v>
       </c>
       <c r="F1195" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
     </row>
     <row r="1196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1196" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="B1196" t="s">
         <v>718</v>
@@ -27251,12 +27247,12 @@
         <v>730</v>
       </c>
       <c r="F1196" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1197" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="B1197" t="s">
         <v>718</v>
@@ -27272,12 +27268,12 @@
         <v>730</v>
       </c>
       <c r="F1197" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
     </row>
     <row r="1198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1198" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="B1198" t="s">
         <v>718</v>
@@ -27293,12 +27289,12 @@
         <v>730</v>
       </c>
       <c r="F1198" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
     </row>
     <row r="1199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1199" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="B1199" t="s">
         <v>718</v>
@@ -27314,12 +27310,12 @@
         <v>730</v>
       </c>
       <c r="F1199" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
     </row>
     <row r="1200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1200" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="B1200" t="s">
         <v>718</v>
@@ -27335,7 +27331,7 @@
         <v>730</v>
       </c>
       <c r="F1200" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
     </row>
     <row r="1201" spans="1:6" x14ac:dyDescent="0.35">
@@ -27343,7 +27339,7 @@
         <v>6</v>
       </c>
       <c r="B1201" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1201">
         <f>1 * 3.6 / 14.55</f>
@@ -27364,7 +27360,7 @@
         <v>7</v>
       </c>
       <c r="B1202" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1202">
         <f>1 / 8.22</f>
@@ -27385,7 +27381,7 @@
         <v>27</v>
       </c>
       <c r="B1203" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1203">
         <f>1 * 3.6 / 42.5</f>
@@ -27406,7 +27402,7 @@
         <v>53</v>
       </c>
       <c r="B1204" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1204">
         <f>1 / 10.5</f>
@@ -27427,7 +27423,7 @@
         <v>150</v>
       </c>
       <c r="B1205" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1205">
         <f>1 * 3.6 / 27.91</f>
@@ -27448,7 +27444,7 @@
         <v>227</v>
       </c>
       <c r="B1206" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1206">
         <f>1 / 11.83</f>
@@ -27469,7 +27465,7 @@
         <v>232</v>
       </c>
       <c r="B1207" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1207">
         <f>1</f>
@@ -27484,10 +27480,10 @@
     </row>
     <row r="1208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1208" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="B1208" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1208">
         <f>1</f>
@@ -27502,10 +27498,10 @@
     </row>
     <row r="1209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1209" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="B1209" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1209">
         <f>1</f>
@@ -27520,10 +27516,10 @@
     </row>
     <row r="1210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1210" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="B1210" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1210">
         <f>1</f>
@@ -27541,7 +27537,7 @@
         <v>236</v>
       </c>
       <c r="B1211" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1211">
         <f>1 / 13.28</f>
@@ -27562,7 +27558,7 @@
         <v>240</v>
       </c>
       <c r="B1212" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1212">
         <f>1 * 3.6 / 31.58</f>
@@ -27583,7 +27579,7 @@
         <v>242</v>
       </c>
       <c r="B1213" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1213">
         <f>1 * 3.6 / 40.938</f>
@@ -27604,7 +27600,7 @@
         <v>243</v>
       </c>
       <c r="B1214" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1214">
         <f>1 * 3.6 / 50.285</f>
@@ -27625,7 +27621,7 @@
         <v>255</v>
       </c>
       <c r="B1215" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1215">
         <f>1 * 3.6 / 42.5</f>
@@ -27646,7 +27642,7 @@
         <v>262</v>
       </c>
       <c r="B1216" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1216">
         <f>1 / 33.3</f>
@@ -27667,7 +27663,7 @@
         <v>269</v>
       </c>
       <c r="B1217" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1217">
         <f>1 / 33.3</f>
@@ -27688,7 +27684,7 @@
         <v>270</v>
       </c>
       <c r="B1218" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1218">
         <f>1 / 33.3</f>
@@ -27709,7 +27705,7 @@
         <v>271</v>
       </c>
       <c r="B1219" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1219">
         <f>1 / 33.3</f>
@@ -27730,7 +27726,7 @@
         <v>307</v>
       </c>
       <c r="B1220" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1220">
         <f>1 * 3.6 / 43</f>
@@ -27751,7 +27747,7 @@
         <v>326</v>
       </c>
       <c r="B1221" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1221">
         <f>1 * 3.6 / 42.6</f>
@@ -27772,7 +27768,7 @@
         <v>327</v>
       </c>
       <c r="B1222" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1222">
         <f>1 * 3.6 / 39</f>
@@ -27793,7 +27789,7 @@
         <v>332</v>
       </c>
       <c r="B1223" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1223">
         <f>1 / 5.54</f>
@@ -27814,7 +27810,7 @@
         <v>344</v>
       </c>
       <c r="B1224" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1224">
         <f>1 * 3.6 / 39</f>
@@ -27835,7 +27831,7 @@
         <v>351</v>
       </c>
       <c r="B1225" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1225">
         <f>1 / (0.777 * 13.1)</f>
@@ -27856,7 +27852,7 @@
         <v>352</v>
       </c>
       <c r="B1226" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1226">
         <f>1 / (0.777 * 13.1)</f>
@@ -27877,7 +27873,7 @@
         <v>353</v>
       </c>
       <c r="B1227" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1227">
         <f>1 / (0.777 * 13.1)</f>
@@ -27898,7 +27894,7 @@
         <v>367</v>
       </c>
       <c r="B1228" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1228">
         <f>1</f>
@@ -27916,7 +27912,7 @@
         <v>374</v>
       </c>
       <c r="B1229" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1229">
         <f>1</f>
@@ -27934,7 +27930,7 @@
         <v>376</v>
       </c>
       <c r="B1230" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1230">
         <f>1 * 3.6 / 32.45</f>
@@ -27947,7 +27943,7 @@
         <v>723</v>
       </c>
       <c r="F1230" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="1231" spans="1:6" x14ac:dyDescent="0.35">
@@ -27955,7 +27951,7 @@
         <v>381</v>
       </c>
       <c r="B1231" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1231">
         <f>1</f>
@@ -27973,7 +27969,7 @@
         <v>382</v>
       </c>
       <c r="B1232" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1232">
         <f>1 * 3.6 / 46.4</f>
@@ -27986,7 +27982,7 @@
         <v>723</v>
       </c>
       <c r="F1232" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="1233" spans="1:6" x14ac:dyDescent="0.35">
@@ -27994,7 +27990,7 @@
         <v>383</v>
       </c>
       <c r="B1233" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1233">
         <f>1 * 3.6 / 45.799</f>
@@ -28007,7 +28003,7 @@
         <v>723</v>
       </c>
       <c r="F1233" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="1234" spans="1:6" x14ac:dyDescent="0.35">
@@ -28015,7 +28011,7 @@
         <v>384</v>
       </c>
       <c r="B1234" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1234">
         <f>1</f>
@@ -28033,7 +28029,7 @@
         <v>385</v>
       </c>
       <c r="B1235" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1235">
         <f>1</f>
@@ -28051,7 +28047,7 @@
         <v>428</v>
       </c>
       <c r="B1236" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1236">
         <f>1 / (0.777 * 13.1)</f>
@@ -28064,7 +28060,7 @@
         <v>723</v>
       </c>
       <c r="F1236" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1237" spans="1:6" x14ac:dyDescent="0.35">
@@ -28072,7 +28068,7 @@
         <v>439</v>
       </c>
       <c r="B1237" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1237">
         <f>1</f>
@@ -28090,7 +28086,7 @@
         <v>490</v>
       </c>
       <c r="B1238" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1238">
         <f>1 * 3.6 / 42.43</f>
@@ -28103,7 +28099,7 @@
         <v>723</v>
       </c>
       <c r="F1238" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="1239" spans="1:6" x14ac:dyDescent="0.35">
@@ -28111,7 +28107,7 @@
         <v>561</v>
       </c>
       <c r="B1239" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1239">
         <f>1 * 3.6 / (3900*1000)</f>
@@ -28124,7 +28120,7 @@
         <v>723</v>
       </c>
       <c r="F1239" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
     </row>
     <row r="1240" spans="1:6" x14ac:dyDescent="0.35">
@@ -28132,7 +28128,7 @@
         <v>562</v>
       </c>
       <c r="B1240" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1240">
         <f>-1 * 3.6 / 12.35</f>
@@ -28145,7 +28141,7 @@
         <v>723</v>
       </c>
       <c r="F1240" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
     </row>
     <row r="1241" spans="1:6" x14ac:dyDescent="0.35">
@@ -28153,7 +28149,7 @@
         <v>563</v>
       </c>
       <c r="B1241" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1241">
         <f>-1 * 3.6 / (6.087*0.95)</f>
@@ -28166,7 +28162,7 @@
         <v>723</v>
       </c>
       <c r="F1241" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
     </row>
     <row r="1242" spans="1:6" x14ac:dyDescent="0.35">
@@ -28174,7 +28170,7 @@
         <v>564</v>
       </c>
       <c r="B1242" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1242">
         <f>-1 * 3.6 / 2.453</f>
@@ -28187,7 +28183,7 @@
         <v>723</v>
       </c>
       <c r="F1242" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
     </row>
     <row r="1243" spans="1:6" x14ac:dyDescent="0.35">
@@ -28195,7 +28191,7 @@
         <v>565</v>
       </c>
       <c r="B1243" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1243">
         <f>1 * 3.6 / (0.95*15)</f>
@@ -28208,7 +28204,7 @@
         <v>723</v>
       </c>
       <c r="F1243" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
     </row>
     <row r="1244" spans="1:6" x14ac:dyDescent="0.35">
@@ -28216,7 +28212,7 @@
         <v>572</v>
       </c>
       <c r="B1244" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1244">
         <f>1 * 3.6 / 15.4</f>
@@ -28229,7 +28225,7 @@
         <v>723</v>
       </c>
       <c r="F1244" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
     </row>
     <row r="1245" spans="1:6" x14ac:dyDescent="0.35">
@@ -28237,7 +28233,7 @@
         <v>574</v>
       </c>
       <c r="B1245" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1245">
         <f>1 * 3.6 / 40.961</f>
@@ -28250,7 +28246,7 @@
         <v>723</v>
       </c>
       <c r="F1245" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
     </row>
     <row r="1246" spans="1:6" x14ac:dyDescent="0.35">
@@ -28258,7 +28254,7 @@
         <v>716</v>
       </c>
       <c r="B1246" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1246">
         <f>1 * 3.6 / 31.58</f>
@@ -28276,10 +28272,10 @@
     </row>
     <row r="1247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1247" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="B1247" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1247">
         <f>1 * 3.6 / 43</f>
@@ -28297,10 +28293,10 @@
     </row>
     <row r="1248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1248" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="B1248" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1248">
         <f>1 * 3.6 / 42.6</f>
@@ -28318,10 +28314,10 @@
     </row>
     <row r="1249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1249" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="B1249" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1249">
         <f>1 / 5.54</f>
@@ -28342,7 +28338,7 @@
         <v>428</v>
       </c>
       <c r="B1250" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1250">
         <f>1 * 3.6 / 39</f>
@@ -28360,10 +28356,10 @@
     </row>
     <row r="1251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1251" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="B1251" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1251">
         <f>1 / (0.777 * 13.1)</f>
@@ -28381,10 +28377,10 @@
     </row>
     <row r="1252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1252" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="B1252" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1252">
         <f>1 / (0.777 * 13.1)</f>
@@ -28402,10 +28398,10 @@
     </row>
     <row r="1253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1253" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="B1253" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1253">
         <f>1 / (0.777 * 13.1)</f>
@@ -28423,10 +28419,10 @@
     </row>
     <row r="1254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1254" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="B1254" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1254">
         <f>1 * 3.6</f>
@@ -28441,10 +28437,10 @@
     </row>
     <row r="1255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1255" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="B1255" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1255">
         <v>1</v>
@@ -28458,10 +28454,10 @@
     </row>
     <row r="1256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1256" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="B1256" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1256">
         <v>1</v>
@@ -28475,7 +28471,7 @@
     </row>
     <row r="1257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1257" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="B1257" t="s">
         <v>717</v>
@@ -28491,12 +28487,12 @@
         <v>723</v>
       </c>
       <c r="F1257" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
     </row>
     <row r="1258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1258" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="B1258" t="s">
         <v>717</v>
@@ -28512,12 +28508,12 @@
         <v>723</v>
       </c>
       <c r="F1258" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
     </row>
     <row r="1259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1259" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="B1259" t="s">
         <v>717</v>
@@ -28533,12 +28529,12 @@
         <v>723</v>
       </c>
       <c r="F1259" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
     </row>
     <row r="1260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1260" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="B1260" t="s">
         <v>717</v>
@@ -28554,12 +28550,12 @@
         <v>723</v>
       </c>
       <c r="F1260" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
     </row>
     <row r="1261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1261" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="B1261" t="s">
         <v>717</v>
@@ -28575,12 +28571,12 @@
         <v>723</v>
       </c>
       <c r="F1261" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
     </row>
     <row r="1262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1262" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="B1262" t="s">
         <v>717</v>
@@ -28596,12 +28592,12 @@
         <v>723</v>
       </c>
       <c r="F1262" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
     </row>
     <row r="1263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1263" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="B1263" t="s">
         <v>717</v>
@@ -28617,12 +28613,12 @@
         <v>723</v>
       </c>
       <c r="F1263" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
     </row>
     <row r="1264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1264" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="B1264" t="s">
         <v>717</v>
@@ -28638,12 +28634,12 @@
         <v>723</v>
       </c>
       <c r="F1264" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
     </row>
     <row r="1265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1265" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="B1265" t="s">
         <v>717</v>
@@ -28659,12 +28655,12 @@
         <v>723</v>
       </c>
       <c r="F1265" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
     </row>
     <row r="1266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1266" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="B1266" t="s">
         <v>717</v>
@@ -28680,12 +28676,12 @@
         <v>723</v>
       </c>
       <c r="F1266" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
     </row>
     <row r="1267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1267" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="B1267" t="s">
         <v>717</v>
@@ -28701,15 +28697,15 @@
         <v>723</v>
       </c>
       <c r="F1267" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
     </row>
     <row r="1268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1268" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="B1268" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1268">
         <f>3.6/10.8</f>
@@ -28722,15 +28718,15 @@
         <v>723</v>
       </c>
       <c r="F1268" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
     </row>
     <row r="1269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1269" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="B1269" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1269">
         <f>3.6/10.8</f>
@@ -28743,15 +28739,15 @@
         <v>723</v>
       </c>
       <c r="F1269" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
     </row>
     <row r="1270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1270" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="B1270" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1270">
         <f>3.6/10.8</f>
@@ -28764,15 +28760,15 @@
         <v>723</v>
       </c>
       <c r="F1270" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
     </row>
     <row r="1271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1271" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="B1271" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1271">
         <f>3.6/10.8</f>
@@ -28785,15 +28781,15 @@
         <v>723</v>
       </c>
       <c r="F1271" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
     </row>
     <row r="1272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1272" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="B1272" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1272">
         <f>1 * 3.6 / (0.95*15)</f>
@@ -28806,15 +28802,15 @@
         <v>723</v>
       </c>
       <c r="F1272" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
     </row>
     <row r="1273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1273" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="B1273" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1273">
         <f>3.6/9.99</f>
@@ -28827,15 +28823,15 @@
         <v>723</v>
       </c>
       <c r="F1273" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
     </row>
     <row r="1274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1274" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="B1274" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1274">
         <f>-1 * 3.6 / 12.35</f>
@@ -28848,15 +28844,15 @@
         <v>723</v>
       </c>
       <c r="F1274" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
     </row>
     <row r="1275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1275" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="B1275" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1275">
         <f>3.6/14.1</f>
@@ -28869,15 +28865,15 @@
         <v>723</v>
       </c>
       <c r="F1275" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
     </row>
     <row r="1276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1276" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="B1276" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1276">
         <f>-1 * 3.6 / 12.35</f>
@@ -28890,15 +28886,15 @@
         <v>723</v>
       </c>
       <c r="F1276" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
     </row>
     <row r="1277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1277" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="B1277" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1277">
         <f>3.6/9.99</f>
@@ -28911,15 +28907,15 @@
         <v>723</v>
       </c>
       <c r="F1277" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
     </row>
     <row r="1278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1278" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="B1278" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C1278">
         <f>-1 * 3.6 / 12.35</f>
@@ -28932,7 +28928,7 @@
         <v>723</v>
       </c>
       <c r="F1278" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
     </row>
   </sheetData>

--- a/dev/energyscope_data/CA-QC/unit_conversion.xlsx
+++ b/dev/energyscope_data/CA-QC/unit_conversion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\mescal\dev\energyscope_data\CA-QC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3822523C-FC55-4000-97C4-89C8A1E0089E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DEA62D-99D1-46D8-9396-7CF69B45EC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6012" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6012" uniqueCount="1009">
   <si>
     <t>Name</t>
   </si>
@@ -2331,9 +2331,6 @@
     <t>Diesel LHV (11.83 kWh/kg): \cite{engineeringtoolbox2003}</t>
   </si>
   <si>
-    <t>mean extreme high pressure electricity grid power ($P_{EHP} $ = 1700 MW), typical power size connected to the high-voltage electricity grid ($P_{HV}$ = 500 MW), mean high-voltage electricity grid transportation length ($l_{HV}$ = 11.5 km): \cite{schnidrig2023}</t>
-  </si>
-  <si>
     <t>Impacts of exports are counted negatively</t>
   </si>
   <si>
@@ -2388,9 +2385,6 @@
     <t>LHV (33.3 kWh/kg): \cite{engineeringtoolbox2003}</t>
   </si>
   <si>
-    <t>typical power size connected to the high-voltage electricity grid ($P_{HV}$ = 500 MW), mean high-voltage electricity grid transportation length ($l_{HV}$ = 11.5 km): \cite{schnidrig2023}</t>
-  </si>
-  <si>
     <t>LHV of syngas (23.9 MJ/kg): \cite{vandergiesen2014}, CHP electrical efficiency (0.40): \cite{poschl2010}</t>
   </si>
   <si>
@@ -2409,9 +2403,6 @@
     <t>liquified natural gas LHV (39 MJ/m3): \cite{wernet2016}</t>
   </si>
   <si>
-    <t>typical power size connected to the low-voltage electricity grid ($P_{LV}$ = 0.3 MW), mean low-voltage electricity grid transportation length ($l_{LV}$ = 0.06 km): \cite{schnidrig2023}</t>
-  </si>
-  <si>
     <t>ethylene heat of combustion (50.285 MJ/kg): \cite{engineeringtoolbox2017}, yearly production (0.05 Mt/yr): \cite{althaus2007}, capacity factor (0.86): \cite{moret2017}</t>
   </si>
   <si>
@@ -2433,9 +2424,6 @@
     <t>benzene heat of combustion (41.833 MJ/kg): \cite{engineeringtoolbox2017}, yearly production (0.05 Mt/yr): \cite{althaus2007}, capacity factor (0.86): \cite{moret2017}</t>
   </si>
   <si>
-    <t>mean medium-voltage electricity grid power ($P_{MV}$ = 30 MW), typical power size connected to the low-voltage electricity grid ($P_{LV}$ = 0.3 MW), mean low-voltage electricity grid transportation length ($l_{LV}$ = 0.06 km): \cite{schnidrig2023}</t>
-  </si>
-  <si>
     <t>natural gas LHV (39 MJ/m3): \cite{wernet2016}</t>
   </si>
   <si>
@@ -2571,51 +2559,27 @@
     <t>EHP_H2_GRID</t>
   </si>
   <si>
-    <t>mean extreme high pressure H2 grid pressure ($p_{EHP} $ = 80 barg), mean high pressure H2 grid pressure ($p_{HP} $ = 30 barg), typical power size connected to the high-pressure H2 grid ($P_{HP}$ = 1557 MW), mean high-pressure H2 grid transportation length ($l_{HP}$ = 8.10 km): \cite{schnidrig2023}</t>
-  </si>
-  <si>
     <t>EHP_NG_GRID</t>
   </si>
   <si>
-    <t>mean extreme high pressure NG grid pressure ($p_{EHP} $ = 80 barg), mean high pressure NG grid pressure ($p_{HP} $ = 30 barg), typical power size connected to the high-pressure NG grid ($P_{HP}$ = 6140MW), mean high-pressure NG grid transportation length ($l_{HP}$ = 8.10 km): \cite{schnidrig2023}</t>
-  </si>
-  <si>
     <t>HP_H2_GRID</t>
   </si>
   <si>
-    <t>typical power size connected to the high-pressure H2 grid ($P_{HP}$ = 1557 MW), mean high-pressure H2 grid transportation length ($l_{HP}$ = 8.10 km): \cite{schnidrig2023}</t>
-  </si>
-  <si>
     <t>HP_NG_GRID</t>
   </si>
   <si>
-    <t>typical power size connected to the high-pressure NG grid ($P_{HP}$ = 6140MW), mean high-pressure NG grid transportation length ($l_{HP}$ = 8.10 km): \cite{schnidrig2023}</t>
-  </si>
-  <si>
     <t>LP_H2_GRID</t>
   </si>
   <si>
-    <t>typical power size connected to the low-pressure H2 grid ($P_{LP}$ = 0.2 MW), mean low-pressure H2 grid transportation length ($l_{LP}$ = 0.11 km): \cite{schnidrig2023}</t>
-  </si>
-  <si>
     <t>LP_NG_GRID</t>
   </si>
   <si>
-    <t>typical power size connected to the low-pressure NG grid ($P_{LP}$ = 0.425 MW), mean low-pressure NG grid transportation length ($l_{LP}$ = 0.11 km): \cite{schnidrig2023}</t>
-  </si>
-  <si>
     <t>MP_H2_GRID</t>
   </si>
   <si>
-    <t>mean medium-pressure H2 grid pressure ($p_{MP}$ = 7.5 barg), mean low-pressure H2 grid pressure ($p_{LP}$ = 0.0625 barg), typical power size connected to the low-pressure H2 grid ($P_{LP}$ = 0.2 MW), mean low-pressure H2 grid transportation length ($l_{LP}$ = 0.11 km): \cite{schnidrig2023}</t>
-  </si>
-  <si>
     <t>MP_NG_GRID</t>
   </si>
   <si>
-    <t>mean medium-pressure NG grid pressure ($p_{MP}$ = 7.5 barg), mean low-pressure NG grid pressure ($p_{LP}$ = 0.0625 barg), typical power size connected to the low-pressure NG grid ($P_{LP}$ = 0.425 MW), mean low-pressure NG grid transportation length ($l_{LP}$ = 0.11 km): \cite{schnidrig2023}</t>
-  </si>
-  <si>
     <t>PV_ROOF</t>
   </si>
   <si>
@@ -2886,12 +2850,6 @@
     <t>Capacity (400 MW_el)</t>
   </si>
   <si>
-    <t>Capacity (27.7 MW)</t>
-  </si>
-  <si>
-    <t>Cogeneration unit capacity (160 kW)</t>
-  </si>
-  <si>
     <t>Capacity (22583 MWe): \cite{wernet2016}</t>
   </si>
   <si>
@@ -2922,15 +2880,9 @@
     <t>Capacity (5 MWth)</t>
   </si>
   <si>
-    <t>Capacity (300 kW)</t>
-  </si>
-  <si>
     <t>Capacity (4 kW)</t>
   </si>
   <si>
-    <t>Capacity (160 kW)</t>
-  </si>
-  <si>
     <t>Capacity (10 MW_el)</t>
   </si>
   <si>
@@ -3019,6 +2971,99 @@
   </si>
   <si>
     <t>wagon per train (20): \cite{spielmann2007}</t>
+  </si>
+  <si>
+    <t>kilowatt kilometer</t>
+  </si>
+  <si>
+    <t>mean extreme high voltage electricity grid power ($P_{EHV} $ = 2 GW)</t>
+  </si>
+  <si>
+    <t>mean high voltage electricity grid power ($P_{HV} $ = 500 MW)</t>
+  </si>
+  <si>
+    <t>mean low voltage electricity grid power ($P_{LV} $ = 50 kW)</t>
+  </si>
+  <si>
+    <t>mean medium voltage electricity grid power ($P_{MV} $ = 50 MW)</t>
+  </si>
+  <si>
+    <t>Power size connected to the high-pressure H2 grid ($P_{HP}$ = 1557 MW): \cite{schnidrig2023}</t>
+  </si>
+  <si>
+    <t>Power size connected to the extreme high-pressure H2 grid ($P_{EHP}$ = 12133 MW): \cite{schnidrig2023}</t>
+  </si>
+  <si>
+    <t>Power size connected to the medium-pressure H2 grid ($P_{MP}$ = 132 MW): \cite{schnidrig2023}</t>
+  </si>
+  <si>
+    <t>Power size connected to the medium-pressure H2 grid ($P_{LP}$ = 0.2 MW): \cite{schnidrig2023}</t>
+  </si>
+  <si>
+    <t>Power size connected to the extreme high-pressure NG grid ($P_{EHP}$ = 51500 MW): \cite{schnidrig2023}</t>
+  </si>
+  <si>
+    <t>Power size connected to the high-pressure NG grid ($P_{HP}$ = 6140 MW): \cite{schnidrig2023}</t>
+  </si>
+  <si>
+    <t>Power size connected to the low-pressure NG grid ($P_{LP}$ = 0.425 MW): \cite{schnidrig2023}</t>
+  </si>
+  <si>
+    <t>Power size connected to the medium-pressure NG grid ($P_{MP}$ = 425 MW): \cite{schnidrig2023}</t>
+  </si>
+  <si>
+    <t>Capacity (27.7 MW): \cite{wernet2016}, power consumption (0.0072037 kW_el / kW_H2): \cite{schnidrig2023}</t>
+  </si>
+  <si>
+    <t>Capacity (27.7 MW): \cite{wernet2016}, power consumption (0.0201494 kW_el / kW_H2): \cite{schnidrig2023}</t>
+  </si>
+  <si>
+    <t>Capacity (27.7 MW): \cite{wernet2016}, power consumption (0.0101922 kW_el / kW_H2): \cite{schnidrig2023}</t>
+  </si>
+  <si>
+    <t>Capacity (300 kW): \cite{wernet2016}, power consumption (0.004858 kW_el / kW_NG): \cite{schnidrig2023}</t>
+  </si>
+  <si>
+    <t>Capacity (300 kW): \cite{wernet2016}, power consumption (0.0044572 kW_el / kW_NG): \cite{schnidrig2023}</t>
+  </si>
+  <si>
+    <t>Capacity (4 kW): \cite{wernet2016}, power consumption (0.0202881 kW_el / kW_NG): \cite{schnidrig2023}</t>
+  </si>
+  <si>
+    <t>Cogeneration unit capacity (160 kW_el): \cite{wernet2016}, power consumption (0.0072037 kW_el / kW_H2): \cite{schnidrig2023}</t>
+  </si>
+  <si>
+    <t>Cogeneration unit capacity (160 kW_el): \cite{wernet2016}, power consumption (0.0101922 kW_el / kW_H2): \cite{schnidrig2023}</t>
+  </si>
+  <si>
+    <t>Cogeneration unit capacity (160 kW_el): \cite{wernet2016}, power consumption (0.0201494 kW_el / kW_H2): \cite{schnidrig2023}</t>
+  </si>
+  <si>
+    <t>Cogeneration unit capacity (160 kW_el): \cite{wernet2016}, power consumption (0.004858 kW_el / kW_NG): \cite{schnidrig2023}</t>
+  </si>
+  <si>
+    <t>Cogeneration unit capacity (160 kW_el): \cite{wernet2016}, power consumption (0.004858 kW_el / kW_SNG): \cite{schnidrig2023}</t>
+  </si>
+  <si>
+    <t>Cogeneration unit capacity (160 kW_el): \cite{wernet2016}, power consumption (0.0044572 kW_el / kW_NG): \cite{schnidrig2023}</t>
+  </si>
+  <si>
+    <t>Cogeneration unit capacity (160 kW_el): \cite{wernet2016}, power consumption (0.0044572 kW_el / kW_SNG): \cite{schnidrig2023}</t>
+  </si>
+  <si>
+    <t>Cogeneration unit capacity (160 kW_el): \cite{wernet2016}, power consumption (0.0202881 kW_el / kW_NG): \cite{schnidrig2023}</t>
+  </si>
+  <si>
+    <t>Cogeneration unit capacity (160 kW_el): \cite{wernet2016}, power consumption (0.0202881 kW_el / kW_SNG): \cite{schnidrig2023}</t>
+  </si>
+  <si>
+    <t>Capacity (300 kW): \cite{wernet2016}, power consumption (0.004858 kW_el / kW_SNG): \cite{schnidrig2023}</t>
+  </si>
+  <si>
+    <t>Capacity (4 kW): \cite{wernet2016}, power consumption (0.0202881 kW_el / kW_SNG): \cite{schnidrig2023}</t>
+  </si>
+  <si>
+    <t>Capacity (300 kW): \cite{wernet2016}, power consumption (0.0044572 kW_el / kW_SNG): \cite{schnidrig2023}</t>
   </si>
 </sst>
 </file>
@@ -3388,9 +3433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A832" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F853" sqref="F853"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3480,7 +3523,7 @@
         <v>730</v>
       </c>
       <c r="F4" t="s">
-        <v>919</v>
+        <v>907</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -3518,7 +3561,7 @@
         <v>730</v>
       </c>
       <c r="F6" t="s">
-        <v>918</v>
+        <v>906</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -3539,7 +3582,7 @@
         <v>723</v>
       </c>
       <c r="F7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -3704,7 +3747,7 @@
         <v>730</v>
       </c>
       <c r="F16" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -3725,7 +3768,7 @@
         <v>723</v>
       </c>
       <c r="F17" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -3784,7 +3827,7 @@
         <v>730</v>
       </c>
       <c r="F20" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -3847,7 +3890,7 @@
         <v>723</v>
       </c>
       <c r="F23" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -3889,7 +3932,7 @@
         <v>723</v>
       </c>
       <c r="F25" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -4049,7 +4092,7 @@
         <v>723</v>
       </c>
       <c r="F33" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -4091,7 +4134,7 @@
         <v>723</v>
       </c>
       <c r="F35" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -4188,7 +4231,7 @@
         <v>730</v>
       </c>
       <c r="F40" t="s">
-        <v>920</v>
+        <v>908</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -4209,7 +4252,7 @@
         <v>723</v>
       </c>
       <c r="F41" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -4251,7 +4294,7 @@
         <v>723</v>
       </c>
       <c r="F43" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -4293,7 +4336,7 @@
         <v>723</v>
       </c>
       <c r="F45" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -4390,7 +4433,7 @@
         <v>730</v>
       </c>
       <c r="F50" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -4411,7 +4454,7 @@
         <v>723</v>
       </c>
       <c r="F51" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -4432,7 +4475,7 @@
         <v>730</v>
       </c>
       <c r="F52" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
@@ -4453,7 +4496,7 @@
         <v>723</v>
       </c>
       <c r="F53" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -4550,7 +4593,7 @@
         <v>730</v>
       </c>
       <c r="F58" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -4571,7 +4614,7 @@
         <v>723</v>
       </c>
       <c r="F59" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -4592,7 +4635,7 @@
         <v>730</v>
       </c>
       <c r="F60" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
@@ -4613,7 +4656,7 @@
         <v>723</v>
       </c>
       <c r="F61" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
@@ -5103,7 +5146,7 @@
         <v>725</v>
       </c>
       <c r="F86" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
@@ -5145,7 +5188,7 @@
         <v>725</v>
       </c>
       <c r="F88" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
@@ -5187,7 +5230,7 @@
         <v>725</v>
       </c>
       <c r="F90" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
@@ -5229,7 +5272,7 @@
         <v>725</v>
       </c>
       <c r="F92" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
@@ -5271,7 +5314,7 @@
         <v>725</v>
       </c>
       <c r="F94" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
@@ -5313,7 +5356,7 @@
         <v>725</v>
       </c>
       <c r="F96" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
@@ -5355,7 +5398,7 @@
         <v>725</v>
       </c>
       <c r="F98" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
@@ -5397,7 +5440,7 @@
         <v>725</v>
       </c>
       <c r="F100" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
@@ -5439,7 +5482,7 @@
         <v>725</v>
       </c>
       <c r="F102" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
@@ -5481,7 +5524,7 @@
         <v>725</v>
       </c>
       <c r="F104" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
@@ -5523,7 +5566,7 @@
         <v>725</v>
       </c>
       <c r="F106" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
@@ -5565,7 +5608,7 @@
         <v>725</v>
       </c>
       <c r="F108" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
@@ -5607,7 +5650,7 @@
         <v>725</v>
       </c>
       <c r="F110" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
@@ -5649,7 +5692,7 @@
         <v>725</v>
       </c>
       <c r="F112" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
@@ -5691,7 +5734,7 @@
         <v>725</v>
       </c>
       <c r="F114" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
@@ -5733,7 +5776,7 @@
         <v>725</v>
       </c>
       <c r="F116" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
@@ -5775,7 +5818,7 @@
         <v>725</v>
       </c>
       <c r="F118" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
@@ -5817,7 +5860,7 @@
         <v>725</v>
       </c>
       <c r="F120" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
@@ -5859,7 +5902,7 @@
         <v>725</v>
       </c>
       <c r="F122" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
@@ -5901,7 +5944,7 @@
         <v>725</v>
       </c>
       <c r="F124" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
@@ -5943,7 +5986,7 @@
         <v>725</v>
       </c>
       <c r="F126" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
@@ -5985,7 +6028,7 @@
         <v>725</v>
       </c>
       <c r="F128" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
@@ -6027,7 +6070,7 @@
         <v>725</v>
       </c>
       <c r="F130" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
@@ -6069,7 +6112,7 @@
         <v>725</v>
       </c>
       <c r="F132" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
@@ -6111,7 +6154,7 @@
         <v>725</v>
       </c>
       <c r="F134" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
@@ -6153,7 +6196,7 @@
         <v>725</v>
       </c>
       <c r="F136" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
@@ -6195,7 +6238,7 @@
         <v>725</v>
       </c>
       <c r="F138" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
@@ -6237,7 +6280,7 @@
         <v>725</v>
       </c>
       <c r="F140" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
@@ -6279,7 +6322,7 @@
         <v>725</v>
       </c>
       <c r="F142" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
@@ -6321,7 +6364,7 @@
         <v>725</v>
       </c>
       <c r="F144" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
@@ -6363,7 +6406,7 @@
         <v>725</v>
       </c>
       <c r="F146" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
@@ -6405,7 +6448,7 @@
         <v>725</v>
       </c>
       <c r="F148" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
@@ -6447,7 +6490,7 @@
         <v>725</v>
       </c>
       <c r="F150" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
@@ -6489,7 +6532,7 @@
         <v>725</v>
       </c>
       <c r="F152" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
@@ -6531,7 +6574,7 @@
         <v>725</v>
       </c>
       <c r="F154" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
@@ -6573,7 +6616,7 @@
         <v>725</v>
       </c>
       <c r="F156" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
@@ -6615,7 +6658,7 @@
         <v>725</v>
       </c>
       <c r="F158" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
@@ -6657,7 +6700,7 @@
         <v>725</v>
       </c>
       <c r="F160" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
@@ -6699,7 +6742,7 @@
         <v>725</v>
       </c>
       <c r="F162" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
@@ -6741,7 +6784,7 @@
         <v>725</v>
       </c>
       <c r="F164" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
@@ -6783,7 +6826,7 @@
         <v>725</v>
       </c>
       <c r="F166" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
@@ -6825,7 +6868,7 @@
         <v>725</v>
       </c>
       <c r="F168" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
@@ -6867,7 +6910,7 @@
         <v>725</v>
       </c>
       <c r="F170" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
@@ -6909,7 +6952,7 @@
         <v>725</v>
       </c>
       <c r="F172" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
@@ -6951,7 +6994,7 @@
         <v>725</v>
       </c>
       <c r="F174" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
@@ -6993,7 +7036,7 @@
         <v>725</v>
       </c>
       <c r="F176" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
@@ -7035,7 +7078,7 @@
         <v>725</v>
       </c>
       <c r="F178" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
@@ -7077,7 +7120,7 @@
         <v>725</v>
       </c>
       <c r="F180" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
@@ -7119,7 +7162,7 @@
         <v>725</v>
       </c>
       <c r="F182" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
@@ -7161,7 +7204,7 @@
         <v>725</v>
       </c>
       <c r="F184" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
@@ -7203,7 +7246,7 @@
         <v>725</v>
       </c>
       <c r="F186" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
@@ -7245,7 +7288,7 @@
         <v>725</v>
       </c>
       <c r="F188" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
@@ -7266,7 +7309,7 @@
         <v>730</v>
       </c>
       <c r="F189" t="s">
-        <v>922</v>
+        <v>910</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
@@ -7305,7 +7348,7 @@
         <v>730</v>
       </c>
       <c r="F191" t="s">
-        <v>922</v>
+        <v>910</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
@@ -7500,7 +7543,7 @@
         <v>723</v>
       </c>
       <c r="F201" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
@@ -7542,7 +7585,7 @@
         <v>723</v>
       </c>
       <c r="F203" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
@@ -8658,7 +8701,7 @@
         <v>723</v>
       </c>
       <c r="F260" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.35">
@@ -8700,7 +8743,7 @@
         <v>723</v>
       </c>
       <c r="F262" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.35">
@@ -8742,7 +8785,7 @@
         <v>723</v>
       </c>
       <c r="F264" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.35">
@@ -8860,7 +8903,7 @@
         <v>723</v>
       </c>
       <c r="F270" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.35">
@@ -8957,7 +9000,7 @@
         <v>730</v>
       </c>
       <c r="F275" t="s">
-        <v>923</v>
+        <v>911</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.35">
@@ -8996,7 +9039,7 @@
         <v>730</v>
       </c>
       <c r="F277" t="s">
-        <v>923</v>
+        <v>911</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.35">
@@ -9035,7 +9078,7 @@
         <v>730</v>
       </c>
       <c r="F279" t="s">
-        <v>924</v>
+        <v>912</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.35">
@@ -9073,7 +9116,7 @@
         <v>730</v>
       </c>
       <c r="F281" t="s">
-        <v>924</v>
+        <v>912</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.35">
@@ -9111,7 +9154,7 @@
         <v>732</v>
       </c>
       <c r="F283" t="s">
-        <v>925</v>
+        <v>913</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.35">
@@ -9149,7 +9192,7 @@
         <v>732</v>
       </c>
       <c r="F285" t="s">
-        <v>925</v>
+        <v>913</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.35">
@@ -9187,7 +9230,7 @@
         <v>730</v>
       </c>
       <c r="F287" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.35">
@@ -9208,7 +9251,7 @@
         <v>723</v>
       </c>
       <c r="F288" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.35">
@@ -9229,7 +9272,7 @@
         <v>730</v>
       </c>
       <c r="F289" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.35">
@@ -9250,7 +9293,7 @@
         <v>723</v>
       </c>
       <c r="F290" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.35">
@@ -9271,7 +9314,7 @@
         <v>730</v>
       </c>
       <c r="F291" t="s">
-        <v>926</v>
+        <v>914</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.35">
@@ -9292,7 +9335,7 @@
         <v>723</v>
       </c>
       <c r="F292" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.35">
@@ -9313,7 +9356,7 @@
         <v>731</v>
       </c>
       <c r="F293" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.35">
@@ -9386,7 +9429,7 @@
         <v>731</v>
       </c>
       <c r="F297" t="s">
-        <v>930</v>
+        <v>918</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.35">
@@ -9459,7 +9502,7 @@
         <v>730</v>
       </c>
       <c r="F301" t="s">
-        <v>931</v>
+        <v>919</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.35">
@@ -9497,7 +9540,7 @@
         <v>730</v>
       </c>
       <c r="F303" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.35">
@@ -9536,7 +9579,7 @@
         <v>730</v>
       </c>
       <c r="F305" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.35">
@@ -9613,7 +9656,7 @@
         <v>730</v>
       </c>
       <c r="F309" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.35">
@@ -9652,7 +9695,7 @@
         <v>730</v>
       </c>
       <c r="F311" t="s">
-        <v>976</v>
+        <v>960</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.35">
@@ -9673,7 +9716,7 @@
         <v>723</v>
       </c>
       <c r="F312" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.35">
@@ -9745,7 +9788,7 @@
         <v>730</v>
       </c>
       <c r="F316" t="s">
-        <v>977</v>
+        <v>961</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.35">
@@ -9822,7 +9865,7 @@
         <v>722</v>
       </c>
       <c r="F320" t="s">
-        <v>979</v>
+        <v>963</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.35">
@@ -9843,7 +9886,7 @@
         <v>730</v>
       </c>
       <c r="F321" t="s">
-        <v>978</v>
+        <v>962</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.35">
@@ -9899,7 +9942,7 @@
         <v>722</v>
       </c>
       <c r="F324" t="s">
-        <v>980</v>
+        <v>964</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.35">
@@ -9920,7 +9963,7 @@
         <v>730</v>
       </c>
       <c r="F325" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.35">
@@ -9958,7 +10001,7 @@
         <v>730</v>
       </c>
       <c r="F327" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.35">
@@ -10018,7 +10061,7 @@
         <v>730</v>
       </c>
       <c r="F330" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.35">
@@ -10095,7 +10138,7 @@
         <v>730</v>
       </c>
       <c r="F334" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.35">
@@ -10250,7 +10293,7 @@
         <v>730</v>
       </c>
       <c r="F342" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.35">
@@ -10323,7 +10366,7 @@
         <v>730</v>
       </c>
       <c r="F346" t="s">
-        <v>981</v>
+        <v>965</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.35">
@@ -10344,7 +10387,7 @@
         <v>723</v>
       </c>
       <c r="F347" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.35">
@@ -10416,7 +10459,7 @@
         <v>730</v>
       </c>
       <c r="F351" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.35">
@@ -10476,7 +10519,7 @@
         <v>730</v>
       </c>
       <c r="F354" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.35">
@@ -10576,7 +10619,7 @@
         <v>730</v>
       </c>
       <c r="F359" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.35">
@@ -10597,7 +10640,7 @@
         <v>723</v>
       </c>
       <c r="F360" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.35">
@@ -10652,7 +10695,7 @@
         <v>722</v>
       </c>
       <c r="F363" t="s">
-        <v>982</v>
+        <v>966</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.35">
@@ -10673,7 +10716,7 @@
         <v>730</v>
       </c>
       <c r="F364" t="s">
-        <v>942</v>
+        <v>930</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.35">
@@ -10712,7 +10755,7 @@
         <v>730</v>
       </c>
       <c r="F366" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.35">
@@ -10751,7 +10794,7 @@
         <v>730</v>
       </c>
       <c r="F368" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.35">
@@ -10793,7 +10836,7 @@
         <v>723</v>
       </c>
       <c r="F370" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.35">
@@ -10838,17 +10881,17 @@
         <v>718</v>
       </c>
       <c r="C373">
-        <f>(11.5/0.5) * (1700/500) / 1000000</f>
-        <v>7.8200000000000003E-5</v>
+        <f>1 / (2 * 1000000)</f>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="D373" t="s">
         <v>726</v>
       </c>
       <c r="E373" t="s">
-        <v>730</v>
+        <v>978</v>
       </c>
       <c r="F373" t="s">
-        <v>764</v>
+        <v>979</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.35">
@@ -10887,7 +10930,7 @@
         <v>723</v>
       </c>
       <c r="F375" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.35">
@@ -10946,7 +10989,7 @@
         <v>723</v>
       </c>
       <c r="F378" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.35">
@@ -10967,7 +11010,7 @@
         <v>730</v>
       </c>
       <c r="F379" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.35">
@@ -10988,7 +11031,7 @@
         <v>723</v>
       </c>
       <c r="F380" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.35">
@@ -11009,7 +11052,7 @@
         <v>730</v>
       </c>
       <c r="F381" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.35">
@@ -11051,7 +11094,7 @@
         <v>730</v>
       </c>
       <c r="F383" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.35">
@@ -11072,7 +11115,7 @@
         <v>723</v>
       </c>
       <c r="F384" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.35">
@@ -11093,7 +11136,7 @@
         <v>723</v>
       </c>
       <c r="F385" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.35">
@@ -11114,7 +11157,7 @@
         <v>730</v>
       </c>
       <c r="F386" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.35">
@@ -11135,7 +11178,7 @@
         <v>723</v>
       </c>
       <c r="F387" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.35">
@@ -11156,7 +11199,7 @@
         <v>723</v>
       </c>
       <c r="F388" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.35">
@@ -11177,7 +11220,7 @@
         <v>723</v>
       </c>
       <c r="F389" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.35">
@@ -11198,7 +11241,7 @@
         <v>731</v>
       </c>
       <c r="F390" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.35">
@@ -11236,7 +11279,7 @@
         <v>731</v>
       </c>
       <c r="F392" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.35">
@@ -11274,7 +11317,7 @@
         <v>731</v>
       </c>
       <c r="F394" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.35">
@@ -11312,7 +11355,7 @@
         <v>731</v>
       </c>
       <c r="F396" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.35">
@@ -11350,7 +11393,7 @@
         <v>730</v>
       </c>
       <c r="F398" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.35">
@@ -11371,7 +11414,7 @@
         <v>723</v>
       </c>
       <c r="F399" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.35">
@@ -11392,7 +11435,7 @@
         <v>730</v>
       </c>
       <c r="F400" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.35">
@@ -11413,7 +11456,7 @@
         <v>723</v>
       </c>
       <c r="F401" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.35">
@@ -11451,7 +11494,7 @@
         <v>722</v>
       </c>
       <c r="F403" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.35">
@@ -11472,7 +11515,7 @@
         <v>730</v>
       </c>
       <c r="F404" t="s">
-        <v>945</v>
+        <v>933</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.35">
@@ -11493,7 +11536,7 @@
         <v>723</v>
       </c>
       <c r="F405" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.35">
@@ -11531,7 +11574,7 @@
         <v>722</v>
       </c>
       <c r="F407" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.35">
@@ -11552,7 +11595,7 @@
         <v>723</v>
       </c>
       <c r="F408" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.35">
@@ -11573,7 +11616,7 @@
         <v>723</v>
       </c>
       <c r="F409" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.35">
@@ -11594,7 +11637,7 @@
         <v>730</v>
       </c>
       <c r="F410" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.35">
@@ -11632,7 +11675,7 @@
         <v>730</v>
       </c>
       <c r="F412" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.35">
@@ -11661,8 +11704,8 @@
         <v>718</v>
       </c>
       <c r="C414">
-        <f>1/27.7 / 1000</f>
-        <v>3.6101083032490977E-5</v>
+        <f>1*0.0072037 / (27.7 * 1000)</f>
+        <v>2.6006137184115524E-7</v>
       </c>
       <c r="D414" t="s">
         <v>722</v>
@@ -11671,7 +11714,7 @@
         <v>730</v>
       </c>
       <c r="F414" t="s">
-        <v>949</v>
+        <v>991</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.35">
@@ -11692,7 +11735,7 @@
         <v>723</v>
       </c>
       <c r="F415" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.35">
@@ -11703,8 +11746,8 @@
         <v>718</v>
       </c>
       <c r="C416">
-        <f>1/27.7 / 1000</f>
-        <v>3.6101083032490977E-5</v>
+        <f>1*0.0201494 / (27.7 * 1000)</f>
+        <v>7.274151624548737E-7</v>
       </c>
       <c r="D416" t="s">
         <v>722</v>
@@ -11713,7 +11756,7 @@
         <v>730</v>
       </c>
       <c r="F416" t="s">
-        <v>949</v>
+        <v>992</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.35">
@@ -11734,7 +11777,7 @@
         <v>723</v>
       </c>
       <c r="F417" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.35">
@@ -11745,8 +11788,8 @@
         <v>718</v>
       </c>
       <c r="C418">
-        <f>1/27.7 / 1000</f>
-        <v>3.6101083032490977E-5</v>
+        <f>1*0.0101922 / (27.7 * 1000)</f>
+        <v>3.6794945848375449E-7</v>
       </c>
       <c r="D418" t="s">
         <v>722</v>
@@ -11755,7 +11798,7 @@
         <v>730</v>
       </c>
       <c r="F418" t="s">
-        <v>949</v>
+        <v>993</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.35">
@@ -11776,7 +11819,7 @@
         <v>723</v>
       </c>
       <c r="F419" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.35">
@@ -11797,7 +11840,7 @@
         <v>723</v>
       </c>
       <c r="F420" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.35">
@@ -11818,7 +11861,7 @@
         <v>723</v>
       </c>
       <c r="F421" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.35">
@@ -11829,8 +11872,8 @@
         <v>718</v>
       </c>
       <c r="C422">
-        <f>1 / 160</f>
-        <v>6.2500000000000003E-3</v>
+        <f>1*0.0072037 / 160</f>
+        <v>4.5023125000000001E-5</v>
       </c>
       <c r="D422" t="s">
         <v>722</v>
@@ -11839,7 +11882,7 @@
         <v>730</v>
       </c>
       <c r="F422" t="s">
-        <v>950</v>
+        <v>997</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.35">
@@ -11860,7 +11903,7 @@
         <v>723</v>
       </c>
       <c r="F423" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.35">
@@ -11881,7 +11924,7 @@
         <v>723</v>
       </c>
       <c r="F424" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.35">
@@ -11892,8 +11935,8 @@
         <v>718</v>
       </c>
       <c r="C425">
-        <f>1 / 160</f>
-        <v>6.2500000000000003E-3</v>
+        <f>1*0.0101922 / 160</f>
+        <v>6.3701249999999996E-5</v>
       </c>
       <c r="D425" t="s">
         <v>722</v>
@@ -11902,7 +11945,7 @@
         <v>730</v>
       </c>
       <c r="F425" t="s">
-        <v>950</v>
+        <v>998</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.35">
@@ -11923,7 +11966,7 @@
         <v>723</v>
       </c>
       <c r="F426" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.35">
@@ -11944,7 +11987,7 @@
         <v>723</v>
       </c>
       <c r="F427" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.35">
@@ -11955,8 +11998,8 @@
         <v>718</v>
       </c>
       <c r="C428">
-        <f>1 / 160</f>
-        <v>6.2500000000000003E-3</v>
+        <f>1*0.0201494 / 160</f>
+        <v>1.2593375000000001E-4</v>
       </c>
       <c r="D428" t="s">
         <v>722</v>
@@ -11965,7 +12008,7 @@
         <v>730</v>
       </c>
       <c r="F428" t="s">
-        <v>950</v>
+        <v>999</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.35">
@@ -11986,7 +12029,7 @@
         <v>723</v>
       </c>
       <c r="F429" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.35">
@@ -12007,7 +12050,7 @@
         <v>723</v>
       </c>
       <c r="F430" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.35">
@@ -12028,7 +12071,7 @@
         <v>723</v>
       </c>
       <c r="F431" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.35">
@@ -12049,7 +12092,7 @@
         <v>723</v>
       </c>
       <c r="F432" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.35">
@@ -12070,7 +12113,7 @@
         <v>730</v>
       </c>
       <c r="F433" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.35">
@@ -12109,7 +12152,7 @@
         <v>730</v>
       </c>
       <c r="F435" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.35">
@@ -12148,7 +12191,7 @@
         <v>723</v>
       </c>
       <c r="F437" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.35">
@@ -12177,17 +12220,17 @@
         <v>718</v>
       </c>
       <c r="C439">
-        <f>11.5/0.5 / 1000000</f>
-        <v>2.3E-5</v>
+        <f>1 / (500 * 1000)</f>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="D439" t="s">
         <v>726</v>
       </c>
       <c r="E439" t="s">
-        <v>730</v>
+        <v>978</v>
       </c>
       <c r="F439" t="s">
-        <v>783</v>
+        <v>980</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.35">
@@ -12208,7 +12251,7 @@
         <v>730</v>
       </c>
       <c r="F440" t="s">
-        <v>951</v>
+        <v>937</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.35">
@@ -12247,7 +12290,7 @@
         <v>730</v>
       </c>
       <c r="F442" t="s">
-        <v>952</v>
+        <v>938</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.35">
@@ -12268,7 +12311,7 @@
         <v>723</v>
       </c>
       <c r="F443" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.35">
@@ -12289,7 +12332,7 @@
         <v>730</v>
       </c>
       <c r="F444" t="s">
-        <v>983</v>
+        <v>967</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.35">
@@ -12310,7 +12353,7 @@
         <v>723</v>
       </c>
       <c r="F445" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.35">
@@ -12331,7 +12374,7 @@
         <v>722</v>
       </c>
       <c r="F446" t="s">
-        <v>984</v>
+        <v>968</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.35">
@@ -12369,7 +12412,7 @@
         <v>730</v>
       </c>
       <c r="F448" t="s">
-        <v>953</v>
+        <v>939</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.35">
@@ -12408,7 +12451,7 @@
         <v>730</v>
       </c>
       <c r="F450" t="s">
-        <v>985</v>
+        <v>969</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.35">
@@ -12447,7 +12490,7 @@
         <v>730</v>
       </c>
       <c r="F452" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.35">
@@ -12486,7 +12529,7 @@
         <v>730</v>
       </c>
       <c r="F454" t="s">
-        <v>955</v>
+        <v>941</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.35">
@@ -12563,7 +12606,7 @@
         <v>730</v>
       </c>
       <c r="F458" t="s">
-        <v>956</v>
+        <v>942</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.35">
@@ -12602,7 +12645,7 @@
         <v>730</v>
       </c>
       <c r="F460" t="s">
-        <v>956</v>
+        <v>942</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.35">
@@ -12641,7 +12684,7 @@
         <v>730</v>
       </c>
       <c r="F462" t="s">
-        <v>957</v>
+        <v>943</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.35">
@@ -12680,7 +12723,7 @@
         <v>730</v>
       </c>
       <c r="F464" t="s">
-        <v>959</v>
+        <v>945</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.35">
@@ -12701,7 +12744,7 @@
         <v>723</v>
       </c>
       <c r="F465" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.35">
@@ -12773,7 +12816,7 @@
         <v>730</v>
       </c>
       <c r="F469" t="s">
-        <v>958</v>
+        <v>944</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.35">
@@ -12812,7 +12855,7 @@
         <v>730</v>
       </c>
       <c r="F471" t="s">
-        <v>958</v>
+        <v>944</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.35">
@@ -12851,7 +12894,7 @@
         <v>722</v>
       </c>
       <c r="F473" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.35">
@@ -12892,7 +12935,7 @@
         <v>722</v>
       </c>
       <c r="F475" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.35">
@@ -12933,7 +12976,7 @@
         <v>730</v>
       </c>
       <c r="F477" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.35">
@@ -12954,7 +12997,7 @@
         <v>723</v>
       </c>
       <c r="F478" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.35">
@@ -13026,7 +13069,7 @@
         <v>730</v>
       </c>
       <c r="F482" t="s">
-        <v>934</v>
+        <v>922</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.35">
@@ -13064,7 +13107,7 @@
         <v>730</v>
       </c>
       <c r="F484" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.35">
@@ -13103,7 +13146,7 @@
         <v>723</v>
       </c>
       <c r="F486" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.35">
@@ -13124,7 +13167,7 @@
         <v>733</v>
       </c>
       <c r="F487" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.35">
@@ -13145,7 +13188,7 @@
         <v>729</v>
       </c>
       <c r="F488" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.35">
@@ -13166,7 +13209,7 @@
         <v>733</v>
       </c>
       <c r="F489" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.35">
@@ -13187,7 +13230,7 @@
         <v>729</v>
       </c>
       <c r="F490" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.35">
@@ -13208,7 +13251,7 @@
         <v>733</v>
       </c>
       <c r="F491" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.35">
@@ -13229,7 +13272,7 @@
         <v>729</v>
       </c>
       <c r="F492" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.35">
@@ -13250,7 +13293,7 @@
         <v>733</v>
       </c>
       <c r="F493" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.35">
@@ -13271,7 +13314,7 @@
         <v>729</v>
       </c>
       <c r="F494" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.35">
@@ -13292,7 +13335,7 @@
         <v>733</v>
       </c>
       <c r="F495" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.35">
@@ -13313,7 +13356,7 @@
         <v>729</v>
       </c>
       <c r="F496" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.35">
@@ -13334,7 +13377,7 @@
         <v>733</v>
       </c>
       <c r="F497" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.35">
@@ -13355,7 +13398,7 @@
         <v>729</v>
       </c>
       <c r="F498" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.35">
@@ -13376,7 +13419,7 @@
         <v>733</v>
       </c>
       <c r="F499" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.35">
@@ -13397,7 +13440,7 @@
         <v>729</v>
       </c>
       <c r="F500" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.35">
@@ -13418,7 +13461,7 @@
         <v>733</v>
       </c>
       <c r="F501" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.35">
@@ -13439,7 +13482,7 @@
         <v>729</v>
       </c>
       <c r="F502" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.35">
@@ -13460,7 +13503,7 @@
         <v>733</v>
       </c>
       <c r="F503" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.35">
@@ -13481,7 +13524,7 @@
         <v>729</v>
       </c>
       <c r="F504" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.35">
@@ -13502,7 +13545,7 @@
         <v>733</v>
       </c>
       <c r="F505" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.35">
@@ -13523,7 +13566,7 @@
         <v>729</v>
       </c>
       <c r="F506" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.35">
@@ -13544,7 +13587,7 @@
         <v>733</v>
       </c>
       <c r="F507" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.35">
@@ -13565,7 +13608,7 @@
         <v>729</v>
       </c>
       <c r="F508" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.35">
@@ -13586,7 +13629,7 @@
         <v>733</v>
       </c>
       <c r="F509" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.35">
@@ -13607,7 +13650,7 @@
         <v>729</v>
       </c>
       <c r="F510" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.35">
@@ -13628,7 +13671,7 @@
         <v>733</v>
       </c>
       <c r="F511" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.35">
@@ -13649,7 +13692,7 @@
         <v>729</v>
       </c>
       <c r="F512" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.35">
@@ -13670,7 +13713,7 @@
         <v>733</v>
       </c>
       <c r="F513" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.35">
@@ -13691,7 +13734,7 @@
         <v>729</v>
       </c>
       <c r="F514" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.35">
@@ -13712,7 +13755,7 @@
         <v>733</v>
       </c>
       <c r="F515" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.35">
@@ -13733,7 +13776,7 @@
         <v>729</v>
       </c>
       <c r="F516" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.35">
@@ -13754,7 +13797,7 @@
         <v>733</v>
       </c>
       <c r="F517" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.35">
@@ -13775,7 +13818,7 @@
         <v>729</v>
       </c>
       <c r="F518" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.35">
@@ -13796,7 +13839,7 @@
         <v>733</v>
       </c>
       <c r="F519" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.35">
@@ -13817,7 +13860,7 @@
         <v>729</v>
       </c>
       <c r="F520" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.35">
@@ -13838,7 +13881,7 @@
         <v>733</v>
       </c>
       <c r="F521" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.35">
@@ -13859,7 +13902,7 @@
         <v>729</v>
       </c>
       <c r="F522" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.35">
@@ -13880,7 +13923,7 @@
         <v>723</v>
       </c>
       <c r="F523" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.35">
@@ -13901,7 +13944,7 @@
         <v>723</v>
       </c>
       <c r="F524" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.35">
@@ -13912,17 +13955,17 @@
         <v>718</v>
       </c>
       <c r="C525">
-        <f>0.06/0.0003 / 1000000</f>
-        <v>2.0000000000000001E-4</v>
+        <f>1 / 50</f>
+        <v>0.02</v>
       </c>
       <c r="D525" t="s">
         <v>726</v>
       </c>
       <c r="E525" t="s">
-        <v>730</v>
+        <v>978</v>
       </c>
       <c r="F525" t="s">
-        <v>790</v>
+        <v>981</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.35">
@@ -13943,7 +13986,7 @@
         <v>730</v>
       </c>
       <c r="F526" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.35">
@@ -13964,7 +14007,7 @@
         <v>723</v>
       </c>
       <c r="F527" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.35">
@@ -13985,7 +14028,7 @@
         <v>730</v>
       </c>
       <c r="F528" t="s">
-        <v>960</v>
+        <v>946</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.35">
@@ -14006,7 +14049,7 @@
         <v>723</v>
       </c>
       <c r="F529" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.35">
@@ -14027,7 +14070,7 @@
         <v>730</v>
       </c>
       <c r="F530" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.35">
@@ -14048,7 +14091,7 @@
         <v>723</v>
       </c>
       <c r="F531" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.35">
@@ -14069,7 +14112,7 @@
         <v>723</v>
       </c>
       <c r="F532" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.35">
@@ -14090,7 +14133,7 @@
         <v>730</v>
       </c>
       <c r="F533" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.35">
@@ -14132,7 +14175,7 @@
         <v>730</v>
       </c>
       <c r="F535" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.35">
@@ -14153,7 +14196,7 @@
         <v>723</v>
       </c>
       <c r="F536" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.35">
@@ -14174,7 +14217,7 @@
         <v>730</v>
       </c>
       <c r="F537" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.35">
@@ -14195,7 +14238,7 @@
         <v>723</v>
       </c>
       <c r="F538" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.35">
@@ -14216,7 +14259,7 @@
         <v>730</v>
       </c>
       <c r="F539" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.35">
@@ -14237,7 +14280,7 @@
         <v>723</v>
       </c>
       <c r="F540" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.35">
@@ -14266,17 +14309,17 @@
         <v>718</v>
       </c>
       <c r="C542">
-        <f>(0.06/0.0003) * (30/0.3) / 1000000</f>
-        <v>0.02</v>
+        <f>1 / (50 * 1000)</f>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="D542" t="s">
         <v>726</v>
       </c>
       <c r="E542" t="s">
-        <v>730</v>
+        <v>978</v>
       </c>
       <c r="F542" t="s">
-        <v>798</v>
+        <v>982</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.35">
@@ -14297,7 +14340,7 @@
         <v>730</v>
       </c>
       <c r="F543" t="s">
-        <v>951</v>
+        <v>937</v>
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.35">
@@ -14336,7 +14379,7 @@
         <v>730</v>
       </c>
       <c r="F545" t="s">
-        <v>953</v>
+        <v>939</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.35">
@@ -14365,8 +14408,8 @@
         <v>718</v>
       </c>
       <c r="C547">
-        <f>1 / 300</f>
-        <v>3.3333333333333335E-3</v>
+        <f>1*0.004858 / 300</f>
+        <v>1.6193333333333333E-5</v>
       </c>
       <c r="D547" t="s">
         <v>722</v>
@@ -14375,7 +14418,7 @@
         <v>730</v>
       </c>
       <c r="F547" t="s">
-        <v>961</v>
+        <v>994</v>
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.35">
@@ -14396,7 +14439,7 @@
         <v>723</v>
       </c>
       <c r="F548" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.35">
@@ -14407,8 +14450,8 @@
         <v>718</v>
       </c>
       <c r="C549">
-        <f>1 / 4</f>
-        <v>0.25</v>
+        <f>1*0.0202881 / 4</f>
+        <v>5.072025E-3</v>
       </c>
       <c r="D549" t="s">
         <v>722</v>
@@ -14417,7 +14460,7 @@
         <v>730</v>
       </c>
       <c r="F549" t="s">
-        <v>962</v>
+        <v>996</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.35">
@@ -14438,7 +14481,7 @@
         <v>723</v>
       </c>
       <c r="F550" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.35">
@@ -14449,8 +14492,8 @@
         <v>718</v>
       </c>
       <c r="C551">
-        <f>1 / 300</f>
-        <v>3.3333333333333335E-3</v>
+        <f>1*0.0044572 / 300</f>
+        <v>1.4857333333333333E-5</v>
       </c>
       <c r="D551" t="s">
         <v>722</v>
@@ -14459,7 +14502,7 @@
         <v>730</v>
       </c>
       <c r="F551" t="s">
-        <v>961</v>
+        <v>995</v>
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.35">
@@ -14480,7 +14523,7 @@
         <v>723</v>
       </c>
       <c r="F552" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.35">
@@ -14501,7 +14544,7 @@
         <v>723</v>
       </c>
       <c r="F553" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.35">
@@ -14522,7 +14565,7 @@
         <v>723</v>
       </c>
       <c r="F554" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.35">
@@ -14533,8 +14576,8 @@
         <v>718</v>
       </c>
       <c r="C555">
-        <f>1 / 160</f>
-        <v>6.2500000000000003E-3</v>
+        <f>1*0.004858 / 160</f>
+        <v>3.0362500000000003E-5</v>
       </c>
       <c r="D555" t="s">
         <v>722</v>
@@ -14543,7 +14586,7 @@
         <v>730</v>
       </c>
       <c r="F555" t="s">
-        <v>963</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.35">
@@ -14564,7 +14607,7 @@
         <v>723</v>
       </c>
       <c r="F556" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.35">
@@ -14585,7 +14628,7 @@
         <v>723</v>
       </c>
       <c r="F557" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.35">
@@ -14596,8 +14639,8 @@
         <v>718</v>
       </c>
       <c r="C558">
-        <f>1 / 160</f>
-        <v>6.2500000000000003E-3</v>
+        <f>1*0.0044572 / 160</f>
+        <v>2.7857499999999999E-5</v>
       </c>
       <c r="D558" t="s">
         <v>722</v>
@@ -14606,7 +14649,7 @@
         <v>730</v>
       </c>
       <c r="F558" t="s">
-        <v>963</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.35">
@@ -14627,7 +14670,7 @@
         <v>723</v>
       </c>
       <c r="F559" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.35">
@@ -14648,7 +14691,7 @@
         <v>723</v>
       </c>
       <c r="F560" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.35">
@@ -14659,8 +14702,8 @@
         <v>718</v>
       </c>
       <c r="C561">
-        <f>1 / 160</f>
-        <v>6.2500000000000003E-3</v>
+        <f>1*0.0202881 / 160</f>
+        <v>1.2680062499999999E-4</v>
       </c>
       <c r="D561" t="s">
         <v>722</v>
@@ -14669,7 +14712,7 @@
         <v>730</v>
       </c>
       <c r="F561" t="s">
-        <v>963</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.35">
@@ -14690,7 +14733,7 @@
         <v>723</v>
       </c>
       <c r="F562" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.35">
@@ -14711,7 +14754,7 @@
         <v>723</v>
       </c>
       <c r="F563" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.35">
@@ -14732,7 +14775,7 @@
         <v>723</v>
       </c>
       <c r="F564" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.35">
@@ -14753,7 +14796,7 @@
         <v>723</v>
       </c>
       <c r="F565" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.35">
@@ -14774,7 +14817,7 @@
         <v>730</v>
       </c>
       <c r="F566" t="s">
-        <v>962</v>
+        <v>947</v>
       </c>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.35">
@@ -14795,7 +14838,7 @@
         <v>723</v>
       </c>
       <c r="F567" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.35">
@@ -14816,7 +14859,7 @@
         <v>730</v>
       </c>
       <c r="F568" t="s">
-        <v>962</v>
+        <v>947</v>
       </c>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.35">
@@ -14837,7 +14880,7 @@
         <v>723</v>
       </c>
       <c r="F569" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.35">
@@ -14858,7 +14901,7 @@
         <v>730</v>
       </c>
       <c r="F570" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.35">
@@ -14879,7 +14922,7 @@
         <v>723</v>
       </c>
       <c r="F571" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.35">
@@ -14917,7 +14960,7 @@
         <v>722</v>
       </c>
       <c r="F573" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.35">
@@ -14938,7 +14981,7 @@
         <v>723</v>
       </c>
       <c r="F574" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.35">
@@ -14958,7 +15001,7 @@
         <v>730</v>
       </c>
       <c r="F575" t="s">
-        <v>987</v>
+        <v>971</v>
       </c>
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.35">
@@ -14996,7 +15039,7 @@
         <v>730</v>
       </c>
       <c r="F577" t="s">
-        <v>964</v>
+        <v>948</v>
       </c>
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.35">
@@ -15017,7 +15060,7 @@
         <v>723</v>
       </c>
       <c r="F578" t="s">
-        <v>917</v>
+        <v>905</v>
       </c>
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.35">
@@ -15038,7 +15081,7 @@
         <v>730</v>
       </c>
       <c r="F579" t="s">
-        <v>964</v>
+        <v>948</v>
       </c>
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.35">
@@ -15059,7 +15102,7 @@
         <v>723</v>
       </c>
       <c r="F580" t="s">
-        <v>917</v>
+        <v>905</v>
       </c>
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.35">
@@ -15080,7 +15123,7 @@
         <v>730</v>
       </c>
       <c r="F581" t="s">
-        <v>965</v>
+        <v>949</v>
       </c>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.35">
@@ -15119,7 +15162,7 @@
         <v>731</v>
       </c>
       <c r="F583" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.35">
@@ -15157,7 +15200,7 @@
         <v>731</v>
       </c>
       <c r="F585" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.35">
@@ -15195,7 +15238,7 @@
         <v>731</v>
       </c>
       <c r="F587" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.35">
@@ -15251,7 +15294,7 @@
         <v>730</v>
       </c>
       <c r="F590" t="s">
-        <v>965</v>
+        <v>949</v>
       </c>
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.35">
@@ -15289,7 +15332,7 @@
         <v>730</v>
       </c>
       <c r="F592" t="s">
-        <v>966</v>
+        <v>950</v>
       </c>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.35">
@@ -15310,7 +15353,7 @@
         <v>723</v>
       </c>
       <c r="F593" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.35">
@@ -15417,7 +15460,7 @@
         <v>731</v>
       </c>
       <c r="F599" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.35">
@@ -15455,7 +15498,7 @@
         <v>723</v>
       </c>
       <c r="F601" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.35">
@@ -15476,7 +15519,7 @@
         <v>733</v>
       </c>
       <c r="F602" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.35">
@@ -15515,7 +15558,7 @@
         <v>732</v>
       </c>
       <c r="F604" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.35">
@@ -15554,7 +15597,7 @@
         <v>732</v>
       </c>
       <c r="F606" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.35">
@@ -15593,7 +15636,7 @@
         <v>731</v>
       </c>
       <c r="F608" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.35">
@@ -15649,7 +15692,7 @@
         <v>723</v>
       </c>
       <c r="F611" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.35">
@@ -15670,7 +15713,7 @@
         <v>723</v>
       </c>
       <c r="F612" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.35">
@@ -15693,7 +15736,7 @@
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="B614" t="s">
         <v>718</v>
@@ -15709,12 +15752,12 @@
         <v>730</v>
       </c>
       <c r="F614" t="s">
-        <v>967</v>
+        <v>951</v>
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="B615" t="s">
         <v>719</v>
@@ -15732,7 +15775,7 @@
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="B616" t="s">
         <v>718</v>
@@ -15748,12 +15791,12 @@
         <v>730</v>
       </c>
       <c r="F616" t="s">
-        <v>968</v>
+        <v>952</v>
       </c>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="B617" t="s">
         <v>719</v>
@@ -15804,7 +15847,7 @@
         <v>731</v>
       </c>
       <c r="F619" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.35">
@@ -15842,7 +15885,7 @@
         <v>730</v>
       </c>
       <c r="F621" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.35">
@@ -15863,7 +15906,7 @@
         <v>723</v>
       </c>
       <c r="F622" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.35">
@@ -15884,7 +15927,7 @@
         <v>732</v>
       </c>
       <c r="F623" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.35">
@@ -15923,7 +15966,7 @@
         <v>732</v>
       </c>
       <c r="F625" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.35">
@@ -15962,7 +16005,7 @@
         <v>732</v>
       </c>
       <c r="F627" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.35">
@@ -16001,7 +16044,7 @@
         <v>732</v>
       </c>
       <c r="F629" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.35">
@@ -16040,7 +16083,7 @@
         <v>732</v>
       </c>
       <c r="F631" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.35">
@@ -16079,7 +16122,7 @@
         <v>732</v>
       </c>
       <c r="F633" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.35">
@@ -16118,7 +16161,7 @@
         <v>732</v>
       </c>
       <c r="F635" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.35">
@@ -16157,7 +16200,7 @@
         <v>732</v>
       </c>
       <c r="F637" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.35">
@@ -16196,7 +16239,7 @@
         <v>732</v>
       </c>
       <c r="F639" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.35">
@@ -16235,7 +16278,7 @@
         <v>733</v>
       </c>
       <c r="F641" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.35">
@@ -16274,7 +16317,7 @@
         <v>733</v>
       </c>
       <c r="F643" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.35">
@@ -16313,7 +16356,7 @@
         <v>733</v>
       </c>
       <c r="F645" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.35">
@@ -16352,7 +16395,7 @@
         <v>733</v>
       </c>
       <c r="F647" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.35">
@@ -16391,7 +16434,7 @@
         <v>733</v>
       </c>
       <c r="F649" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.35">
@@ -16430,7 +16473,7 @@
         <v>733</v>
       </c>
       <c r="F651" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.35">
@@ -16469,7 +16512,7 @@
         <v>733</v>
       </c>
       <c r="F653" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.35">
@@ -16508,7 +16551,7 @@
         <v>733</v>
       </c>
       <c r="F655" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.35">
@@ -16547,7 +16590,7 @@
         <v>733</v>
       </c>
       <c r="F657" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.35">
@@ -16586,7 +16629,7 @@
         <v>733</v>
       </c>
       <c r="F659" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.35">
@@ -16625,7 +16668,7 @@
         <v>733</v>
       </c>
       <c r="F661" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.35">
@@ -16664,7 +16707,7 @@
         <v>733</v>
       </c>
       <c r="F663" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.35">
@@ -16703,7 +16746,7 @@
         <v>733</v>
       </c>
       <c r="F665" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.35">
@@ -16742,7 +16785,7 @@
         <v>733</v>
       </c>
       <c r="F667" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.35">
@@ -16781,7 +16824,7 @@
         <v>733</v>
       </c>
       <c r="F669" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.35">
@@ -16820,7 +16863,7 @@
         <v>733</v>
       </c>
       <c r="F671" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.35">
@@ -16859,7 +16902,7 @@
         <v>733</v>
       </c>
       <c r="F673" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.35">
@@ -16880,7 +16923,7 @@
         <v>729</v>
       </c>
       <c r="F674" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.35">
@@ -16901,7 +16944,7 @@
         <v>733</v>
       </c>
       <c r="F675" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.35">
@@ -16922,7 +16965,7 @@
         <v>729</v>
       </c>
       <c r="F676" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.35">
@@ -16943,7 +16986,7 @@
         <v>733</v>
       </c>
       <c r="F677" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.35">
@@ -16964,7 +17007,7 @@
         <v>729</v>
       </c>
       <c r="F678" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.35">
@@ -16985,7 +17028,7 @@
         <v>733</v>
       </c>
       <c r="F679" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.35">
@@ -17006,7 +17049,7 @@
         <v>729</v>
       </c>
       <c r="F680" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.35">
@@ -17027,7 +17070,7 @@
         <v>733</v>
       </c>
       <c r="F681" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.35">
@@ -17048,7 +17091,7 @@
         <v>729</v>
       </c>
       <c r="F682" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.35">
@@ -17069,7 +17112,7 @@
         <v>733</v>
       </c>
       <c r="F683" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.35">
@@ -17090,7 +17133,7 @@
         <v>729</v>
       </c>
       <c r="F684" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.35">
@@ -17111,7 +17154,7 @@
         <v>733</v>
       </c>
       <c r="F685" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.35">
@@ -17132,7 +17175,7 @@
         <v>729</v>
       </c>
       <c r="F686" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.35">
@@ -17153,7 +17196,7 @@
         <v>733</v>
       </c>
       <c r="F687" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.35">
@@ -17174,7 +17217,7 @@
         <v>729</v>
       </c>
       <c r="F688" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.35">
@@ -17195,7 +17238,7 @@
         <v>731</v>
       </c>
       <c r="F689" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.35">
@@ -17254,7 +17297,7 @@
         <v>723</v>
       </c>
       <c r="F692" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="693" spans="1:6" x14ac:dyDescent="0.35">
@@ -17296,7 +17339,7 @@
         <v>723</v>
       </c>
       <c r="F694" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.35">
@@ -17393,7 +17436,7 @@
         <v>723</v>
       </c>
       <c r="F699" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.35">
@@ -17414,7 +17457,7 @@
         <v>723</v>
       </c>
       <c r="F700" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="701" spans="1:6" x14ac:dyDescent="0.35">
@@ -17435,7 +17478,7 @@
         <v>730</v>
       </c>
       <c r="F701" t="s">
-        <v>969</v>
+        <v>953</v>
       </c>
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.35">
@@ -17456,7 +17499,7 @@
         <v>723</v>
       </c>
       <c r="F702" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.35">
@@ -17580,7 +17623,7 @@
         <v>731</v>
       </c>
       <c r="F709" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.35">
@@ -17618,7 +17661,7 @@
         <v>731</v>
       </c>
       <c r="F711" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.35">
@@ -17656,7 +17699,7 @@
         <v>731</v>
       </c>
       <c r="F713" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.35">
@@ -17712,7 +17755,7 @@
         <v>731</v>
       </c>
       <c r="F716" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.35">
@@ -19622,7 +19665,7 @@
         <v>730</v>
       </c>
       <c r="F814" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="815" spans="1:6" x14ac:dyDescent="0.35">
@@ -19661,7 +19704,7 @@
         <v>723</v>
       </c>
       <c r="F816" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="817" spans="1:6" x14ac:dyDescent="0.35">
@@ -19784,7 +19827,7 @@
         <v>732</v>
       </c>
       <c r="F823" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="824" spans="1:6" x14ac:dyDescent="0.35">
@@ -19823,7 +19866,7 @@
         <v>732</v>
       </c>
       <c r="F825" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.35">
@@ -19862,7 +19905,7 @@
         <v>732</v>
       </c>
       <c r="F827" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="828" spans="1:6" x14ac:dyDescent="0.35">
@@ -19901,7 +19944,7 @@
         <v>732</v>
       </c>
       <c r="F829" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.35">
@@ -19940,7 +19983,7 @@
         <v>733</v>
       </c>
       <c r="F831" t="s">
-        <v>988</v>
+        <v>972</v>
       </c>
     </row>
     <row r="832" spans="1:6" x14ac:dyDescent="0.35">
@@ -19977,7 +20020,7 @@
         <v>722</v>
       </c>
       <c r="F833" t="s">
-        <v>989</v>
+        <v>973</v>
       </c>
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.35">
@@ -19997,7 +20040,7 @@
         <v>722</v>
       </c>
       <c r="F834" t="s">
-        <v>990</v>
+        <v>974</v>
       </c>
     </row>
     <row r="835" spans="1:6" x14ac:dyDescent="0.35">
@@ -20018,7 +20061,7 @@
         <v>733</v>
       </c>
       <c r="F835" t="s">
-        <v>988</v>
+        <v>972</v>
       </c>
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.35">
@@ -20055,7 +20098,7 @@
         <v>722</v>
       </c>
       <c r="F837" t="s">
-        <v>989</v>
+        <v>973</v>
       </c>
     </row>
     <row r="838" spans="1:6" x14ac:dyDescent="0.35">
@@ -20075,7 +20118,7 @@
         <v>722</v>
       </c>
       <c r="F838" t="s">
-        <v>990</v>
+        <v>974</v>
       </c>
     </row>
     <row r="839" spans="1:6" x14ac:dyDescent="0.35">
@@ -20096,7 +20139,7 @@
         <v>733</v>
       </c>
       <c r="F839" t="s">
-        <v>988</v>
+        <v>972</v>
       </c>
     </row>
     <row r="840" spans="1:6" x14ac:dyDescent="0.35">
@@ -20133,7 +20176,7 @@
         <v>722</v>
       </c>
       <c r="F841" t="s">
-        <v>989</v>
+        <v>973</v>
       </c>
     </row>
     <row r="842" spans="1:6" x14ac:dyDescent="0.35">
@@ -20153,7 +20196,7 @@
         <v>722</v>
       </c>
       <c r="F842" t="s">
-        <v>990</v>
+        <v>974</v>
       </c>
     </row>
     <row r="843" spans="1:6" x14ac:dyDescent="0.35">
@@ -20174,7 +20217,7 @@
         <v>733</v>
       </c>
       <c r="F843" t="s">
-        <v>988</v>
+        <v>972</v>
       </c>
     </row>
     <row r="844" spans="1:6" x14ac:dyDescent="0.35">
@@ -20211,7 +20254,7 @@
         <v>722</v>
       </c>
       <c r="F845" t="s">
-        <v>989</v>
+        <v>973</v>
       </c>
     </row>
     <row r="846" spans="1:6" x14ac:dyDescent="0.35">
@@ -20231,7 +20274,7 @@
         <v>722</v>
       </c>
       <c r="F846" t="s">
-        <v>990</v>
+        <v>974</v>
       </c>
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.35">
@@ -20252,7 +20295,7 @@
         <v>733</v>
       </c>
       <c r="F847" t="s">
-        <v>988</v>
+        <v>972</v>
       </c>
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.35">
@@ -20289,7 +20332,7 @@
         <v>722</v>
       </c>
       <c r="F849" t="s">
-        <v>989</v>
+        <v>973</v>
       </c>
     </row>
     <row r="850" spans="1:6" x14ac:dyDescent="0.35">
@@ -20309,7 +20352,7 @@
         <v>722</v>
       </c>
       <c r="F850" t="s">
-        <v>990</v>
+        <v>974</v>
       </c>
     </row>
     <row r="851" spans="1:6" x14ac:dyDescent="0.35">
@@ -20330,7 +20373,7 @@
         <v>733</v>
       </c>
       <c r="F851" t="s">
-        <v>991</v>
+        <v>975</v>
       </c>
     </row>
     <row r="852" spans="1:6" x14ac:dyDescent="0.35">
@@ -20368,7 +20411,7 @@
         <v>722</v>
       </c>
       <c r="F853" t="s">
-        <v>992</v>
+        <v>976</v>
       </c>
     </row>
     <row r="854" spans="1:6" x14ac:dyDescent="0.35">
@@ -20388,7 +20431,7 @@
         <v>722</v>
       </c>
       <c r="F854" t="s">
-        <v>993</v>
+        <v>977</v>
       </c>
     </row>
     <row r="855" spans="1:6" x14ac:dyDescent="0.35">
@@ -20409,7 +20452,7 @@
         <v>733</v>
       </c>
       <c r="F855" t="s">
-        <v>991</v>
+        <v>975</v>
       </c>
     </row>
     <row r="856" spans="1:6" x14ac:dyDescent="0.35">
@@ -20447,7 +20490,7 @@
         <v>722</v>
       </c>
       <c r="F857" t="s">
-        <v>992</v>
+        <v>976</v>
       </c>
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="0.35">
@@ -20467,7 +20510,7 @@
         <v>722</v>
       </c>
       <c r="F858" t="s">
-        <v>993</v>
+        <v>977</v>
       </c>
     </row>
     <row r="859" spans="1:6" x14ac:dyDescent="0.35">
@@ -20488,7 +20531,7 @@
         <v>733</v>
       </c>
       <c r="F859" t="s">
-        <v>988</v>
+        <v>972</v>
       </c>
     </row>
     <row r="860" spans="1:6" x14ac:dyDescent="0.35">
@@ -20525,7 +20568,7 @@
         <v>722</v>
       </c>
       <c r="F861" t="s">
-        <v>989</v>
+        <v>973</v>
       </c>
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.35">
@@ -20545,7 +20588,7 @@
         <v>722</v>
       </c>
       <c r="F862" t="s">
-        <v>990</v>
+        <v>974</v>
       </c>
     </row>
     <row r="863" spans="1:6" x14ac:dyDescent="0.35">
@@ -20566,7 +20609,7 @@
         <v>733</v>
       </c>
       <c r="F863" t="s">
-        <v>988</v>
+        <v>972</v>
       </c>
     </row>
     <row r="864" spans="1:6" x14ac:dyDescent="0.35">
@@ -20603,7 +20646,7 @@
         <v>722</v>
       </c>
       <c r="F865" t="s">
-        <v>989</v>
+        <v>973</v>
       </c>
     </row>
     <row r="866" spans="1:6" x14ac:dyDescent="0.35">
@@ -20623,7 +20666,7 @@
         <v>722</v>
       </c>
       <c r="F866" t="s">
-        <v>990</v>
+        <v>974</v>
       </c>
     </row>
     <row r="867" spans="1:6" x14ac:dyDescent="0.35">
@@ -20644,7 +20687,7 @@
         <v>733</v>
       </c>
       <c r="F867" t="s">
-        <v>988</v>
+        <v>972</v>
       </c>
     </row>
     <row r="868" spans="1:6" x14ac:dyDescent="0.35">
@@ -20681,7 +20724,7 @@
         <v>722</v>
       </c>
       <c r="F869" t="s">
-        <v>989</v>
+        <v>973</v>
       </c>
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.35">
@@ -20701,7 +20744,7 @@
         <v>722</v>
       </c>
       <c r="F870" t="s">
-        <v>990</v>
+        <v>974</v>
       </c>
     </row>
     <row r="871" spans="1:6" x14ac:dyDescent="0.35">
@@ -20722,7 +20765,7 @@
         <v>732</v>
       </c>
       <c r="F871" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="872" spans="1:6" x14ac:dyDescent="0.35">
@@ -20761,7 +20804,7 @@
         <v>732</v>
       </c>
       <c r="F873" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="874" spans="1:6" x14ac:dyDescent="0.35">
@@ -20800,7 +20843,7 @@
         <v>732</v>
       </c>
       <c r="F875" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="876" spans="1:6" x14ac:dyDescent="0.35">
@@ -20839,7 +20882,7 @@
         <v>732</v>
       </c>
       <c r="F877" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="878" spans="1:6" x14ac:dyDescent="0.35">
@@ -20878,7 +20921,7 @@
         <v>732</v>
       </c>
       <c r="F879" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="880" spans="1:6" x14ac:dyDescent="0.35">
@@ -20917,7 +20960,7 @@
         <v>733</v>
       </c>
       <c r="F881" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="882" spans="1:6" x14ac:dyDescent="0.35">
@@ -20956,7 +20999,7 @@
         <v>733</v>
       </c>
       <c r="F883" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="884" spans="1:6" x14ac:dyDescent="0.35">
@@ -20995,7 +21038,7 @@
         <v>733</v>
       </c>
       <c r="F885" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="886" spans="1:6" x14ac:dyDescent="0.35">
@@ -21034,7 +21077,7 @@
         <v>733</v>
       </c>
       <c r="F887" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="888" spans="1:6" x14ac:dyDescent="0.35">
@@ -21073,7 +21116,7 @@
         <v>733</v>
       </c>
       <c r="F889" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="890" spans="1:6" x14ac:dyDescent="0.35">
@@ -21112,7 +21155,7 @@
         <v>733</v>
       </c>
       <c r="F891" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="892" spans="1:6" x14ac:dyDescent="0.35">
@@ -21151,7 +21194,7 @@
         <v>733</v>
       </c>
       <c r="F893" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="894" spans="1:6" x14ac:dyDescent="0.35">
@@ -21190,7 +21233,7 @@
         <v>733</v>
       </c>
       <c r="F895" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="896" spans="1:6" x14ac:dyDescent="0.35">
@@ -21229,7 +21272,7 @@
         <v>733</v>
       </c>
       <c r="F897" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="898" spans="1:6" x14ac:dyDescent="0.35">
@@ -21250,7 +21293,7 @@
         <v>729</v>
       </c>
       <c r="F898" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
     </row>
     <row r="899" spans="1:6" x14ac:dyDescent="0.35">
@@ -21271,7 +21314,7 @@
         <v>733</v>
       </c>
       <c r="F899" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="900" spans="1:6" x14ac:dyDescent="0.35">
@@ -21292,7 +21335,7 @@
         <v>729</v>
       </c>
       <c r="F900" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
     </row>
     <row r="901" spans="1:6" x14ac:dyDescent="0.35">
@@ -21313,7 +21356,7 @@
         <v>733</v>
       </c>
       <c r="F901" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.35">
@@ -21334,7 +21377,7 @@
         <v>729</v>
       </c>
       <c r="F902" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
     </row>
     <row r="903" spans="1:6" x14ac:dyDescent="0.35">
@@ -21355,7 +21398,7 @@
         <v>733</v>
       </c>
       <c r="F903" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="904" spans="1:6" x14ac:dyDescent="0.35">
@@ -21376,7 +21419,7 @@
         <v>729</v>
       </c>
       <c r="F904" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
     </row>
     <row r="905" spans="1:6" x14ac:dyDescent="0.35">
@@ -21397,7 +21440,7 @@
         <v>733</v>
       </c>
       <c r="F905" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="906" spans="1:6" x14ac:dyDescent="0.35">
@@ -21418,7 +21461,7 @@
         <v>729</v>
       </c>
       <c r="F906" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
     </row>
     <row r="907" spans="1:6" x14ac:dyDescent="0.35">
@@ -21439,7 +21482,7 @@
         <v>733</v>
       </c>
       <c r="F907" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="908" spans="1:6" x14ac:dyDescent="0.35">
@@ -21460,7 +21503,7 @@
         <v>729</v>
       </c>
       <c r="F908" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
     </row>
     <row r="909" spans="1:6" x14ac:dyDescent="0.35">
@@ -21481,7 +21524,7 @@
         <v>733</v>
       </c>
       <c r="F909" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="910" spans="1:6" x14ac:dyDescent="0.35">
@@ -21502,7 +21545,7 @@
         <v>729</v>
       </c>
       <c r="F910" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
     </row>
     <row r="911" spans="1:6" x14ac:dyDescent="0.35">
@@ -21523,7 +21566,7 @@
         <v>733</v>
       </c>
       <c r="F911" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="912" spans="1:6" x14ac:dyDescent="0.35">
@@ -21544,7 +21587,7 @@
         <v>729</v>
       </c>
       <c r="F912" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
     </row>
     <row r="913" spans="1:6" x14ac:dyDescent="0.35">
@@ -21565,7 +21608,7 @@
         <v>733</v>
       </c>
       <c r="F913" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="914" spans="1:6" x14ac:dyDescent="0.35">
@@ -21586,7 +21629,7 @@
         <v>729</v>
       </c>
       <c r="F914" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
     </row>
     <row r="915" spans="1:6" x14ac:dyDescent="0.35">
@@ -21607,7 +21650,7 @@
         <v>733</v>
       </c>
       <c r="F915" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="916" spans="1:6" x14ac:dyDescent="0.35">
@@ -21628,7 +21671,7 @@
         <v>729</v>
       </c>
       <c r="F916" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
     </row>
     <row r="917" spans="1:6" x14ac:dyDescent="0.35">
@@ -21649,7 +21692,7 @@
         <v>733</v>
       </c>
       <c r="F917" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="918" spans="1:6" x14ac:dyDescent="0.35">
@@ -21670,7 +21713,7 @@
         <v>729</v>
       </c>
       <c r="F918" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
     </row>
     <row r="919" spans="1:6" x14ac:dyDescent="0.35">
@@ -21691,7 +21734,7 @@
         <v>733</v>
       </c>
       <c r="F919" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="920" spans="1:6" x14ac:dyDescent="0.35">
@@ -21712,7 +21755,7 @@
         <v>729</v>
       </c>
       <c r="F920" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
     </row>
     <row r="921" spans="1:6" x14ac:dyDescent="0.35">
@@ -21733,7 +21776,7 @@
         <v>733</v>
       </c>
       <c r="F921" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="922" spans="1:6" x14ac:dyDescent="0.35">
@@ -21754,7 +21797,7 @@
         <v>729</v>
       </c>
       <c r="F922" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
     </row>
     <row r="923" spans="1:6" x14ac:dyDescent="0.35">
@@ -21775,7 +21818,7 @@
         <v>733</v>
       </c>
       <c r="F923" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="924" spans="1:6" x14ac:dyDescent="0.35">
@@ -21796,7 +21839,7 @@
         <v>729</v>
       </c>
       <c r="F924" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
     </row>
     <row r="925" spans="1:6" x14ac:dyDescent="0.35">
@@ -21817,7 +21860,7 @@
         <v>733</v>
       </c>
       <c r="F925" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="926" spans="1:6" x14ac:dyDescent="0.35">
@@ -21838,7 +21881,7 @@
         <v>729</v>
       </c>
       <c r="F926" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
     </row>
     <row r="927" spans="1:6" x14ac:dyDescent="0.35">
@@ -21859,7 +21902,7 @@
         <v>733</v>
       </c>
       <c r="F927" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="928" spans="1:6" x14ac:dyDescent="0.35">
@@ -21880,7 +21923,7 @@
         <v>729</v>
       </c>
       <c r="F928" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
     </row>
     <row r="929" spans="1:6" x14ac:dyDescent="0.35">
@@ -21919,7 +21962,7 @@
         <v>723</v>
       </c>
       <c r="F930" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="931" spans="1:6" x14ac:dyDescent="0.35">
@@ -21940,7 +21983,7 @@
         <v>723</v>
       </c>
       <c r="F931" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="932" spans="1:6" x14ac:dyDescent="0.35">
@@ -21961,7 +22004,7 @@
         <v>723</v>
       </c>
       <c r="F932" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="933" spans="1:6" x14ac:dyDescent="0.35">
@@ -21982,7 +22025,7 @@
         <v>723</v>
       </c>
       <c r="F933" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="934" spans="1:6" x14ac:dyDescent="0.35">
@@ -22003,7 +22046,7 @@
         <v>723</v>
       </c>
       <c r="F934" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="935" spans="1:6" x14ac:dyDescent="0.35">
@@ -22024,7 +22067,7 @@
         <v>730</v>
       </c>
       <c r="F935" t="s">
-        <v>970</v>
+        <v>954</v>
       </c>
     </row>
     <row r="936" spans="1:6" x14ac:dyDescent="0.35">
@@ -22097,7 +22140,7 @@
         <v>730</v>
       </c>
       <c r="F939" t="s">
-        <v>970</v>
+        <v>954</v>
       </c>
     </row>
     <row r="940" spans="1:6" x14ac:dyDescent="0.35">
@@ -22154,7 +22197,7 @@
     </row>
     <row r="943" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A943" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="B943" t="s">
         <v>718</v>
@@ -22170,12 +22213,12 @@
         <v>730</v>
       </c>
       <c r="F943" t="s">
-        <v>970</v>
+        <v>954</v>
       </c>
     </row>
     <row r="944" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A944" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="B944" t="s">
         <v>719</v>
@@ -22193,7 +22236,7 @@
     </row>
     <row r="945" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A945" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="B945" t="s">
         <v>718</v>
@@ -22210,7 +22253,7 @@
     </row>
     <row r="946" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A946" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="B946" t="s">
         <v>718</v>
@@ -22243,7 +22286,7 @@
         <v>723</v>
       </c>
       <c r="F947" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="948" spans="1:6" x14ac:dyDescent="0.35">
@@ -22264,7 +22307,7 @@
         <v>730</v>
       </c>
       <c r="F948" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="949" spans="1:6" x14ac:dyDescent="0.35">
@@ -22285,7 +22328,7 @@
         <v>723</v>
       </c>
       <c r="F949" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="950" spans="1:6" x14ac:dyDescent="0.35">
@@ -22306,7 +22349,7 @@
         <v>723</v>
       </c>
       <c r="F950" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="951" spans="1:6" x14ac:dyDescent="0.35">
@@ -22327,7 +22370,7 @@
         <v>724</v>
       </c>
       <c r="F951" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="952" spans="1:6" x14ac:dyDescent="0.35">
@@ -22348,12 +22391,12 @@
         <v>721</v>
       </c>
       <c r="F952" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="953" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A953" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
       <c r="B953" t="s">
         <v>720</v>
@@ -22390,7 +22433,7 @@
         <v>723</v>
       </c>
       <c r="F954" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="955" spans="1:6" x14ac:dyDescent="0.35">
@@ -22411,7 +22454,7 @@
         <v>723</v>
       </c>
       <c r="F955" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="956" spans="1:6" x14ac:dyDescent="0.35">
@@ -22452,7 +22495,7 @@
     </row>
     <row r="958" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A958" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
       <c r="B958" t="s">
         <v>720</v>
@@ -22468,7 +22511,7 @@
         <v>723</v>
       </c>
       <c r="F958" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="959" spans="1:6" x14ac:dyDescent="0.35">
@@ -22489,7 +22532,7 @@
         <v>723</v>
       </c>
       <c r="F959" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="960" spans="1:6" x14ac:dyDescent="0.35">
@@ -22546,7 +22589,7 @@
         <v>723</v>
       </c>
       <c r="F962" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="963" spans="1:6" x14ac:dyDescent="0.35">
@@ -22567,7 +22610,7 @@
         <v>723</v>
       </c>
       <c r="F963" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="964" spans="1:6" x14ac:dyDescent="0.35">
@@ -22588,7 +22631,7 @@
         <v>723</v>
       </c>
       <c r="F964" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="965" spans="1:6" x14ac:dyDescent="0.35">
@@ -22609,7 +22652,7 @@
         <v>723</v>
       </c>
       <c r="F965" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="966" spans="1:6" x14ac:dyDescent="0.35">
@@ -22630,7 +22673,7 @@
         <v>723</v>
       </c>
       <c r="F966" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="967" spans="1:6" x14ac:dyDescent="0.35">
@@ -22651,12 +22694,12 @@
         <v>723</v>
       </c>
       <c r="F967" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="968" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A968" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
       <c r="B968" t="s">
         <v>720</v>
@@ -22672,7 +22715,7 @@
         <v>723</v>
       </c>
       <c r="F968" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="969" spans="1:6" x14ac:dyDescent="0.35">
@@ -22693,7 +22736,7 @@
         <v>721</v>
       </c>
       <c r="F969" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="970" spans="1:6" x14ac:dyDescent="0.35">
@@ -22714,7 +22757,7 @@
         <v>723</v>
       </c>
       <c r="F970" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="971" spans="1:6" x14ac:dyDescent="0.35">
@@ -22735,7 +22778,7 @@
         <v>723</v>
       </c>
       <c r="F971" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="972" spans="1:6" x14ac:dyDescent="0.35">
@@ -22756,7 +22799,7 @@
         <v>724</v>
       </c>
       <c r="F972" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="973" spans="1:6" x14ac:dyDescent="0.35">
@@ -22777,7 +22820,7 @@
         <v>723</v>
       </c>
       <c r="F973" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="974" spans="1:6" x14ac:dyDescent="0.35">
@@ -22798,12 +22841,12 @@
         <v>723</v>
       </c>
       <c r="F974" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="975" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A975" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="B975" t="s">
         <v>720</v>
@@ -22819,7 +22862,7 @@
         <v>723</v>
       </c>
       <c r="F975" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="976" spans="1:6" x14ac:dyDescent="0.35">
@@ -22840,7 +22883,7 @@
         <v>721</v>
       </c>
       <c r="F976" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="977" spans="1:6" x14ac:dyDescent="0.35">
@@ -22861,12 +22904,12 @@
         <v>724</v>
       </c>
       <c r="F977" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="978" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A978" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
       <c r="B978" t="s">
         <v>720</v>
@@ -22882,7 +22925,7 @@
         <v>723</v>
       </c>
       <c r="F978" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
     </row>
     <row r="979" spans="1:6" x14ac:dyDescent="0.35">
@@ -22903,7 +22946,7 @@
         <v>723</v>
       </c>
       <c r="F979" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="980" spans="1:6" x14ac:dyDescent="0.35">
@@ -22924,7 +22967,7 @@
         <v>723</v>
       </c>
       <c r="F980" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="981" spans="1:6" x14ac:dyDescent="0.35">
@@ -22945,7 +22988,7 @@
         <v>723</v>
       </c>
       <c r="F981" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="982" spans="1:6" x14ac:dyDescent="0.35">
@@ -23005,7 +23048,7 @@
         <v>732</v>
       </c>
       <c r="F984" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="985" spans="1:6" x14ac:dyDescent="0.35">
@@ -23065,7 +23108,7 @@
         <v>725</v>
       </c>
       <c r="F987" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="988" spans="1:6" x14ac:dyDescent="0.35">
@@ -23107,7 +23150,7 @@
         <v>725</v>
       </c>
       <c r="F989" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="990" spans="1:6" x14ac:dyDescent="0.35">
@@ -23149,7 +23192,7 @@
         <v>725</v>
       </c>
       <c r="F991" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="992" spans="1:6" x14ac:dyDescent="0.35">
@@ -23191,7 +23234,7 @@
         <v>725</v>
       </c>
       <c r="F993" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="994" spans="1:6" x14ac:dyDescent="0.35">
@@ -23233,7 +23276,7 @@
         <v>725</v>
       </c>
       <c r="F995" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="996" spans="1:6" x14ac:dyDescent="0.35">
@@ -23275,7 +23318,7 @@
         <v>725</v>
       </c>
       <c r="F997" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="998" spans="1:6" x14ac:dyDescent="0.35">
@@ -23317,7 +23360,7 @@
         <v>725</v>
       </c>
       <c r="F999" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="1000" spans="1:6" x14ac:dyDescent="0.35">
@@ -23359,7 +23402,7 @@
         <v>725</v>
       </c>
       <c r="F1001" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="1002" spans="1:6" x14ac:dyDescent="0.35">
@@ -23401,7 +23444,7 @@
         <v>725</v>
       </c>
       <c r="F1003" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="1004" spans="1:6" x14ac:dyDescent="0.35">
@@ -23443,7 +23486,7 @@
         <v>725</v>
       </c>
       <c r="F1005" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="1006" spans="1:6" x14ac:dyDescent="0.35">
@@ -23485,7 +23528,7 @@
         <v>725</v>
       </c>
       <c r="F1007" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="1008" spans="1:6" x14ac:dyDescent="0.35">
@@ -23527,7 +23570,7 @@
         <v>725</v>
       </c>
       <c r="F1009" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="1010" spans="1:6" x14ac:dyDescent="0.35">
@@ -23569,7 +23612,7 @@
         <v>725</v>
       </c>
       <c r="F1011" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
     </row>
     <row r="1012" spans="1:6" x14ac:dyDescent="0.35">
@@ -23611,7 +23654,7 @@
         <v>725</v>
       </c>
       <c r="F1013" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
     </row>
     <row r="1014" spans="1:6" x14ac:dyDescent="0.35">
@@ -23653,7 +23696,7 @@
         <v>725</v>
       </c>
       <c r="F1015" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
     </row>
     <row r="1016" spans="1:6" x14ac:dyDescent="0.35">
@@ -23695,7 +23738,7 @@
         <v>725</v>
       </c>
       <c r="F1017" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
     </row>
     <row r="1018" spans="1:6" x14ac:dyDescent="0.35">
@@ -23716,7 +23759,7 @@
         <v>730</v>
       </c>
       <c r="F1018" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
     </row>
     <row r="1019" spans="1:6" x14ac:dyDescent="0.35">
@@ -23755,7 +23798,7 @@
         <v>730</v>
       </c>
       <c r="F1020" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
     </row>
     <row r="1021" spans="1:6" x14ac:dyDescent="0.35">
@@ -24028,7 +24071,7 @@
         <v>730</v>
       </c>
       <c r="F1034" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
     </row>
     <row r="1035" spans="1:6" x14ac:dyDescent="0.35">
@@ -24067,7 +24110,7 @@
         <v>730</v>
       </c>
       <c r="F1036" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
     </row>
     <row r="1037" spans="1:6" x14ac:dyDescent="0.35">
@@ -24144,7 +24187,7 @@
         <v>730</v>
       </c>
       <c r="F1040" t="s">
-        <v>971</v>
+        <v>955</v>
       </c>
     </row>
     <row r="1041" spans="1:6" x14ac:dyDescent="0.35">
@@ -24165,7 +24208,7 @@
         <v>723</v>
       </c>
       <c r="F1041" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
     </row>
     <row r="1042" spans="1:6" x14ac:dyDescent="0.35">
@@ -24237,7 +24280,7 @@
         <v>730</v>
       </c>
       <c r="F1045" t="s">
-        <v>986</v>
+        <v>970</v>
       </c>
     </row>
     <row r="1046" spans="1:6" x14ac:dyDescent="0.35">
@@ -24314,7 +24357,7 @@
         <v>722</v>
       </c>
       <c r="F1049" t="s">
-        <v>979</v>
+        <v>963</v>
       </c>
     </row>
     <row r="1050" spans="1:6" x14ac:dyDescent="0.35">
@@ -24335,7 +24378,7 @@
         <v>730</v>
       </c>
       <c r="F1050" t="s">
-        <v>972</v>
+        <v>956</v>
       </c>
     </row>
     <row r="1051" spans="1:6" x14ac:dyDescent="0.35">
@@ -24528,7 +24571,7 @@
         <v>730</v>
       </c>
       <c r="F1060" t="s">
-        <v>973</v>
+        <v>957</v>
       </c>
     </row>
     <row r="1061" spans="1:6" x14ac:dyDescent="0.35">
@@ -24549,7 +24592,7 @@
         <v>723</v>
       </c>
       <c r="F1061" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
     </row>
     <row r="1062" spans="1:6" x14ac:dyDescent="0.35">
@@ -24621,7 +24664,7 @@
         <v>730</v>
       </c>
       <c r="F1065" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="1066" spans="1:6" x14ac:dyDescent="0.35">
@@ -24642,7 +24685,7 @@
         <v>723</v>
       </c>
       <c r="F1066" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="1067" spans="1:6" x14ac:dyDescent="0.35">
@@ -24663,7 +24706,7 @@
         <v>730</v>
       </c>
       <c r="F1067" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
     </row>
     <row r="1068" spans="1:6" x14ac:dyDescent="0.35">
@@ -24702,7 +24745,7 @@
         <v>730</v>
       </c>
       <c r="F1069" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
     </row>
     <row r="1070" spans="1:6" x14ac:dyDescent="0.35">
@@ -24741,7 +24784,7 @@
         <v>730</v>
       </c>
       <c r="F1071" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
     </row>
     <row r="1072" spans="1:6" x14ac:dyDescent="0.35">
@@ -24780,7 +24823,7 @@
         <v>730</v>
       </c>
       <c r="F1073" t="s">
-        <v>955</v>
+        <v>941</v>
       </c>
     </row>
     <row r="1074" spans="1:6" x14ac:dyDescent="0.35">
@@ -24857,7 +24900,7 @@
         <v>730</v>
       </c>
       <c r="F1077" t="s">
-        <v>974</v>
+        <v>958</v>
       </c>
     </row>
     <row r="1078" spans="1:6" x14ac:dyDescent="0.35">
@@ -24878,7 +24921,7 @@
         <v>723</v>
       </c>
       <c r="F1078" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
     </row>
     <row r="1079" spans="1:6" x14ac:dyDescent="0.35">
@@ -24950,7 +24993,7 @@
         <v>733</v>
       </c>
       <c r="F1082" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="1083" spans="1:6" x14ac:dyDescent="0.35">
@@ -24971,7 +25014,7 @@
         <v>729</v>
       </c>
       <c r="F1083" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
     </row>
     <row r="1084" spans="1:6" x14ac:dyDescent="0.35">
@@ -24992,7 +25035,7 @@
         <v>733</v>
       </c>
       <c r="F1084" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="1085" spans="1:6" x14ac:dyDescent="0.35">
@@ -25013,7 +25056,7 @@
         <v>729</v>
       </c>
       <c r="F1085" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
     </row>
     <row r="1086" spans="1:6" x14ac:dyDescent="0.35">
@@ -25034,7 +25077,7 @@
         <v>730</v>
       </c>
       <c r="F1086" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="1087" spans="1:6" x14ac:dyDescent="0.35">
@@ -25055,7 +25098,7 @@
         <v>723</v>
       </c>
       <c r="F1087" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="1088" spans="1:6" x14ac:dyDescent="0.35">
@@ -25076,7 +25119,7 @@
         <v>730</v>
       </c>
       <c r="F1088" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="1089" spans="1:6" x14ac:dyDescent="0.35">
@@ -25118,7 +25161,7 @@
         <v>730</v>
       </c>
       <c r="F1090" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1091" spans="1:6" x14ac:dyDescent="0.35">
@@ -25139,7 +25182,7 @@
         <v>723</v>
       </c>
       <c r="F1091" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="1092" spans="1:6" x14ac:dyDescent="0.35">
@@ -25160,7 +25203,7 @@
         <v>730</v>
       </c>
       <c r="F1092" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1093" spans="1:6" x14ac:dyDescent="0.35">
@@ -25181,7 +25224,7 @@
         <v>723</v>
       </c>
       <c r="F1093" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1094" spans="1:6" x14ac:dyDescent="0.35">
@@ -25202,7 +25245,7 @@
         <v>730</v>
       </c>
       <c r="F1094" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="1095" spans="1:6" x14ac:dyDescent="0.35">
@@ -25223,7 +25266,7 @@
         <v>723</v>
       </c>
       <c r="F1095" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
     </row>
     <row r="1096" spans="1:6" x14ac:dyDescent="0.35">
@@ -25234,8 +25277,8 @@
         <v>718</v>
       </c>
       <c r="C1096">
-        <f>1 / 300</f>
-        <v>3.3333333333333335E-3</v>
+        <f>1*0.004858 / 300</f>
+        <v>1.6193333333333333E-5</v>
       </c>
       <c r="D1096" t="s">
         <v>722</v>
@@ -25244,7 +25287,7 @@
         <v>730</v>
       </c>
       <c r="F1096" t="s">
-        <v>961</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="1097" spans="1:6" x14ac:dyDescent="0.35">
@@ -25265,7 +25308,7 @@
         <v>723</v>
       </c>
       <c r="F1097" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1098" spans="1:6" x14ac:dyDescent="0.35">
@@ -25276,8 +25319,8 @@
         <v>718</v>
       </c>
       <c r="C1098">
-        <f>1 / 4</f>
-        <v>0.25</v>
+        <f>1*0.0202881 / 4</f>
+        <v>5.072025E-3</v>
       </c>
       <c r="D1098" t="s">
         <v>722</v>
@@ -25286,7 +25329,7 @@
         <v>730</v>
       </c>
       <c r="F1098" t="s">
-        <v>962</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="1099" spans="1:6" x14ac:dyDescent="0.35">
@@ -25307,7 +25350,7 @@
         <v>723</v>
       </c>
       <c r="F1099" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1100" spans="1:6" x14ac:dyDescent="0.35">
@@ -25318,8 +25361,8 @@
         <v>718</v>
       </c>
       <c r="C1100">
-        <f>1 / 300</f>
-        <v>3.3333333333333335E-3</v>
+        <f>1*0.0044572 / 300</f>
+        <v>1.4857333333333333E-5</v>
       </c>
       <c r="D1100" t="s">
         <v>722</v>
@@ -25328,7 +25371,7 @@
         <v>730</v>
       </c>
       <c r="F1100" t="s">
-        <v>961</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="1101" spans="1:6" x14ac:dyDescent="0.35">
@@ -25349,7 +25392,7 @@
         <v>723</v>
       </c>
       <c r="F1101" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1102" spans="1:6" x14ac:dyDescent="0.35">
@@ -25370,7 +25413,7 @@
         <v>723</v>
       </c>
       <c r="F1102" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1103" spans="1:6" x14ac:dyDescent="0.35">
@@ -25381,8 +25424,8 @@
         <v>718</v>
       </c>
       <c r="C1103">
-        <f>1 / 160</f>
-        <v>6.2500000000000003E-3</v>
+        <f>1*0.004858 / 160</f>
+        <v>3.0362500000000003E-5</v>
       </c>
       <c r="D1103" t="s">
         <v>722</v>
@@ -25391,7 +25434,7 @@
         <v>730</v>
       </c>
       <c r="F1103" t="s">
-        <v>963</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1104" spans="1:6" x14ac:dyDescent="0.35">
@@ -25412,7 +25455,7 @@
         <v>723</v>
       </c>
       <c r="F1104" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1105" spans="1:6" x14ac:dyDescent="0.35">
@@ -25433,7 +25476,7 @@
         <v>723</v>
       </c>
       <c r="F1105" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1106" spans="1:6" x14ac:dyDescent="0.35">
@@ -25444,8 +25487,8 @@
         <v>718</v>
       </c>
       <c r="C1106">
-        <f>1 / 160</f>
-        <v>6.2500000000000003E-3</v>
+        <f>1*0.0044572 / 160</f>
+        <v>2.7857499999999999E-5</v>
       </c>
       <c r="D1106" t="s">
         <v>722</v>
@@ -25454,7 +25497,7 @@
         <v>730</v>
       </c>
       <c r="F1106" t="s">
-        <v>963</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="1107" spans="1:6" x14ac:dyDescent="0.35">
@@ -25475,7 +25518,7 @@
         <v>723</v>
       </c>
       <c r="F1107" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1108" spans="1:6" x14ac:dyDescent="0.35">
@@ -25496,7 +25539,7 @@
         <v>723</v>
       </c>
       <c r="F1108" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1109" spans="1:6" x14ac:dyDescent="0.35">
@@ -25507,8 +25550,8 @@
         <v>718</v>
       </c>
       <c r="C1109">
-        <f>1 / 160</f>
-        <v>6.2500000000000003E-3</v>
+        <f>1*0.0202881 / 160</f>
+        <v>1.2680062499999999E-4</v>
       </c>
       <c r="D1109" t="s">
         <v>722</v>
@@ -25517,7 +25560,7 @@
         <v>730</v>
       </c>
       <c r="F1109" t="s">
-        <v>963</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1110" spans="1:6" x14ac:dyDescent="0.35">
@@ -25538,7 +25581,7 @@
         <v>723</v>
       </c>
       <c r="F1110" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1111" spans="1:6" x14ac:dyDescent="0.35">
@@ -25559,7 +25602,7 @@
         <v>730</v>
       </c>
       <c r="F1111" t="s">
-        <v>962</v>
+        <v>947</v>
       </c>
     </row>
     <row r="1112" spans="1:6" x14ac:dyDescent="0.35">
@@ -25580,7 +25623,7 @@
         <v>723</v>
       </c>
       <c r="F1112" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="1113" spans="1:6" x14ac:dyDescent="0.35">
@@ -25601,7 +25644,7 @@
         <v>730</v>
       </c>
       <c r="F1113" t="s">
-        <v>962</v>
+        <v>947</v>
       </c>
     </row>
     <row r="1114" spans="1:6" x14ac:dyDescent="0.35">
@@ -25622,7 +25665,7 @@
         <v>723</v>
       </c>
       <c r="F1114" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="1115" spans="1:6" x14ac:dyDescent="0.35">
@@ -25643,7 +25686,7 @@
         <v>730</v>
       </c>
       <c r="F1115" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="1116" spans="1:6" x14ac:dyDescent="0.35">
@@ -25664,7 +25707,7 @@
         <v>723</v>
       </c>
       <c r="F1116" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="1117" spans="1:6" x14ac:dyDescent="0.35">
@@ -25702,7 +25745,7 @@
         <v>722</v>
       </c>
       <c r="F1118" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="1119" spans="1:6" x14ac:dyDescent="0.35">
@@ -25723,7 +25766,7 @@
         <v>723</v>
       </c>
       <c r="F1119" t="s">
-        <v>975</v>
+        <v>959</v>
       </c>
     </row>
     <row r="1120" spans="1:6" x14ac:dyDescent="0.35">
@@ -25744,7 +25787,7 @@
         <v>730</v>
       </c>
       <c r="F1120" t="s">
-        <v>964</v>
+        <v>948</v>
       </c>
     </row>
     <row r="1121" spans="1:6" x14ac:dyDescent="0.35">
@@ -25765,7 +25808,7 @@
         <v>723</v>
       </c>
       <c r="F1121" t="s">
-        <v>917</v>
+        <v>905</v>
       </c>
     </row>
     <row r="1122" spans="1:6" x14ac:dyDescent="0.35">
@@ -25786,7 +25829,7 @@
         <v>730</v>
       </c>
       <c r="F1122" t="s">
-        <v>964</v>
+        <v>948</v>
       </c>
     </row>
     <row r="1123" spans="1:6" x14ac:dyDescent="0.35">
@@ -25807,7 +25850,7 @@
         <v>723</v>
       </c>
       <c r="F1123" t="s">
-        <v>917</v>
+        <v>905</v>
       </c>
     </row>
     <row r="1124" spans="1:6" x14ac:dyDescent="0.35">
@@ -25828,7 +25871,7 @@
         <v>733</v>
       </c>
       <c r="F1124" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="1125" spans="1:6" x14ac:dyDescent="0.35">
@@ -25867,7 +25910,7 @@
         <v>732</v>
       </c>
       <c r="F1126" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="1127" spans="1:6" x14ac:dyDescent="0.35">
@@ -25906,7 +25949,7 @@
         <v>732</v>
       </c>
       <c r="F1128" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="1129" spans="1:6" x14ac:dyDescent="0.35">
@@ -25945,7 +25988,7 @@
         <v>732</v>
       </c>
       <c r="F1130" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="1131" spans="1:6" x14ac:dyDescent="0.35">
@@ -25984,7 +26027,7 @@
         <v>733</v>
       </c>
       <c r="F1132" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="1133" spans="1:6" x14ac:dyDescent="0.35">
@@ -26023,7 +26066,7 @@
         <v>733</v>
       </c>
       <c r="F1134" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="1135" spans="1:6" x14ac:dyDescent="0.35">
@@ -26062,7 +26105,7 @@
         <v>733</v>
       </c>
       <c r="F1136" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="1137" spans="1:6" x14ac:dyDescent="0.35">
@@ -26083,7 +26126,7 @@
         <v>729</v>
       </c>
       <c r="F1137" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
     </row>
     <row r="1138" spans="1:6" x14ac:dyDescent="0.35">
@@ -26572,7 +26615,7 @@
         <v>732</v>
       </c>
       <c r="F1162" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1163" spans="1:6" x14ac:dyDescent="0.35">
@@ -26611,7 +26654,7 @@
         <v>732</v>
       </c>
       <c r="F1164" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1165" spans="1:6" x14ac:dyDescent="0.35">
@@ -26650,7 +26693,7 @@
         <v>733</v>
       </c>
       <c r="F1166" t="s">
-        <v>988</v>
+        <v>972</v>
       </c>
     </row>
     <row r="1167" spans="1:6" x14ac:dyDescent="0.35">
@@ -26687,7 +26730,7 @@
         <v>722</v>
       </c>
       <c r="F1168" t="s">
-        <v>989</v>
+        <v>973</v>
       </c>
     </row>
     <row r="1169" spans="1:6" x14ac:dyDescent="0.35">
@@ -26707,7 +26750,7 @@
         <v>722</v>
       </c>
       <c r="F1169" t="s">
-        <v>990</v>
+        <v>974</v>
       </c>
     </row>
     <row r="1170" spans="1:6" x14ac:dyDescent="0.35">
@@ -26728,7 +26771,7 @@
         <v>733</v>
       </c>
       <c r="F1170" t="s">
-        <v>988</v>
+        <v>972</v>
       </c>
     </row>
     <row r="1171" spans="1:6" x14ac:dyDescent="0.35">
@@ -26765,7 +26808,7 @@
         <v>722</v>
       </c>
       <c r="F1172" t="s">
-        <v>989</v>
+        <v>973</v>
       </c>
     </row>
     <row r="1173" spans="1:6" x14ac:dyDescent="0.35">
@@ -26785,7 +26828,7 @@
         <v>722</v>
       </c>
       <c r="F1173" t="s">
-        <v>990</v>
+        <v>974</v>
       </c>
     </row>
     <row r="1174" spans="1:6" x14ac:dyDescent="0.35">
@@ -26806,7 +26849,7 @@
         <v>733</v>
       </c>
       <c r="F1174" t="s">
-        <v>988</v>
+        <v>972</v>
       </c>
     </row>
     <row r="1175" spans="1:6" x14ac:dyDescent="0.35">
@@ -26843,7 +26886,7 @@
         <v>722</v>
       </c>
       <c r="F1176" t="s">
-        <v>989</v>
+        <v>973</v>
       </c>
     </row>
     <row r="1177" spans="1:6" x14ac:dyDescent="0.35">
@@ -26863,7 +26906,7 @@
         <v>722</v>
       </c>
       <c r="F1177" t="s">
-        <v>990</v>
+        <v>974</v>
       </c>
     </row>
     <row r="1178" spans="1:6" x14ac:dyDescent="0.35">
@@ -26884,7 +26927,7 @@
         <v>733</v>
       </c>
       <c r="F1178" t="s">
-        <v>988</v>
+        <v>972</v>
       </c>
     </row>
     <row r="1179" spans="1:6" x14ac:dyDescent="0.35">
@@ -26921,7 +26964,7 @@
         <v>722</v>
       </c>
       <c r="F1180" t="s">
-        <v>989</v>
+        <v>973</v>
       </c>
     </row>
     <row r="1181" spans="1:6" x14ac:dyDescent="0.35">
@@ -26941,7 +26984,7 @@
         <v>722</v>
       </c>
       <c r="F1181" t="s">
-        <v>990</v>
+        <v>974</v>
       </c>
     </row>
     <row r="1182" spans="1:6" x14ac:dyDescent="0.35">
@@ -26962,7 +27005,7 @@
         <v>732</v>
       </c>
       <c r="F1182" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1183" spans="1:6" x14ac:dyDescent="0.35">
@@ -27001,7 +27044,7 @@
         <v>732</v>
       </c>
       <c r="F1184" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1185" spans="1:6" x14ac:dyDescent="0.35">
@@ -27040,7 +27083,7 @@
         <v>733</v>
       </c>
       <c r="F1186" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="1187" spans="1:6" x14ac:dyDescent="0.35">
@@ -27079,7 +27122,7 @@
         <v>733</v>
       </c>
       <c r="F1188" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="1189" spans="1:6" x14ac:dyDescent="0.35">
@@ -27100,7 +27143,7 @@
         <v>729</v>
       </c>
       <c r="F1189" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1190" spans="1:6" x14ac:dyDescent="0.35">
@@ -27121,7 +27164,7 @@
         <v>733</v>
       </c>
       <c r="F1190" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="1191" spans="1:6" x14ac:dyDescent="0.35">
@@ -27142,7 +27185,7 @@
         <v>729</v>
       </c>
       <c r="F1191" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1192" spans="1:6" x14ac:dyDescent="0.35">
@@ -27163,175 +27206,175 @@
         <v>723</v>
       </c>
       <c r="F1192" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="1193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1193" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B1193" t="s">
         <v>718</v>
       </c>
       <c r="C1193">
-        <f>(8.1/1.557) * (80/30) / 1000000</f>
-        <v>1.3872832369942197E-5</v>
+        <f>1 / (12133 * 1000)</f>
+        <v>8.2419846699085134E-8</v>
       </c>
       <c r="D1193" t="s">
         <v>726</v>
       </c>
       <c r="E1193" t="s">
-        <v>730</v>
+        <v>978</v>
       </c>
       <c r="F1193" t="s">
-        <v>844</v>
+        <v>984</v>
       </c>
     </row>
     <row r="1194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1194" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="B1194" t="s">
         <v>718</v>
       </c>
       <c r="C1194">
-        <f>(8.1/6.14) * (80/30) / 1000000</f>
-        <v>3.517915309446254E-6</v>
+        <f>1 / (51500 * 1000)</f>
+        <v>1.9417475728155341E-8</v>
       </c>
       <c r="D1194" t="s">
         <v>726</v>
       </c>
       <c r="E1194" t="s">
-        <v>730</v>
+        <v>978</v>
       </c>
       <c r="F1194" t="s">
-        <v>846</v>
+        <v>987</v>
       </c>
     </row>
     <row r="1195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1195" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="B1195" t="s">
         <v>718</v>
       </c>
       <c r="C1195">
-        <f>8.1/1.557 / 1000000</f>
-        <v>5.2023121387283237E-6</v>
+        <f>1 / (1557 * 1000)</f>
+        <v>6.4226075786769433E-7</v>
       </c>
       <c r="D1195" t="s">
         <v>726</v>
       </c>
       <c r="E1195" t="s">
-        <v>730</v>
+        <v>978</v>
       </c>
       <c r="F1195" t="s">
-        <v>848</v>
+        <v>983</v>
       </c>
     </row>
     <row r="1196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1196" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="B1196" t="s">
         <v>718</v>
       </c>
       <c r="C1196">
-        <f>8.1/6.14 / 1000000</f>
-        <v>1.3192182410423453E-6</v>
+        <f>1 / (6140 * 1000)</f>
+        <v>1.6286644951140065E-7</v>
       </c>
       <c r="D1196" t="s">
         <v>726</v>
       </c>
       <c r="E1196" t="s">
-        <v>730</v>
+        <v>978</v>
       </c>
       <c r="F1196" t="s">
-        <v>850</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1197" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="B1197" t="s">
         <v>718</v>
       </c>
       <c r="C1197">
-        <f>0.11/0.2 / 1000</f>
-        <v>5.4999999999999992E-4</v>
+        <f>1 / (0.2 * 1000)</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D1197" t="s">
         <v>726</v>
       </c>
       <c r="E1197" t="s">
-        <v>730</v>
+        <v>978</v>
       </c>
       <c r="F1197" t="s">
-        <v>852</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1198" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="B1198" t="s">
         <v>718</v>
       </c>
       <c r="C1198">
-        <f>0.11/0.425 / 1000</f>
-        <v>2.5882352941176474E-4</v>
+        <f>1 / (0.425 * 1000)</f>
+        <v>2.352941176470588E-3</v>
       </c>
       <c r="D1198" t="s">
         <v>726</v>
       </c>
       <c r="E1198" t="s">
-        <v>730</v>
+        <v>978</v>
       </c>
       <c r="F1198" t="s">
-        <v>854</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1199" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="B1199" t="s">
         <v>718</v>
       </c>
       <c r="C1199">
-        <f>(0.11/0.2) * (7.5/0.0625) / 1000</f>
-        <v>6.5999999999999989E-2</v>
+        <f>1 / (132 * 1000)</f>
+        <v>7.5757575757575756E-6</v>
       </c>
       <c r="D1199" t="s">
         <v>726</v>
       </c>
       <c r="E1199" t="s">
-        <v>730</v>
+        <v>978</v>
       </c>
       <c r="F1199" t="s">
-        <v>856</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1200" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="B1200" t="s">
         <v>718</v>
       </c>
       <c r="C1200">
-        <f>(0.11/0.425) * (7.5/0.0625) / 1000</f>
-        <v>3.1058823529411767E-2</v>
+        <f>1 / (425 * 1000)</f>
+        <v>2.352941176470588E-6</v>
       </c>
       <c r="D1200" t="s">
         <v>726</v>
       </c>
       <c r="E1200" t="s">
-        <v>730</v>
+        <v>978</v>
       </c>
       <c r="F1200" t="s">
-        <v>858</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1201" spans="1:6" x14ac:dyDescent="0.35">
@@ -27339,7 +27382,7 @@
         <v>6</v>
       </c>
       <c r="B1201" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1201">
         <f>1 * 3.6 / 14.55</f>
@@ -27360,7 +27403,7 @@
         <v>7</v>
       </c>
       <c r="B1202" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1202">
         <f>1 / 8.22</f>
@@ -27381,7 +27424,7 @@
         <v>27</v>
       </c>
       <c r="B1203" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1203">
         <f>1 * 3.6 / 42.5</f>
@@ -27402,7 +27445,7 @@
         <v>53</v>
       </c>
       <c r="B1204" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1204">
         <f>1 / 10.5</f>
@@ -27423,7 +27466,7 @@
         <v>150</v>
       </c>
       <c r="B1205" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1205">
         <f>1 * 3.6 / 27.91</f>
@@ -27444,7 +27487,7 @@
         <v>227</v>
       </c>
       <c r="B1206" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1206">
         <f>1 / 11.83</f>
@@ -27465,7 +27508,7 @@
         <v>232</v>
       </c>
       <c r="B1207" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1207">
         <f>1</f>
@@ -27480,10 +27523,10 @@
     </row>
     <row r="1208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1208" t="s">
-        <v>871</v>
+        <v>859</v>
       </c>
       <c r="B1208" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1208">
         <f>1</f>
@@ -27498,10 +27541,10 @@
     </row>
     <row r="1209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1209" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
       <c r="B1209" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1209">
         <f>1</f>
@@ -27516,10 +27559,10 @@
     </row>
     <row r="1210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1210" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
       <c r="B1210" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1210">
         <f>1</f>
@@ -27537,7 +27580,7 @@
         <v>236</v>
       </c>
       <c r="B1211" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1211">
         <f>1 / 13.28</f>
@@ -27550,7 +27593,7 @@
         <v>723</v>
       </c>
       <c r="F1211" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="1212" spans="1:6" x14ac:dyDescent="0.35">
@@ -27558,7 +27601,7 @@
         <v>240</v>
       </c>
       <c r="B1212" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1212">
         <f>1 * 3.6 / 31.58</f>
@@ -27571,7 +27614,7 @@
         <v>723</v>
       </c>
       <c r="F1212" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="1213" spans="1:6" x14ac:dyDescent="0.35">
@@ -27579,7 +27622,7 @@
         <v>242</v>
       </c>
       <c r="B1213" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1213">
         <f>1 * 3.6 / 40.938</f>
@@ -27592,7 +27635,7 @@
         <v>723</v>
       </c>
       <c r="F1213" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="1214" spans="1:6" x14ac:dyDescent="0.35">
@@ -27600,7 +27643,7 @@
         <v>243</v>
       </c>
       <c r="B1214" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1214">
         <f>1 * 3.6 / 50.285</f>
@@ -27613,7 +27656,7 @@
         <v>723</v>
       </c>
       <c r="F1214" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="1215" spans="1:6" x14ac:dyDescent="0.35">
@@ -27621,7 +27664,7 @@
         <v>255</v>
       </c>
       <c r="B1215" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1215">
         <f>1 * 3.6 / 42.5</f>
@@ -27634,7 +27677,7 @@
         <v>723</v>
       </c>
       <c r="F1215" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="1216" spans="1:6" x14ac:dyDescent="0.35">
@@ -27642,7 +27685,7 @@
         <v>262</v>
       </c>
       <c r="B1216" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1216">
         <f>1 / 33.3</f>
@@ -27655,7 +27698,7 @@
         <v>723</v>
       </c>
       <c r="F1216" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="1217" spans="1:6" x14ac:dyDescent="0.35">
@@ -27663,7 +27706,7 @@
         <v>269</v>
       </c>
       <c r="B1217" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1217">
         <f>1 / 33.3</f>
@@ -27676,7 +27719,7 @@
         <v>723</v>
       </c>
       <c r="F1217" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="1218" spans="1:6" x14ac:dyDescent="0.35">
@@ -27684,7 +27727,7 @@
         <v>270</v>
       </c>
       <c r="B1218" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1218">
         <f>1 / 33.3</f>
@@ -27697,7 +27740,7 @@
         <v>723</v>
       </c>
       <c r="F1218" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="1219" spans="1:6" x14ac:dyDescent="0.35">
@@ -27705,7 +27748,7 @@
         <v>271</v>
       </c>
       <c r="B1219" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1219">
         <f>1 / 33.3</f>
@@ -27718,7 +27761,7 @@
         <v>723</v>
       </c>
       <c r="F1219" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="1220" spans="1:6" x14ac:dyDescent="0.35">
@@ -27726,7 +27769,7 @@
         <v>307</v>
       </c>
       <c r="B1220" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1220">
         <f>1 * 3.6 / 43</f>
@@ -27739,7 +27782,7 @@
         <v>723</v>
       </c>
       <c r="F1220" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="1221" spans="1:6" x14ac:dyDescent="0.35">
@@ -27747,7 +27790,7 @@
         <v>326</v>
       </c>
       <c r="B1221" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1221">
         <f>1 * 3.6 / 42.6</f>
@@ -27760,7 +27803,7 @@
         <v>723</v>
       </c>
       <c r="F1221" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="1222" spans="1:6" x14ac:dyDescent="0.35">
@@ -27768,7 +27811,7 @@
         <v>327</v>
       </c>
       <c r="B1222" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1222">
         <f>1 * 3.6 / 39</f>
@@ -27781,7 +27824,7 @@
         <v>723</v>
       </c>
       <c r="F1222" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="1223" spans="1:6" x14ac:dyDescent="0.35">
@@ -27789,7 +27832,7 @@
         <v>332</v>
       </c>
       <c r="B1223" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1223">
         <f>1 / 5.54</f>
@@ -27802,7 +27845,7 @@
         <v>723</v>
       </c>
       <c r="F1223" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="1224" spans="1:6" x14ac:dyDescent="0.35">
@@ -27810,7 +27853,7 @@
         <v>344</v>
       </c>
       <c r="B1224" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1224">
         <f>1 * 3.6 / 39</f>
@@ -27823,7 +27866,7 @@
         <v>723</v>
       </c>
       <c r="F1224" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1225" spans="1:6" x14ac:dyDescent="0.35">
@@ -27831,7 +27874,7 @@
         <v>351</v>
       </c>
       <c r="B1225" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1225">
         <f>1 / (0.777 * 13.1)</f>
@@ -27844,7 +27887,7 @@
         <v>723</v>
       </c>
       <c r="F1225" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1226" spans="1:6" x14ac:dyDescent="0.35">
@@ -27852,7 +27895,7 @@
         <v>352</v>
       </c>
       <c r="B1226" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1226">
         <f>1 / (0.777 * 13.1)</f>
@@ -27865,7 +27908,7 @@
         <v>723</v>
       </c>
       <c r="F1226" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1227" spans="1:6" x14ac:dyDescent="0.35">
@@ -27873,7 +27916,7 @@
         <v>353</v>
       </c>
       <c r="B1227" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1227">
         <f>1 / (0.777 * 13.1)</f>
@@ -27886,7 +27929,7 @@
         <v>723</v>
       </c>
       <c r="F1227" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1228" spans="1:6" x14ac:dyDescent="0.35">
@@ -27894,7 +27937,7 @@
         <v>367</v>
       </c>
       <c r="B1228" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1228">
         <f>1</f>
@@ -27912,7 +27955,7 @@
         <v>374</v>
       </c>
       <c r="B1229" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1229">
         <f>1</f>
@@ -27930,7 +27973,7 @@
         <v>376</v>
       </c>
       <c r="B1230" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1230">
         <f>1 * 3.6 / 32.45</f>
@@ -27943,7 +27986,7 @@
         <v>723</v>
       </c>
       <c r="F1230" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
     <row r="1231" spans="1:6" x14ac:dyDescent="0.35">
@@ -27951,7 +27994,7 @@
         <v>381</v>
       </c>
       <c r="B1231" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1231">
         <f>1</f>
@@ -27969,7 +28012,7 @@
         <v>382</v>
       </c>
       <c r="B1232" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1232">
         <f>1 * 3.6 / 46.4</f>
@@ -27982,7 +28025,7 @@
         <v>723</v>
       </c>
       <c r="F1232" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="1233" spans="1:6" x14ac:dyDescent="0.35">
@@ -27990,7 +28033,7 @@
         <v>383</v>
       </c>
       <c r="B1233" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1233">
         <f>1 * 3.6 / 45.799</f>
@@ -28003,7 +28046,7 @@
         <v>723</v>
       </c>
       <c r="F1233" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="1234" spans="1:6" x14ac:dyDescent="0.35">
@@ -28011,7 +28054,7 @@
         <v>384</v>
       </c>
       <c r="B1234" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1234">
         <f>1</f>
@@ -28029,7 +28072,7 @@
         <v>385</v>
       </c>
       <c r="B1235" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1235">
         <f>1</f>
@@ -28047,7 +28090,7 @@
         <v>428</v>
       </c>
       <c r="B1236" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1236">
         <f>1 / (0.777 * 13.1)</f>
@@ -28060,7 +28103,7 @@
         <v>723</v>
       </c>
       <c r="F1236" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="1237" spans="1:6" x14ac:dyDescent="0.35">
@@ -28068,7 +28111,7 @@
         <v>439</v>
       </c>
       <c r="B1237" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1237">
         <f>1</f>
@@ -28086,7 +28129,7 @@
         <v>490</v>
       </c>
       <c r="B1238" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1238">
         <f>1 * 3.6 / 42.43</f>
@@ -28099,7 +28142,7 @@
         <v>723</v>
       </c>
       <c r="F1238" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1239" spans="1:6" x14ac:dyDescent="0.35">
@@ -28107,7 +28150,7 @@
         <v>561</v>
       </c>
       <c r="B1239" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1239">
         <f>1 * 3.6 / (3900*1000)</f>
@@ -28120,7 +28163,7 @@
         <v>723</v>
       </c>
       <c r="F1239" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="1240" spans="1:6" x14ac:dyDescent="0.35">
@@ -28128,7 +28171,7 @@
         <v>562</v>
       </c>
       <c r="B1240" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1240">
         <f>-1 * 3.6 / 12.35</f>
@@ -28141,7 +28184,7 @@
         <v>723</v>
       </c>
       <c r="F1240" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="1241" spans="1:6" x14ac:dyDescent="0.35">
@@ -28149,7 +28192,7 @@
         <v>563</v>
       </c>
       <c r="B1241" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1241">
         <f>-1 * 3.6 / (6.087*0.95)</f>
@@ -28162,7 +28205,7 @@
         <v>723</v>
       </c>
       <c r="F1241" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="1242" spans="1:6" x14ac:dyDescent="0.35">
@@ -28170,7 +28213,7 @@
         <v>564</v>
       </c>
       <c r="B1242" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1242">
         <f>-1 * 3.6 / 2.453</f>
@@ -28183,7 +28226,7 @@
         <v>723</v>
       </c>
       <c r="F1242" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="1243" spans="1:6" x14ac:dyDescent="0.35">
@@ -28191,7 +28234,7 @@
         <v>565</v>
       </c>
       <c r="B1243" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1243">
         <f>1 * 3.6 / (0.95*15)</f>
@@ -28204,7 +28247,7 @@
         <v>723</v>
       </c>
       <c r="F1243" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="1244" spans="1:6" x14ac:dyDescent="0.35">
@@ -28212,7 +28255,7 @@
         <v>572</v>
       </c>
       <c r="B1244" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1244">
         <f>1 * 3.6 / 15.4</f>
@@ -28225,7 +28268,7 @@
         <v>723</v>
       </c>
       <c r="F1244" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="1245" spans="1:6" x14ac:dyDescent="0.35">
@@ -28233,7 +28276,7 @@
         <v>574</v>
       </c>
       <c r="B1245" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1245">
         <f>1 * 3.6 / 40.961</f>
@@ -28246,7 +28289,7 @@
         <v>723</v>
       </c>
       <c r="F1245" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="1246" spans="1:6" x14ac:dyDescent="0.35">
@@ -28254,7 +28297,7 @@
         <v>716</v>
       </c>
       <c r="B1246" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1246">
         <f>1 * 3.6 / 31.58</f>
@@ -28267,15 +28310,15 @@
         <v>723</v>
       </c>
       <c r="F1246" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="1247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1247" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="B1247" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1247">
         <f>1 * 3.6 / 43</f>
@@ -28288,15 +28331,15 @@
         <v>723</v>
       </c>
       <c r="F1247" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="1248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1248" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
       <c r="B1248" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1248">
         <f>1 * 3.6 / 42.6</f>
@@ -28309,15 +28352,15 @@
         <v>723</v>
       </c>
       <c r="F1248" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="1249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1249" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="B1249" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1249">
         <f>1 / 5.54</f>
@@ -28330,7 +28373,7 @@
         <v>723</v>
       </c>
       <c r="F1249" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="1250" spans="1:6" x14ac:dyDescent="0.35">
@@ -28338,7 +28381,7 @@
         <v>428</v>
       </c>
       <c r="B1250" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1250">
         <f>1 * 3.6 / 39</f>
@@ -28351,15 +28394,15 @@
         <v>723</v>
       </c>
       <c r="F1250" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1251" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
       <c r="B1251" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1251">
         <f>1 / (0.777 * 13.1)</f>
@@ -28372,15 +28415,15 @@
         <v>723</v>
       </c>
       <c r="F1251" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1252" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="B1252" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1252">
         <f>1 / (0.777 * 13.1)</f>
@@ -28393,15 +28436,15 @@
         <v>723</v>
       </c>
       <c r="F1252" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1253" t="s">
-        <v>869</v>
+        <v>857</v>
       </c>
       <c r="B1253" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1253">
         <f>1 / (0.777 * 13.1)</f>
@@ -28414,15 +28457,15 @@
         <v>723</v>
       </c>
       <c r="F1253" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1254" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="B1254" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1254">
         <f>1 * 3.6</f>
@@ -28437,10 +28480,10 @@
     </row>
     <row r="1255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1255" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="B1255" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1255">
         <v>1</v>
@@ -28454,10 +28497,10 @@
     </row>
     <row r="1256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1256" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="B1256" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1256">
         <v>1</v>
@@ -28471,7 +28514,7 @@
     </row>
     <row r="1257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1257" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="B1257" t="s">
         <v>717</v>
@@ -28487,12 +28530,12 @@
         <v>723</v>
       </c>
       <c r="F1257" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="1258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1258" t="s">
-        <v>884</v>
+        <v>872</v>
       </c>
       <c r="B1258" t="s">
         <v>717</v>
@@ -28508,12 +28551,12 @@
         <v>723</v>
       </c>
       <c r="F1258" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="1259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1259" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="B1259" t="s">
         <v>717</v>
@@ -28529,12 +28572,12 @@
         <v>723</v>
       </c>
       <c r="F1259" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="1260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1260" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="B1260" t="s">
         <v>717</v>
@@ -28550,12 +28593,12 @@
         <v>723</v>
       </c>
       <c r="F1260" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="1261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1261" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="B1261" t="s">
         <v>717</v>
@@ -28571,12 +28614,12 @@
         <v>723</v>
       </c>
       <c r="F1261" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="1262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1262" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="B1262" t="s">
         <v>717</v>
@@ -28592,12 +28635,12 @@
         <v>723</v>
       </c>
       <c r="F1262" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
     </row>
     <row r="1263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1263" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="B1263" t="s">
         <v>717</v>
@@ -28613,12 +28656,12 @@
         <v>723</v>
       </c>
       <c r="F1263" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="1264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1264" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="B1264" t="s">
         <v>717</v>
@@ -28634,12 +28677,12 @@
         <v>723</v>
       </c>
       <c r="F1264" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
     </row>
     <row r="1265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1265" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
       <c r="B1265" t="s">
         <v>717</v>
@@ -28655,12 +28698,12 @@
         <v>723</v>
       </c>
       <c r="F1265" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="1266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1266" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="B1266" t="s">
         <v>717</v>
@@ -28676,12 +28719,12 @@
         <v>723</v>
       </c>
       <c r="F1266" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
     </row>
     <row r="1267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1267" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="B1267" t="s">
         <v>717</v>
@@ -28697,15 +28740,15 @@
         <v>723</v>
       </c>
       <c r="F1267" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="1268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1268" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="B1268" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1268">
         <f>3.6/10.8</f>
@@ -28718,15 +28761,15 @@
         <v>723</v>
       </c>
       <c r="F1268" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="1269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1269" t="s">
-        <v>884</v>
+        <v>872</v>
       </c>
       <c r="B1269" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1269">
         <f>3.6/10.8</f>
@@ -28739,15 +28782,15 @@
         <v>723</v>
       </c>
       <c r="F1269" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="1270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1270" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="B1270" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1270">
         <f>3.6/10.8</f>
@@ -28760,15 +28803,15 @@
         <v>723</v>
       </c>
       <c r="F1270" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="1271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1271" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="B1271" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1271">
         <f>3.6/10.8</f>
@@ -28781,15 +28824,15 @@
         <v>723</v>
       </c>
       <c r="F1271" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="1272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1272" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="B1272" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1272">
         <f>1 * 3.6 / (0.95*15)</f>
@@ -28802,15 +28845,15 @@
         <v>723</v>
       </c>
       <c r="F1272" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="1273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1273" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="B1273" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1273">
         <f>3.6/9.99</f>
@@ -28823,15 +28866,15 @@
         <v>723</v>
       </c>
       <c r="F1273" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
     </row>
     <row r="1274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1274" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="B1274" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1274">
         <f>-1 * 3.6 / 12.35</f>
@@ -28844,15 +28887,15 @@
         <v>723</v>
       </c>
       <c r="F1274" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="1275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1275" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="B1275" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1275">
         <f>3.6/14.1</f>
@@ -28865,15 +28908,15 @@
         <v>723</v>
       </c>
       <c r="F1275" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
     </row>
     <row r="1276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1276" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
       <c r="B1276" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1276">
         <f>-1 * 3.6 / 12.35</f>
@@ -28886,15 +28929,15 @@
         <v>723</v>
       </c>
       <c r="F1276" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="1277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1277" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="B1277" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1277">
         <f>3.6/9.99</f>
@@ -28907,15 +28950,15 @@
         <v>723</v>
       </c>
       <c r="F1277" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
     </row>
     <row r="1278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1278" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="B1278" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C1278">
         <f>-1 * 3.6 / 12.35</f>
@@ -28928,7 +28971,7 @@
         <v>723</v>
       </c>
       <c r="F1278" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
   </sheetData>

--- a/dev/energyscope_data/CA-QC/unit_conversion.xlsx
+++ b/dev/energyscope_data/CA-QC/unit_conversion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\mescal\dev\energyscope_data\CA-QC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DEA62D-99D1-46D8-9396-7CF69B45EC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76337297-1EB0-4351-A042-72DC29AAB9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6012" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6013" uniqueCount="1010">
   <si>
     <t>Name</t>
   </si>
@@ -2796,9 +2796,6 @@
     <t>capacity factor (0.85): \cite{moret2017}, facility capacity (1 Mt CO2/year): \cite{sacchi2022}</t>
   </si>
   <si>
-    <t>Capacity (2 kWe PEM)</t>
-  </si>
-  <si>
     <t>Capacity (10 kW)</t>
   </si>
   <si>
@@ -3064,6 +3061,12 @@
   </si>
   <si>
     <t>Capacity (300 kW): \cite{wernet2016}, power consumption (0.0044572 kW_el / kW_SNG): \cite{schnidrig2023}</t>
+  </si>
+  <si>
+    <t>allocation factor (0.123336767415877): \cite{sacchi2022}</t>
+  </si>
+  <si>
+    <t>Capacity (2 kWe PEM), cogeneration (2.64 kWe/kWth): \cite{moret2017}</t>
   </si>
 </sst>
 </file>
@@ -3433,7 +3436,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1278"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A280" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E300" sqref="E300"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -9492,8 +9497,8 @@
         <v>718</v>
       </c>
       <c r="C301">
-        <f>1 / 2</f>
-        <v>0.5</v>
+        <f xml:space="preserve"> 2.64 / 2</f>
+        <v>1.32</v>
       </c>
       <c r="D301" t="s">
         <v>722</v>
@@ -9502,7 +9507,7 @@
         <v>730</v>
       </c>
       <c r="F301" t="s">
-        <v>919</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.35">
@@ -9513,13 +9518,17 @@
         <v>719</v>
       </c>
       <c r="C302">
-        <v>1</v>
+        <f>3.6/0.123336767415877</f>
+        <v>29.188376470588253</v>
       </c>
       <c r="D302" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="E302" t="s">
         <v>723</v>
+      </c>
+      <c r="F302" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.35">
@@ -9540,7 +9549,7 @@
         <v>730</v>
       </c>
       <c r="F303" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.35">
@@ -9579,7 +9588,7 @@
         <v>730</v>
       </c>
       <c r="F305" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.35">
@@ -9656,7 +9665,7 @@
         <v>730</v>
       </c>
       <c r="F309" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.35">
@@ -9695,7 +9704,7 @@
         <v>730</v>
       </c>
       <c r="F311" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.35">
@@ -9788,7 +9797,7 @@
         <v>730</v>
       </c>
       <c r="F316" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.35">
@@ -9865,7 +9874,7 @@
         <v>722</v>
       </c>
       <c r="F320" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.35">
@@ -9886,7 +9895,7 @@
         <v>730</v>
       </c>
       <c r="F321" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.35">
@@ -9942,7 +9951,7 @@
         <v>722</v>
       </c>
       <c r="F324" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.35">
@@ -9963,7 +9972,7 @@
         <v>730</v>
       </c>
       <c r="F325" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.35">
@@ -10001,7 +10010,7 @@
         <v>730</v>
       </c>
       <c r="F327" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.35">
@@ -10061,7 +10070,7 @@
         <v>730</v>
       </c>
       <c r="F330" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.35">
@@ -10138,7 +10147,7 @@
         <v>730</v>
       </c>
       <c r="F334" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.35">
@@ -10293,7 +10302,7 @@
         <v>730</v>
       </c>
       <c r="F342" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.35">
@@ -10366,7 +10375,7 @@
         <v>730</v>
       </c>
       <c r="F346" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.35">
@@ -10459,7 +10468,7 @@
         <v>730</v>
       </c>
       <c r="F351" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.35">
@@ -10519,7 +10528,7 @@
         <v>730</v>
       </c>
       <c r="F354" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.35">
@@ -10619,7 +10628,7 @@
         <v>730</v>
       </c>
       <c r="F359" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.35">
@@ -10695,7 +10704,7 @@
         <v>722</v>
       </c>
       <c r="F363" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.35">
@@ -10716,7 +10725,7 @@
         <v>730</v>
       </c>
       <c r="F364" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.35">
@@ -10755,7 +10764,7 @@
         <v>730</v>
       </c>
       <c r="F366" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.35">
@@ -10794,7 +10803,7 @@
         <v>730</v>
       </c>
       <c r="F368" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.35">
@@ -10836,7 +10845,7 @@
         <v>723</v>
       </c>
       <c r="F370" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.35">
@@ -10888,10 +10897,10 @@
         <v>726</v>
       </c>
       <c r="E373" t="s">
+        <v>977</v>
+      </c>
+      <c r="F373" t="s">
         <v>978</v>
-      </c>
-      <c r="F373" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.35">
@@ -11515,7 +11524,7 @@
         <v>730</v>
       </c>
       <c r="F404" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.35">
@@ -11616,7 +11625,7 @@
         <v>723</v>
       </c>
       <c r="F409" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.35">
@@ -11637,7 +11646,7 @@
         <v>730</v>
       </c>
       <c r="F410" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.35">
@@ -11675,7 +11684,7 @@
         <v>730</v>
       </c>
       <c r="F412" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.35">
@@ -11714,7 +11723,7 @@
         <v>730</v>
       </c>
       <c r="F414" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.35">
@@ -11756,7 +11765,7 @@
         <v>730</v>
       </c>
       <c r="F416" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.35">
@@ -11798,7 +11807,7 @@
         <v>730</v>
       </c>
       <c r="F418" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.35">
@@ -11882,7 +11891,7 @@
         <v>730</v>
       </c>
       <c r="F422" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.35">
@@ -11945,7 +11954,7 @@
         <v>730</v>
       </c>
       <c r="F425" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.35">
@@ -12008,7 +12017,7 @@
         <v>730</v>
       </c>
       <c r="F428" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.35">
@@ -12113,7 +12122,7 @@
         <v>730</v>
       </c>
       <c r="F433" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.35">
@@ -12152,7 +12161,7 @@
         <v>730</v>
       </c>
       <c r="F435" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.35">
@@ -12227,10 +12236,10 @@
         <v>726</v>
       </c>
       <c r="E439" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F439" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.35">
@@ -12251,7 +12260,7 @@
         <v>730</v>
       </c>
       <c r="F440" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.35">
@@ -12290,7 +12299,7 @@
         <v>730</v>
       </c>
       <c r="F442" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.35">
@@ -12332,7 +12341,7 @@
         <v>730</v>
       </c>
       <c r="F444" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.35">
@@ -12374,7 +12383,7 @@
         <v>722</v>
       </c>
       <c r="F446" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.35">
@@ -12412,7 +12421,7 @@
         <v>730</v>
       </c>
       <c r="F448" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.35">
@@ -12451,7 +12460,7 @@
         <v>730</v>
       </c>
       <c r="F450" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.35">
@@ -12490,7 +12499,7 @@
         <v>730</v>
       </c>
       <c r="F452" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.35">
@@ -12529,7 +12538,7 @@
         <v>730</v>
       </c>
       <c r="F454" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.35">
@@ -12606,7 +12615,7 @@
         <v>730</v>
       </c>
       <c r="F458" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.35">
@@ -12645,7 +12654,7 @@
         <v>730</v>
       </c>
       <c r="F460" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.35">
@@ -12684,7 +12693,7 @@
         <v>730</v>
       </c>
       <c r="F462" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.35">
@@ -12723,7 +12732,7 @@
         <v>730</v>
       </c>
       <c r="F464" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.35">
@@ -12816,7 +12825,7 @@
         <v>730</v>
       </c>
       <c r="F469" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.35">
@@ -12855,7 +12864,7 @@
         <v>730</v>
       </c>
       <c r="F471" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.35">
@@ -12976,7 +12985,7 @@
         <v>730</v>
       </c>
       <c r="F477" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.35">
@@ -13069,7 +13078,7 @@
         <v>730</v>
       </c>
       <c r="F482" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.35">
@@ -13107,7 +13116,7 @@
         <v>730</v>
       </c>
       <c r="F484" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.35">
@@ -13962,10 +13971,10 @@
         <v>726</v>
       </c>
       <c r="E525" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F525" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.35">
@@ -14028,7 +14037,7 @@
         <v>730</v>
       </c>
       <c r="F528" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.35">
@@ -14316,10 +14325,10 @@
         <v>726</v>
       </c>
       <c r="E542" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F542" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.35">
@@ -14340,7 +14349,7 @@
         <v>730</v>
       </c>
       <c r="F543" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.35">
@@ -14379,7 +14388,7 @@
         <v>730</v>
       </c>
       <c r="F545" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.35">
@@ -14418,7 +14427,7 @@
         <v>730</v>
       </c>
       <c r="F547" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.35">
@@ -14460,7 +14469,7 @@
         <v>730</v>
       </c>
       <c r="F549" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.35">
@@ -14502,7 +14511,7 @@
         <v>730</v>
       </c>
       <c r="F551" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.35">
@@ -14586,7 +14595,7 @@
         <v>730</v>
       </c>
       <c r="F555" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.35">
@@ -14649,7 +14658,7 @@
         <v>730</v>
       </c>
       <c r="F558" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.35">
@@ -14712,7 +14721,7 @@
         <v>730</v>
       </c>
       <c r="F561" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.35">
@@ -14817,7 +14826,7 @@
         <v>730</v>
       </c>
       <c r="F566" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.35">
@@ -14859,7 +14868,7 @@
         <v>730</v>
       </c>
       <c r="F568" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.35">
@@ -15001,7 +15010,7 @@
         <v>730</v>
       </c>
       <c r="F575" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.35">
@@ -15039,7 +15048,7 @@
         <v>730</v>
       </c>
       <c r="F577" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.35">
@@ -15081,7 +15090,7 @@
         <v>730</v>
       </c>
       <c r="F579" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.35">
@@ -15123,7 +15132,7 @@
         <v>730</v>
       </c>
       <c r="F581" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.35">
@@ -15294,7 +15303,7 @@
         <v>730</v>
       </c>
       <c r="F590" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.35">
@@ -15332,7 +15341,7 @@
         <v>730</v>
       </c>
       <c r="F592" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.35">
@@ -15752,7 +15761,7 @@
         <v>730</v>
       </c>
       <c r="F614" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.35">
@@ -15791,7 +15800,7 @@
         <v>730</v>
       </c>
       <c r="F616" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.35">
@@ -17478,7 +17487,7 @@
         <v>730</v>
       </c>
       <c r="F701" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.35">
@@ -19983,7 +19992,7 @@
         <v>733</v>
       </c>
       <c r="F831" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="832" spans="1:6" x14ac:dyDescent="0.35">
@@ -20020,7 +20029,7 @@
         <v>722</v>
       </c>
       <c r="F833" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.35">
@@ -20040,7 +20049,7 @@
         <v>722</v>
       </c>
       <c r="F834" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="835" spans="1:6" x14ac:dyDescent="0.35">
@@ -20061,7 +20070,7 @@
         <v>733</v>
       </c>
       <c r="F835" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.35">
@@ -20098,7 +20107,7 @@
         <v>722</v>
       </c>
       <c r="F837" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="838" spans="1:6" x14ac:dyDescent="0.35">
@@ -20118,7 +20127,7 @@
         <v>722</v>
       </c>
       <c r="F838" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="839" spans="1:6" x14ac:dyDescent="0.35">
@@ -20139,7 +20148,7 @@
         <v>733</v>
       </c>
       <c r="F839" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="840" spans="1:6" x14ac:dyDescent="0.35">
@@ -20176,7 +20185,7 @@
         <v>722</v>
       </c>
       <c r="F841" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="842" spans="1:6" x14ac:dyDescent="0.35">
@@ -20196,7 +20205,7 @@
         <v>722</v>
       </c>
       <c r="F842" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="843" spans="1:6" x14ac:dyDescent="0.35">
@@ -20217,7 +20226,7 @@
         <v>733</v>
       </c>
       <c r="F843" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="844" spans="1:6" x14ac:dyDescent="0.35">
@@ -20254,7 +20263,7 @@
         <v>722</v>
       </c>
       <c r="F845" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="846" spans="1:6" x14ac:dyDescent="0.35">
@@ -20274,7 +20283,7 @@
         <v>722</v>
       </c>
       <c r="F846" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.35">
@@ -20295,7 +20304,7 @@
         <v>733</v>
       </c>
       <c r="F847" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.35">
@@ -20332,7 +20341,7 @@
         <v>722</v>
       </c>
       <c r="F849" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="850" spans="1:6" x14ac:dyDescent="0.35">
@@ -20352,7 +20361,7 @@
         <v>722</v>
       </c>
       <c r="F850" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="851" spans="1:6" x14ac:dyDescent="0.35">
@@ -20373,7 +20382,7 @@
         <v>733</v>
       </c>
       <c r="F851" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="852" spans="1:6" x14ac:dyDescent="0.35">
@@ -20411,7 +20420,7 @@
         <v>722</v>
       </c>
       <c r="F853" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="854" spans="1:6" x14ac:dyDescent="0.35">
@@ -20431,7 +20440,7 @@
         <v>722</v>
       </c>
       <c r="F854" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="855" spans="1:6" x14ac:dyDescent="0.35">
@@ -20452,7 +20461,7 @@
         <v>733</v>
       </c>
       <c r="F855" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="856" spans="1:6" x14ac:dyDescent="0.35">
@@ -20490,7 +20499,7 @@
         <v>722</v>
       </c>
       <c r="F857" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="0.35">
@@ -20510,7 +20519,7 @@
         <v>722</v>
       </c>
       <c r="F858" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="859" spans="1:6" x14ac:dyDescent="0.35">
@@ -20531,7 +20540,7 @@
         <v>733</v>
       </c>
       <c r="F859" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="860" spans="1:6" x14ac:dyDescent="0.35">
@@ -20568,7 +20577,7 @@
         <v>722</v>
       </c>
       <c r="F861" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.35">
@@ -20588,7 +20597,7 @@
         <v>722</v>
       </c>
       <c r="F862" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="863" spans="1:6" x14ac:dyDescent="0.35">
@@ -20609,7 +20618,7 @@
         <v>733</v>
       </c>
       <c r="F863" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="864" spans="1:6" x14ac:dyDescent="0.35">
@@ -20646,7 +20655,7 @@
         <v>722</v>
       </c>
       <c r="F865" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="866" spans="1:6" x14ac:dyDescent="0.35">
@@ -20666,7 +20675,7 @@
         <v>722</v>
       </c>
       <c r="F866" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="867" spans="1:6" x14ac:dyDescent="0.35">
@@ -20687,7 +20696,7 @@
         <v>733</v>
       </c>
       <c r="F867" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="868" spans="1:6" x14ac:dyDescent="0.35">
@@ -20724,7 +20733,7 @@
         <v>722</v>
       </c>
       <c r="F869" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.35">
@@ -20744,7 +20753,7 @@
         <v>722</v>
       </c>
       <c r="F870" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="871" spans="1:6" x14ac:dyDescent="0.35">
@@ -22067,7 +22076,7 @@
         <v>730</v>
       </c>
       <c r="F935" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="936" spans="1:6" x14ac:dyDescent="0.35">
@@ -22140,7 +22149,7 @@
         <v>730</v>
       </c>
       <c r="F939" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="940" spans="1:6" x14ac:dyDescent="0.35">
@@ -22213,7 +22222,7 @@
         <v>730</v>
       </c>
       <c r="F943" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="944" spans="1:6" x14ac:dyDescent="0.35">
@@ -23759,7 +23768,7 @@
         <v>730</v>
       </c>
       <c r="F1018" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="1019" spans="1:6" x14ac:dyDescent="0.35">
@@ -23798,7 +23807,7 @@
         <v>730</v>
       </c>
       <c r="F1020" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="1021" spans="1:6" x14ac:dyDescent="0.35">
@@ -24071,7 +24080,7 @@
         <v>730</v>
       </c>
       <c r="F1034" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="1035" spans="1:6" x14ac:dyDescent="0.35">
@@ -24110,7 +24119,7 @@
         <v>730</v>
       </c>
       <c r="F1036" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="1037" spans="1:6" x14ac:dyDescent="0.35">
@@ -24187,7 +24196,7 @@
         <v>730</v>
       </c>
       <c r="F1040" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="1041" spans="1:6" x14ac:dyDescent="0.35">
@@ -24280,7 +24289,7 @@
         <v>730</v>
       </c>
       <c r="F1045" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="1046" spans="1:6" x14ac:dyDescent="0.35">
@@ -24357,7 +24366,7 @@
         <v>722</v>
       </c>
       <c r="F1049" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="1050" spans="1:6" x14ac:dyDescent="0.35">
@@ -24378,7 +24387,7 @@
         <v>730</v>
       </c>
       <c r="F1050" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="1051" spans="1:6" x14ac:dyDescent="0.35">
@@ -24571,7 +24580,7 @@
         <v>730</v>
       </c>
       <c r="F1060" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="1061" spans="1:6" x14ac:dyDescent="0.35">
@@ -24706,7 +24715,7 @@
         <v>730</v>
       </c>
       <c r="F1067" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="1068" spans="1:6" x14ac:dyDescent="0.35">
@@ -24745,7 +24754,7 @@
         <v>730</v>
       </c>
       <c r="F1069" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="1070" spans="1:6" x14ac:dyDescent="0.35">
@@ -24784,7 +24793,7 @@
         <v>730</v>
       </c>
       <c r="F1071" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="1072" spans="1:6" x14ac:dyDescent="0.35">
@@ -24823,7 +24832,7 @@
         <v>730</v>
       </c>
       <c r="F1073" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="1074" spans="1:6" x14ac:dyDescent="0.35">
@@ -24900,7 +24909,7 @@
         <v>730</v>
       </c>
       <c r="F1077" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="1078" spans="1:6" x14ac:dyDescent="0.35">
@@ -25287,7 +25296,7 @@
         <v>730</v>
       </c>
       <c r="F1096" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1097" spans="1:6" x14ac:dyDescent="0.35">
@@ -25329,7 +25338,7 @@
         <v>730</v>
       </c>
       <c r="F1098" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="1099" spans="1:6" x14ac:dyDescent="0.35">
@@ -25371,7 +25380,7 @@
         <v>730</v>
       </c>
       <c r="F1100" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="1101" spans="1:6" x14ac:dyDescent="0.35">
@@ -25434,7 +25443,7 @@
         <v>730</v>
       </c>
       <c r="F1103" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1104" spans="1:6" x14ac:dyDescent="0.35">
@@ -25497,7 +25506,7 @@
         <v>730</v>
       </c>
       <c r="F1106" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="1107" spans="1:6" x14ac:dyDescent="0.35">
@@ -25560,7 +25569,7 @@
         <v>730</v>
       </c>
       <c r="F1109" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="1110" spans="1:6" x14ac:dyDescent="0.35">
@@ -25602,7 +25611,7 @@
         <v>730</v>
       </c>
       <c r="F1111" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="1112" spans="1:6" x14ac:dyDescent="0.35">
@@ -25644,7 +25653,7 @@
         <v>730</v>
       </c>
       <c r="F1113" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="1114" spans="1:6" x14ac:dyDescent="0.35">
@@ -25766,7 +25775,7 @@
         <v>723</v>
       </c>
       <c r="F1119" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="1120" spans="1:6" x14ac:dyDescent="0.35">
@@ -25787,7 +25796,7 @@
         <v>730</v>
       </c>
       <c r="F1120" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="1121" spans="1:6" x14ac:dyDescent="0.35">
@@ -25829,7 +25838,7 @@
         <v>730</v>
       </c>
       <c r="F1122" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="1123" spans="1:6" x14ac:dyDescent="0.35">
@@ -26693,7 +26702,7 @@
         <v>733</v>
       </c>
       <c r="F1166" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="1167" spans="1:6" x14ac:dyDescent="0.35">
@@ -26730,7 +26739,7 @@
         <v>722</v>
       </c>
       <c r="F1168" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="1169" spans="1:6" x14ac:dyDescent="0.35">
@@ -26750,7 +26759,7 @@
         <v>722</v>
       </c>
       <c r="F1169" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="1170" spans="1:6" x14ac:dyDescent="0.35">
@@ -26771,7 +26780,7 @@
         <v>733</v>
       </c>
       <c r="F1170" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="1171" spans="1:6" x14ac:dyDescent="0.35">
@@ -26808,7 +26817,7 @@
         <v>722</v>
       </c>
       <c r="F1172" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="1173" spans="1:6" x14ac:dyDescent="0.35">
@@ -26828,7 +26837,7 @@
         <v>722</v>
       </c>
       <c r="F1173" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="1174" spans="1:6" x14ac:dyDescent="0.35">
@@ -26849,7 +26858,7 @@
         <v>733</v>
       </c>
       <c r="F1174" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="1175" spans="1:6" x14ac:dyDescent="0.35">
@@ -26886,7 +26895,7 @@
         <v>722</v>
       </c>
       <c r="F1176" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="1177" spans="1:6" x14ac:dyDescent="0.35">
@@ -26906,7 +26915,7 @@
         <v>722</v>
       </c>
       <c r="F1177" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="1178" spans="1:6" x14ac:dyDescent="0.35">
@@ -26927,7 +26936,7 @@
         <v>733</v>
       </c>
       <c r="F1178" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="1179" spans="1:6" x14ac:dyDescent="0.35">
@@ -26964,7 +26973,7 @@
         <v>722</v>
       </c>
       <c r="F1180" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="1181" spans="1:6" x14ac:dyDescent="0.35">
@@ -26984,7 +26993,7 @@
         <v>722</v>
       </c>
       <c r="F1181" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="1182" spans="1:6" x14ac:dyDescent="0.35">
@@ -27224,10 +27233,10 @@
         <v>726</v>
       </c>
       <c r="E1193" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F1193" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="1194" spans="1:6" x14ac:dyDescent="0.35">
@@ -27245,10 +27254,10 @@
         <v>726</v>
       </c>
       <c r="E1194" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F1194" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1195" spans="1:6" x14ac:dyDescent="0.35">
@@ -27266,10 +27275,10 @@
         <v>726</v>
       </c>
       <c r="E1195" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F1195" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="1196" spans="1:6" x14ac:dyDescent="0.35">
@@ -27287,10 +27296,10 @@
         <v>726</v>
       </c>
       <c r="E1196" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F1196" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="1197" spans="1:6" x14ac:dyDescent="0.35">
@@ -27308,10 +27317,10 @@
         <v>726</v>
       </c>
       <c r="E1197" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F1197" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1198" spans="1:6" x14ac:dyDescent="0.35">
@@ -27329,10 +27338,10 @@
         <v>726</v>
       </c>
       <c r="E1198" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F1198" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1199" spans="1:6" x14ac:dyDescent="0.35">
@@ -27350,10 +27359,10 @@
         <v>726</v>
       </c>
       <c r="E1199" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F1199" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="1200" spans="1:6" x14ac:dyDescent="0.35">
@@ -27371,10 +27380,10 @@
         <v>726</v>
       </c>
       <c r="E1200" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F1200" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1201" spans="1:6" x14ac:dyDescent="0.35">
